--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -65,9 +65,6 @@
     <t>ABF DC steps</t>
   </si>
   <si>
-    <t>ABF Opto stim</t>
-  </si>
-  <si>
     <t>KL_160225_A</t>
   </si>
   <si>
@@ -285,6 +282,372 @@
   </si>
   <si>
     <t>1,2</t>
+  </si>
+  <si>
+    <t>KL_160406_A</t>
+  </si>
+  <si>
+    <t>2016_04_26_0000</t>
+  </si>
+  <si>
+    <t>concat_2016_04_26_1to3</t>
+  </si>
+  <si>
+    <t>156, 177</t>
+  </si>
+  <si>
+    <t>-39, -23</t>
+  </si>
+  <si>
+    <t>-249, -304</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>1:13, 20, 96</t>
+  </si>
+  <si>
+    <t>Too much rundown in EPSC amplitude. Prob need to ignore the later sweeps.</t>
+  </si>
+  <si>
+    <t>KL_160406_B</t>
+  </si>
+  <si>
+    <t>2016_04_25_0000</t>
+  </si>
+  <si>
+    <t>2016_04_25_0001</t>
+  </si>
+  <si>
+    <t>243, 207</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>39, -43</t>
+  </si>
+  <si>
+    <t>-137, -222</t>
+  </si>
+  <si>
+    <t>14, 30:40</t>
+  </si>
+  <si>
+    <t>2016_04_25_0005</t>
+  </si>
+  <si>
+    <t>2016_04_25_0006</t>
+  </si>
+  <si>
+    <t>-16, 2</t>
+  </si>
+  <si>
+    <t>-81, -279</t>
+  </si>
+  <si>
+    <t>62, 301</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>ABF Opto stim Vclamp</t>
+  </si>
+  <si>
+    <t>ABF Opto stim Iclamp</t>
+  </si>
+  <si>
+    <t>KL_160406_C</t>
+  </si>
+  <si>
+    <t>2016_04_28_0000</t>
+  </si>
+  <si>
+    <t>2016_04_28_0001</t>
+  </si>
+  <si>
+    <t>-43, 30</t>
+  </si>
+  <si>
+    <t>-170, -170</t>
+  </si>
+  <si>
+    <t>186, 287</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>2016_04_28_0002</t>
+  </si>
+  <si>
+    <t>2016_04_28_0005</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>7:15,17,34,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Several problems with recordings. Lots of spontaneous activity on HS2 during Vclamp session that was not present in prior recordings. Lots of instabilities in the holding current. Recurrent activity on HS1 and probably HS2. </t>
+  </si>
+  <si>
+    <t>-13, -8</t>
+  </si>
+  <si>
+    <t>0, -60</t>
+  </si>
+  <si>
+    <t>344, 431</t>
+  </si>
+  <si>
+    <t>2016_04_28_0006</t>
+  </si>
+  <si>
+    <t>concat_2016_04_28_7to8</t>
+  </si>
+  <si>
+    <t>2016_04_28_0010</t>
+  </si>
+  <si>
+    <t>15, 67:80</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>-24 -316</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>71, 247</t>
+  </si>
+  <si>
+    <t>-15, 48</t>
+  </si>
+  <si>
+    <t>34, 0</t>
+  </si>
+  <si>
+    <t>CH_160417_B</t>
+  </si>
+  <si>
+    <t>2016_05_04_0000</t>
+  </si>
+  <si>
+    <t>2016_05_04_0001</t>
+  </si>
+  <si>
+    <t>2016_05_04_0002</t>
+  </si>
+  <si>
+    <t>93, 172</t>
+  </si>
+  <si>
+    <t>-22, -1</t>
+  </si>
+  <si>
+    <t>4, -50</t>
+  </si>
+  <si>
+    <t>-86, -355</t>
+  </si>
+  <si>
+    <t>Bad seal on HS2</t>
+  </si>
+  <si>
+    <t>2016_05_04_0006</t>
+  </si>
+  <si>
+    <t>2016_05_04_0007</t>
+  </si>
+  <si>
+    <t>52, 247</t>
+  </si>
+  <si>
+    <t>-2, 48</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>-38, -360</t>
+  </si>
+  <si>
+    <t>AM?</t>
+  </si>
+  <si>
+    <t>concat_2016_05_04_8and9</t>
+  </si>
+  <si>
+    <t>9:11</t>
+  </si>
+  <si>
+    <t>2016_05_06_0001</t>
+  </si>
+  <si>
+    <t>2016_05_06_0002</t>
+  </si>
+  <si>
+    <t>2016_05_06_0003</t>
+  </si>
+  <si>
+    <t>CH_160417_A</t>
+  </si>
+  <si>
+    <t>2, 241</t>
+  </si>
+  <si>
+    <t>5, 55</t>
+  </si>
+  <si>
+    <t>17,9</t>
+  </si>
+  <si>
+    <t>115, -350</t>
+  </si>
+  <si>
+    <t>16:50</t>
+  </si>
+  <si>
+    <t>2016_05_06_0005</t>
+  </si>
+  <si>
+    <t>2016_05_06_0006</t>
+  </si>
+  <si>
+    <t>2016_05_06_0007</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>-97, 215</t>
+  </si>
+  <si>
+    <t>2, 42</t>
+  </si>
+  <si>
+    <t>13, 37</t>
+  </si>
+  <si>
+    <t>200, -256</t>
+  </si>
+  <si>
+    <t>PM?</t>
+  </si>
+  <si>
+    <t>run down could be too bad.</t>
+  </si>
+  <si>
+    <t>2016_05_03_0000</t>
+  </si>
+  <si>
+    <t>CH_160417_C</t>
+  </si>
+  <si>
+    <t>2016_05_03_0004</t>
+  </si>
+  <si>
+    <t>2016_05_03_0005</t>
+  </si>
+  <si>
+    <t>135, -392</t>
+  </si>
+  <si>
+    <t>60, -24</t>
+  </si>
+  <si>
+    <t>-30, -392</t>
+  </si>
+  <si>
+    <t>Look for retrograde infection in L5, very strong currents</t>
+  </si>
+  <si>
+    <t>2016_05_03_0008</t>
+  </si>
+  <si>
+    <t>2016_05_03_0010</t>
+  </si>
+  <si>
+    <t>2016_05_03_0009</t>
+  </si>
+  <si>
+    <t>-107, 300</t>
+  </si>
+  <si>
+    <t>-35, 7</t>
+  </si>
+  <si>
+    <t>65, -308</t>
+  </si>
+  <si>
+    <t>CH_160423_B</t>
+  </si>
+  <si>
+    <t>2016_05_10_0004</t>
+  </si>
+  <si>
+    <t>2016_05_10_0009</t>
+  </si>
+  <si>
+    <t>2016_05_10_0008</t>
+  </si>
+  <si>
+    <t>1:3, 34</t>
+  </si>
+  <si>
+    <t>0, 260</t>
+  </si>
+  <si>
+    <t>0, 83</t>
+  </si>
+  <si>
+    <t>-60, 97</t>
+  </si>
+  <si>
+    <t>-127, 315</t>
+  </si>
+  <si>
+    <t>Might be the posterior part of AL</t>
+  </si>
+  <si>
+    <t>2016_05_10_0014</t>
+  </si>
+  <si>
+    <t>2016_05_10_0015</t>
+  </si>
+  <si>
+    <t>concat_2016_05_10_16and17</t>
+  </si>
+  <si>
+    <t>20:23</t>
+  </si>
+  <si>
+    <t>26:53</t>
+  </si>
+  <si>
+    <t>-34, 202</t>
+  </si>
+  <si>
+    <t>-24, 22</t>
+  </si>
+  <si>
+    <t>45,-4</t>
+  </si>
+  <si>
+    <t>10, -340</t>
+  </si>
+  <si>
+    <t>PM/AM</t>
+  </si>
+  <si>
+    <t>need to determine the HVA</t>
   </si>
 </sst>
 </file>
@@ -651,10 +1014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:XFD4"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -662,24 +1026,25 @@
     <col min="1" max="1" width="13" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" style="3" customWidth="1"/>
-    <col min="7" max="8" width="6.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8" style="3" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="7" style="3" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="11.140625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="17.28515625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="35.85546875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="19" style="3"/>
+    <col min="4" max="4" width="16.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="6.28515625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="8" style="3" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="7" style="3" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.5703125" style="3" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" style="3" customWidth="1"/>
+    <col min="18" max="18" width="17.28515625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="35.85546875" style="5" customWidth="1"/>
+    <col min="20" max="16384" width="19" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -690,434 +1055,1119 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="S3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="3" t="s">
         <v>57</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="P5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="3" t="s">
+    </row>
+    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="P6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="R6" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="P7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>70</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>69</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="P8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="I9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="3" t="s">
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="P9" s="3" t="s">
+      <c r="P10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S11" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="I12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="3" t="s">
+    </row>
+    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="S15" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S17" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q19" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="H21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="M10" s="3" t="s">
+      <c r="I21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="3" t="s">
+      <c r="P21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="3" t="s">
         <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="K5" twoDigitTextYear="1"/>
+    <ignoredError sqref="L5" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Other_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="249">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -648,13 +648,136 @@
   </si>
   <si>
     <t>need to determine the HVA</t>
+  </si>
+  <si>
+    <t>CH_160507_A</t>
+  </si>
+  <si>
+    <t>2016_05_31_0000</t>
+  </si>
+  <si>
+    <t>2016_05_31_0002</t>
+  </si>
+  <si>
+    <t>2016_05_31_0001</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>65, 160</t>
+  </si>
+  <si>
+    <t>-26, -61</t>
+  </si>
+  <si>
+    <t>-28, -72</t>
+  </si>
+  <si>
+    <t>-30, -400</t>
+  </si>
+  <si>
+    <t>2016_05_31_0005</t>
+  </si>
+  <si>
+    <t>3, -25</t>
+  </si>
+  <si>
+    <t>0, 192</t>
+  </si>
+  <si>
+    <t>-10, -440</t>
+  </si>
+  <si>
+    <t>2016_05_31_0006</t>
+  </si>
+  <si>
+    <t>2016_05_31_0008</t>
+  </si>
+  <si>
+    <t>2016_05_31_0007</t>
+  </si>
+  <si>
+    <t>13, -74</t>
+  </si>
+  <si>
+    <t>28, -25</t>
+  </si>
+  <si>
+    <t>36, 160</t>
+  </si>
+  <si>
+    <t>13, -352</t>
+  </si>
+  <si>
+    <t>No DC steps, so I don't know the identiy of this neuron</t>
+  </si>
+  <si>
+    <t>14:35</t>
+  </si>
+  <si>
+    <t>CH_160507_C</t>
+  </si>
+  <si>
+    <t>2016_06_01_0000</t>
+  </si>
+  <si>
+    <t>2016_06_01_0003</t>
+  </si>
+  <si>
+    <t>77, -367</t>
+  </si>
+  <si>
+    <t>-83, -27</t>
+  </si>
+  <si>
+    <t>-42, -24</t>
+  </si>
+  <si>
+    <t>-148, 212</t>
+  </si>
+  <si>
+    <t>LM/AL</t>
+  </si>
+  <si>
+    <t>2016_06_01_0004</t>
+  </si>
+  <si>
+    <t>18:20</t>
+  </si>
+  <si>
+    <t>2016_06_01_0006</t>
+  </si>
+  <si>
+    <t>2016_06_01_0008</t>
+  </si>
+  <si>
+    <t>2016_06_01_0009</t>
+  </si>
+  <si>
+    <t>-126, 236</t>
+  </si>
+  <si>
+    <t>-54. 46</t>
+  </si>
+  <si>
+    <t>-34, 83</t>
+  </si>
+  <si>
+    <t>155, -332</t>
+  </si>
+  <si>
+    <t>HS2 shouldn't be used. See notes.</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +803,11 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
     </font>
   </fonts>
   <fills count="2">
@@ -717,7 +845,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -733,6 +861,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1014,11 +1148,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1116,6 +1250,9 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
+      <c r="E2" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1151,6 +1288,9 @@
       <c r="D3" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="E3" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="G3" s="3" t="s">
         <v>85</v>
       </c>
@@ -1195,6 +1335,9 @@
       <c r="D4" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="E4" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="G4" s="3" t="s">
         <v>56</v>
       </c>
@@ -1236,6 +1379,9 @@
       <c r="D5" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="E5" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H5" s="3" t="s">
         <v>19</v>
       </c>
@@ -1280,6 +1426,9 @@
       <c r="D6" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="E6" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H6" s="3" t="s">
         <v>19</v>
       </c>
@@ -1324,6 +1473,9 @@
       <c r="D7" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="E7" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
       </c>
@@ -1365,6 +1517,9 @@
       <c r="D8" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="E8" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
@@ -1406,6 +1561,9 @@
       <c r="D9" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="E9" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1450,6 +1608,9 @@
       <c r="D10" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="E10" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
       </c>
@@ -1494,6 +1655,9 @@
       <c r="D11" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="E11" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="G11" s="3" t="s">
         <v>93</v>
       </c>
@@ -1544,6 +1708,9 @@
       <c r="D12" s="3" t="s">
         <v>97</v>
       </c>
+      <c r="E12" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="G12" s="3" t="s">
         <v>102</v>
       </c>
@@ -1588,6 +1755,9 @@
       <c r="D13" s="3" t="s">
         <v>104</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1629,6 +1799,9 @@
       <c r="D14" s="3" t="s">
         <v>113</v>
       </c>
+      <c r="E14" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="F14" s="3" t="s">
         <v>117</v>
       </c>
@@ -1673,6 +1846,9 @@
       <c r="D15" s="3" t="s">
         <v>119</v>
       </c>
+      <c r="E15" s="6" t="s">
+        <v>248</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>121</v>
       </c>
@@ -2161,6 +2337,257 @@
       </c>
       <c r="S24" s="5" t="s">
         <v>207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="H26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="H29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Other_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="263">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -771,6 +771,48 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>CH_160507_B</t>
+  </si>
+  <si>
+    <t>2016_06_06_0000</t>
+  </si>
+  <si>
+    <t>2016_06_06_0001</t>
+  </si>
+  <si>
+    <t>concat_2016_06_06_2to4</t>
+  </si>
+  <si>
+    <t>19:21, 77:98</t>
+  </si>
+  <si>
+    <t>-28, 20</t>
+  </si>
+  <si>
+    <t>-29,17</t>
+  </si>
+  <si>
+    <t>36, -356</t>
+  </si>
+  <si>
+    <t>Cell type1</t>
+  </si>
+  <si>
+    <t>Cell type 2</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>NPVIN</t>
   </si>
 </sst>
 </file>
@@ -1148,11 +1190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1165,20 +1207,21 @@
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
     <col min="8" max="9" width="6.28515625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8" style="3" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" style="3" customWidth="1"/>
-    <col min="12" max="12" width="8.28515625" style="3" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="7" style="3" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.5703125" style="3" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" style="3" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="35.85546875" style="5" customWidth="1"/>
-    <col min="20" max="16384" width="19" style="3"/>
+    <col min="10" max="11" width="8.140625" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8" style="3" customWidth="1"/>
+    <col min="13" max="13" width="7.85546875" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="7" style="3" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
+    <col min="19" max="19" width="11.140625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="17.28515625" style="3" customWidth="1"/>
+    <col min="21" max="21" width="35.85546875" style="5" customWidth="1"/>
+    <col min="22" max="16384" width="19" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1207,37 +1250,43 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1259,23 +1308,26 @@
       <c r="I2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -1300,29 +1352,32 @@
       <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="U3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -1347,26 +1402,29 @@
       <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="Q4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="U4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -1389,31 +1447,37 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="N5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="Q5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="3" t="s">
+      <c r="R5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="U5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -1436,31 +1500,37 @@
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P6" s="3" t="s">
+      <c r="R6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>59</v>
       </c>
@@ -1482,29 +1552,32 @@
       <c r="I7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="Q7" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="3" t="s">
+      <c r="R7" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>59</v>
       </c>
@@ -1526,29 +1599,32 @@
       <c r="I8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K8" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="N8" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="Q8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="3" t="s">
+      <c r="R8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="3" t="s">
+      <c r="S8" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -1570,32 +1646,35 @@
       <c r="I9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="M9" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="N9" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="O9" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="Q9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P9" s="3" t="s">
+      <c r="R9" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>73</v>
       </c>
@@ -1618,31 +1697,37 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M10" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="P10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="Q10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P10" s="3" t="s">
+      <c r="R10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>86</v>
       </c>
@@ -1668,34 +1753,40 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="N11" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="P11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P11" s="3" t="s">
+      <c r="R11" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="U11" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>95</v>
       </c>
@@ -1720,29 +1811,32 @@
       <c r="I12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="N12" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="Q12" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P12" s="3" t="s">
+      <c r="R12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -1764,29 +1858,32 @@
       <c r="I13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="N13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="M13" s="3" t="s">
+      <c r="O13" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="N13" s="3" t="s">
+      <c r="P13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="Q13" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P13" s="3" t="s">
+      <c r="R13" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>111</v>
       </c>
@@ -1812,28 +1909,31 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="O14" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P14" s="3" t="s">
+      <c r="R14" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>111</v>
       </c>
@@ -1862,31 +1962,37 @@
         <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="M15" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="N15" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="O15" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="Q15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P15" s="3" t="s">
+      <c r="R15" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="U15" s="5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>111</v>
       </c>
@@ -1915,31 +2021,37 @@
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="M16" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="N16" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="O16" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="N16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="Q16" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P16" s="3" t="s">
+      <c r="R16" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>136</v>
       </c>
@@ -1962,34 +2074,40 @@
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="N17" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="N17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="Q17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P17" s="3" t="s">
+      <c r="R17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="Q17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>136</v>
       </c>
@@ -2015,31 +2133,37 @@
         <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="P18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="Q18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P18" s="3" t="s">
+      <c r="R18" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>157</v>
       </c>
@@ -2065,31 +2189,37 @@
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="P19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="Q19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P19" s="3" t="s">
+      <c r="R19" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>157</v>
       </c>
@@ -2115,34 +2245,40 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="P20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="Q20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P20" s="3" t="s">
+      <c r="R20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="U20" s="5" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>174</v>
       </c>
@@ -2164,32 +2300,35 @@
       <c r="I21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="K21" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="P21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P21" s="3" t="s">
+      <c r="R21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>174</v>
       </c>
@@ -2211,26 +2350,29 @@
       <c r="I22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="N22" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="P22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="Q22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="R22" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>187</v>
       </c>
@@ -2256,34 +2398,40 @@
         <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="M23" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="N23" s="3" t="s">
+      <c r="P23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="Q23" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P23" s="3" t="s">
+      <c r="R23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="5" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>187</v>
       </c>
@@ -2312,34 +2460,40 @@
         <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="P24" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="Q24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="R24" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U24" s="5" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>208</v>
       </c>
@@ -2365,31 +2519,37 @@
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="P25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="Q25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P25" s="3" t="s">
+      <c r="R25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>208</v>
       </c>
@@ -2412,32 +2572,32 @@
       <c r="I26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="P26" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="Q26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P26" s="3" t="s">
+      <c r="R26" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q26" s="3" t="s">
+      <c r="S26" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="U26" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>208</v>
       </c>
@@ -2464,31 +2624,37 @@
         <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="M27" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="N27" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="P27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P27" s="3" t="s">
+      <c r="R27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>230</v>
       </c>
@@ -2515,31 +2681,37 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="N28" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M28" s="3" t="s">
+      <c r="O28" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="N28" s="3" t="s">
+      <c r="P28" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="3" t="s">
+      <c r="Q28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P28" s="3" t="s">
+      <c r="R28" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="Q28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>230</v>
       </c>
@@ -2563,38 +2735,94 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="L29" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="N29" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="O29" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="N29" s="3" t="s">
+      <c r="P29" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="O29" s="3" t="s">
+      <c r="Q29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="P29" s="3" t="s">
+      <c r="R29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U29" s="5" t="s">
         <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="L5" twoDigitTextYear="1"/>
+    <ignoredError sqref="N5" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="wb_info" sheetId="1" r:id="rId1"/>
+    <sheet name="expt_list" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="372">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -122,9 +123,6 @@
     <t>LM?</t>
   </si>
   <si>
-    <t>The recording on HS1 is from LFP in L2/3</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -146,9 +144,6 @@
     <t>2016_03_31_0008</t>
   </si>
   <si>
-    <t>need to remove sweeps</t>
-  </si>
-  <si>
     <t>188, -262</t>
   </si>
   <si>
@@ -173,9 +168,6 @@
     <t>2016_03_31_0012</t>
   </si>
   <si>
-    <t>split files?</t>
-  </si>
-  <si>
     <t>13, -200</t>
   </si>
   <si>
@@ -803,16 +795,400 @@
     <t>Cell type 2</t>
   </si>
   <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>FS</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
-    <t>NPVIN</t>
+    <t>CH_160507_D</t>
+  </si>
+  <si>
+    <t>2016_06_09_0000</t>
+  </si>
+  <si>
+    <t>concat_2016_06_09_3to4</t>
+  </si>
+  <si>
+    <t>2016_06_09_0006</t>
+  </si>
+  <si>
+    <t>-180, 132</t>
+  </si>
+  <si>
+    <t>-6, -16</t>
+  </si>
+  <si>
+    <t>-6, 23</t>
+  </si>
+  <si>
+    <t>317, -266</t>
+  </si>
+  <si>
+    <t>The neuron on HS2 is profoundly inhibited (recurrent) after the laser onset. See other Iclamp files not listed here</t>
+  </si>
+  <si>
+    <t>2016_06_09_0009</t>
+  </si>
+  <si>
+    <t>2016_06_09_0014</t>
+  </si>
+  <si>
+    <t>concat_2016_06_09_11to13</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-10, 231</t>
+  </si>
+  <si>
+    <t>20, -13</t>
+  </si>
+  <si>
+    <t>7, 34</t>
+  </si>
+  <si>
+    <t>35, -351</t>
+  </si>
+  <si>
+    <t>AM/PM</t>
+  </si>
+  <si>
+    <t>CH_160530_A</t>
+  </si>
+  <si>
+    <t>2016_06_13_0000</t>
+  </si>
+  <si>
+    <t>concat_2016_06_13_2to3</t>
+  </si>
+  <si>
+    <t>2016_06_13_0001</t>
+  </si>
+  <si>
+    <t>14, 280</t>
+  </si>
+  <si>
+    <t>-10, 97</t>
+  </si>
+  <si>
+    <t>-40, -365</t>
+  </si>
+  <si>
+    <t>2016_06_13_0006</t>
+  </si>
+  <si>
+    <t>concat_2016_06_13_8to9</t>
+  </si>
+  <si>
+    <t>2016_06_13_0010</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>58:66</t>
+  </si>
+  <si>
+    <t>-40, 220</t>
+  </si>
+  <si>
+    <t>-8, -18</t>
+  </si>
+  <si>
+    <t>34, 13</t>
+  </si>
+  <si>
+    <t>71, -363</t>
+  </si>
+  <si>
+    <t>AL/LM</t>
+  </si>
+  <si>
+    <t>2016_06_13_0015</t>
+  </si>
+  <si>
+    <t>concat_2016_06_13_17to18</t>
+  </si>
+  <si>
+    <t>2016_06_13_0019</t>
+  </si>
+  <si>
+    <t>52, 55:66</t>
+  </si>
+  <si>
+    <t>-17, 17</t>
+  </si>
+  <si>
+    <t>-91, 233</t>
+  </si>
+  <si>
+    <t>-16, -18</t>
+  </si>
+  <si>
+    <t>50, -338</t>
+  </si>
+  <si>
+    <t>Manifold</t>
+  </si>
+  <si>
+    <t>RIT_tset</t>
+  </si>
+  <si>
+    <t>CH_160530_B</t>
+  </si>
+  <si>
+    <t>2016_06_18_0000</t>
+  </si>
+  <si>
+    <t>2016_06_18_0002</t>
+  </si>
+  <si>
+    <t>2016_06_18_0003</t>
+  </si>
+  <si>
+    <t>-8, 215</t>
+  </si>
+  <si>
+    <t>14, 2</t>
+  </si>
+  <si>
+    <t>13, -355</t>
+  </si>
+  <si>
+    <t>PY_L23</t>
+  </si>
+  <si>
+    <t>NPVIN_L23</t>
+  </si>
+  <si>
+    <t>FS_L23</t>
+  </si>
+  <si>
+    <t>2016_06_18_0004</t>
+  </si>
+  <si>
+    <t>2016_06_18_0008</t>
+  </si>
+  <si>
+    <t>2016_06_18_0009</t>
+  </si>
+  <si>
+    <t>NPVIN_L1</t>
+  </si>
+  <si>
+    <t>-20, 126</t>
+  </si>
+  <si>
+    <t>-28. 281</t>
+  </si>
+  <si>
+    <t>-8, 51</t>
+  </si>
+  <si>
+    <t>-48, 342</t>
+  </si>
+  <si>
+    <t>L1 cell is an IN, but the recording quality / cell health was not great</t>
+  </si>
+  <si>
+    <t>2016_06_18_0011</t>
+  </si>
+  <si>
+    <t>2016_06_18_0015</t>
+  </si>
+  <si>
+    <t>2016_06_18_0017_analysis</t>
+  </si>
+  <si>
+    <t>??_L23</t>
+  </si>
+  <si>
+    <t>140, 220</t>
+  </si>
+  <si>
+    <t>-21 20</t>
+  </si>
+  <si>
+    <t>-142, -343</t>
+  </si>
+  <si>
+    <t>What's up with the DC curent injections. Looks un-healthy, but Rs is great, and the Vm seems stable from beginning of expt to end…</t>
+  </si>
+  <si>
+    <t>CH_160530_C</t>
+  </si>
+  <si>
+    <t>2016_06_17_0000</t>
+  </si>
+  <si>
+    <t>2016_06_17_0002</t>
+  </si>
+  <si>
+    <t>55, 200</t>
+  </si>
+  <si>
+    <t>34, -15</t>
+  </si>
+  <si>
+    <t>35, 3</t>
+  </si>
+  <si>
+    <t>0, -310</t>
+  </si>
+  <si>
+    <t>8,9</t>
+  </si>
+  <si>
+    <t>2016_06_17_0003_analysis</t>
+  </si>
+  <si>
+    <t>2016_06_17_0004</t>
+  </si>
+  <si>
+    <t>2016_06_17_0006</t>
+  </si>
+  <si>
+    <t>2016_06_17_0008</t>
+  </si>
+  <si>
+    <t>-74, 180</t>
+  </si>
+  <si>
+    <t>-22, 0</t>
+  </si>
+  <si>
+    <t>-12, 20</t>
+  </si>
+  <si>
+    <t>100, -300</t>
+  </si>
+  <si>
+    <t>current clamp recordings could have some problems with Rs making the responses smaller than they were for the initial Iclamp WCSTP recording</t>
+  </si>
+  <si>
+    <t>CH_160530_D</t>
+  </si>
+  <si>
+    <t>2016_06_15_0000</t>
+  </si>
+  <si>
+    <t>8:10</t>
+  </si>
+  <si>
+    <t>2016_06_15_0003</t>
+  </si>
+  <si>
+    <t>-10, -12</t>
+  </si>
+  <si>
+    <t>-14, 206</t>
+  </si>
+  <si>
+    <t>-6, -392</t>
+  </si>
+  <si>
+    <t>Brain area not indicated in notes, need to consult histology</t>
+  </si>
+  <si>
+    <t>2016_06_15_0007</t>
+  </si>
+  <si>
+    <t>2016_06_15_0008</t>
+  </si>
+  <si>
+    <t>2016_06_15_0009</t>
+  </si>
+  <si>
+    <t>20:22</t>
+  </si>
+  <si>
+    <t>PY_L5</t>
+  </si>
+  <si>
+    <t>144, -254</t>
+  </si>
+  <si>
+    <t>31, 4</t>
+  </si>
+  <si>
+    <t>-52, 215</t>
+  </si>
+  <si>
+    <t>346, -466</t>
+  </si>
+  <si>
+    <t>Neuron on HS2 may need to be discarded due to high Rs.</t>
+  </si>
+  <si>
+    <t>8,9,27,58,74</t>
+  </si>
+  <si>
+    <t>?_medInject</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>chronos_flx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The recording on HS1 is from LFP in L2/3. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Injection may have been too medial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The recording on HS1 is from LFP in L2/3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Injection may have been too medial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">need to remove sweeps  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Injection may have been too medial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">split files?  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Injection may have been too medial</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -852,12 +1228,24 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -887,7 +1275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -909,6 +1297,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1190,11 +1593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11:Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1217,7 +1620,7 @@
     <col min="18" max="18" width="8.5703125" style="3" customWidth="1"/>
     <col min="19" max="19" width="11.140625" style="3" customWidth="1"/>
     <col min="20" max="20" width="17.28515625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="35.85546875" style="5" customWidth="1"/>
+    <col min="21" max="21" width="49.140625" style="5" customWidth="1"/>
     <col min="22" max="16384" width="19" style="3"/>
   </cols>
   <sheetData>
@@ -1232,10 +1635,10 @@
         <v>12</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -1250,10 +1653,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -1277,10 +1680,10 @@
         <v>16</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="U1" s="4" t="s">
         <v>24</v>
@@ -1300,7 +1703,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
@@ -1309,7 +1712,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -1326,6 +1729,7 @@
       <c r="Q2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="R2" s="12"/>
     </row>
     <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1341,10 +1745,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>20</v>
@@ -1353,7 +1757,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>262</v>
+        <v>310</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>28</v>
@@ -1370,11 +1774,11 @@
       <c r="Q3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="R3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>32</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1382,19 +1786,19 @@
         <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>20</v>
@@ -1403,13 +1807,13 @@
         <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>22</v>
@@ -1417,11 +1821,11 @@
       <c r="Q4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="R4" s="11" t="s">
         <v>31</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>32</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1429,40 +1833,40 @@
         <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>22</v>
@@ -1470,11 +1874,11 @@
       <c r="Q5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="3" t="s">
-        <v>45</v>
+      <c r="R5" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>40</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1482,40 +1886,40 @@
         <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="N6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>22</v>
@@ -1523,28 +1927,28 @@
       <c r="Q6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R6" s="3" t="s">
-        <v>54</v>
+      <c r="R6" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>49</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
@@ -1553,25 +1957,25 @@
         <v>19</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>54</v>
+        <v>61</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="S7" s="3" t="s">
         <v>19</v>
@@ -1579,19 +1983,19 @@
     </row>
     <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
@@ -1600,45 +2004,45 @@
         <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>45</v>
+        <v>61</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>366</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
@@ -1647,19 +2051,19 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>22</v>
@@ -1668,7 +2072,7 @@
         <v>23</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S9" s="3" t="s">
         <v>19</v>
@@ -1676,43 +2080,43 @@
     </row>
     <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="N10" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="O10" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>22</v>
@@ -1721,7 +2125,7 @@
         <v>23</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S10" s="3" t="s">
         <v>19</v>
@@ -1729,81 +2133,81 @@
     </row>
     <row r="11" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="M11" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="N11" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>91</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>45</v>
+        <v>367</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>20</v>
@@ -1812,45 +2216,45 @@
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>45</v>
+        <v>367</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
@@ -1859,48 +2263,48 @@
         <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>261</v>
+        <v>309</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>108</v>
+        <v>367</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>19</v>
@@ -1909,187 +2313,187 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>108</v>
+        <v>367</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>124</v>
-      </c>
       <c r="O15" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>108</v>
+        <v>367</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="U15" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="3" t="s">
+      <c r="H16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O16" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>132</v>
+        <v>367</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L17" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="M17" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L17" s="3" t="s">
+      <c r="O17" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>22</v>
@@ -2098,57 +2502,57 @@
         <v>23</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U17" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E18" s="3" t="s">
+      <c r="N18" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J18" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="O18" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>22</v>
@@ -2157,54 +2561,54 @@
         <v>23</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>158</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>161</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>22</v>
@@ -2213,54 +2617,54 @@
         <v>23</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>167</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>170</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>22</v>
@@ -2269,30 +2673,30 @@
         <v>23</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>173</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>20</v>
@@ -2301,16 +2705,16 @@
         <v>19</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>22</v>
@@ -2325,24 +2729,24 @@
         <v>19</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>20</v>
@@ -2351,16 +2755,16 @@
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>22</v>
@@ -2369,57 +2773,57 @@
         <v>23</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="M23" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>192</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>195</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q23" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>31</v>
@@ -2428,113 +2832,113 @@
         <v>19</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="M24" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>202</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>205</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="Q24" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R24" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="N25" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="L25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>216</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>22</v>
@@ -2543,27 +2947,27 @@
         <v>23</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S25" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F26" s="6"/>
       <c r="H26" s="3" t="s">
@@ -2573,13 +2977,13 @@
         <v>19</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>22</v>
@@ -2588,34 +2992,34 @@
         <v>23</v>
       </c>
       <c r="R26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S26" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="3" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>19</v>
@@ -2624,22 +3028,22 @@
         <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M27" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="O27" s="3" t="s">
         <v>224</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>227</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>22</v>
@@ -2648,31 +3052,31 @@
         <v>23</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S27" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>19</v>
@@ -2681,22 +3085,22 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>22</v>
@@ -2705,7 +3109,7 @@
         <v>23</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>19</v>
@@ -2713,19 +3117,19 @@
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="3" t="s">
@@ -2735,19 +3139,19 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L29" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>246</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>22</v>
@@ -2756,54 +3160,54 @@
         <v>23</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="E30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="O30" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>256</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>22</v>
@@ -2812,10 +3216,661 @@
         <v>23</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="O31" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U31" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="O34" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="O36" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="O39" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="O40" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -2825,4 +3880,495 @@
     <ignoredError sqref="N5" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D42"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21" style="10" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="10" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="10">
+        <v>1</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Other_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="810" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="372">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -471,9 +471,6 @@
     <t>-38, -360</t>
   </si>
   <si>
-    <t>AM?</t>
-  </si>
-  <si>
     <t>concat_2016_05_04_8and9</t>
   </si>
   <si>
@@ -531,9 +528,6 @@
     <t>200, -256</t>
   </si>
   <si>
-    <t>PM?</t>
-  </si>
-  <si>
     <t>run down could be too bad.</t>
   </si>
   <si>
@@ -606,9 +600,6 @@
     <t>-127, 315</t>
   </si>
   <si>
-    <t>Might be the posterior part of AL</t>
-  </si>
-  <si>
     <t>2016_05_10_0014</t>
   </si>
   <si>
@@ -637,9 +628,6 @@
   </si>
   <si>
     <t>PM/AM</t>
-  </si>
-  <si>
-    <t>need to determine the HVA</t>
   </si>
   <si>
     <t>CH_160507_A</t>
@@ -1188,6 +1176,42 @@
         <family val="2"/>
       </rPr>
       <t>Injection may have been too medial</t>
+    </r>
+  </si>
+  <si>
+    <t>LM/V1</t>
+  </si>
+  <si>
+    <t>?_medial</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Might be the posterior part of AL; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>injection was too medial</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">need to determine the HVA; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Injection was too medial</t>
     </r>
   </si>
 </sst>
@@ -1595,9 +1619,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q11" sqref="Q11:Q16"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1653,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>6</v>
@@ -1703,7 +1727,7 @@
         <v>15</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>20</v>
@@ -1712,7 +1736,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -1745,7 +1769,7 @@
         <v>27</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>82</v>
@@ -1757,7 +1781,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>28</v>
@@ -1778,7 +1802,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1795,7 +1819,7 @@
         <v>54</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>53</v>
@@ -1807,7 +1831,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>35</v>
@@ -1825,7 +1849,7 @@
         <v>31</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1842,7 +1866,7 @@
         <v>38</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>19</v>
@@ -1851,10 +1875,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>39</v>
@@ -1878,7 +1902,7 @@
         <v>43</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1895,7 +1919,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>19</v>
@@ -1904,10 +1928,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>47</v>
@@ -1931,7 +1955,7 @@
         <v>51</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1948,7 +1972,7 @@
         <v>57</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>20</v>
@@ -1957,7 +1981,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>58</v>
@@ -1995,7 +2019,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>20</v>
@@ -2004,7 +2028,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>67</v>
@@ -2022,7 +2046,7 @@
         <v>61</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>68</v>
@@ -2042,7 +2066,7 @@
         <v>71</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>20</v>
@@ -2051,7 +2075,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>75</v>
@@ -2092,7 +2116,7 @@
         <v>77</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>19</v>
@@ -2101,10 +2125,10 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>78</v>
@@ -2145,7 +2169,7 @@
         <v>85</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>90</v>
@@ -2157,10 +2181,10 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>86</v>
@@ -2178,7 +2202,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>43</v>
@@ -2204,7 +2228,7 @@
         <v>94</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>99</v>
@@ -2216,7 +2240,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>98</v>
@@ -2231,7 +2255,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>43</v>
@@ -2254,7 +2278,7 @@
         <v>101</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>20</v>
@@ -2263,7 +2287,7 @@
         <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>104</v>
@@ -2278,7 +2302,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>105</v>
@@ -2301,7 +2325,7 @@
         <v>110</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>114</v>
@@ -2313,7 +2337,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>112</v>
@@ -2328,7 +2352,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>105</v>
@@ -2351,7 +2375,7 @@
         <v>116</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>118</v>
@@ -2366,10 +2390,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>112</v>
@@ -2387,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>105</v>
@@ -2425,10 +2449,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>130</v>
@@ -2446,7 +2470,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>129</v>
@@ -2478,10 +2502,10 @@
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>137</v>
@@ -2501,8 +2525,8 @@
       <c r="Q17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>43</v>
+      <c r="R17" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="S17" s="3" t="s">
         <v>19</v>
@@ -2522,13 +2546,13 @@
         <v>142</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>143</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>19</v>
@@ -2537,10 +2561,10 @@
         <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>144</v>
@@ -2560,8 +2584,8 @@
       <c r="Q18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>148</v>
+      <c r="R18" s="11" t="s">
+        <v>129</v>
       </c>
       <c r="S18" s="3" t="s">
         <v>68</v>
@@ -2569,46 +2593,46 @@
     </row>
     <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L19" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="N19" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="O19" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>158</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>22</v>
@@ -2616,7 +2640,7 @@
       <c r="Q19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="R19" s="11" t="s">
         <v>129</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -2625,46 +2649,46 @@
     </row>
     <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" s="3" t="s">
+      <c r="H20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="M20" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="N20" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="O20" s="3" t="s">
         <v>166</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>167</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>22</v>
@@ -2672,31 +2696,31 @@
       <c r="Q20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>168</v>
+      <c r="R20" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="S20" s="3" t="s">
         <v>68</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>173</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>20</v>
@@ -2705,16 +2729,16 @@
         <v>19</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>174</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>176</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>22</v>
@@ -2722,31 +2746,31 @@
       <c r="Q21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>31</v>
+      <c r="R21" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U21" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>178</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>180</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>20</v>
@@ -2755,16 +2779,16 @@
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L22" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>183</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>22</v>
@@ -2772,52 +2796,52 @@
       <c r="Q22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="H23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="M23" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J23" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>192</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>22</v>
@@ -2825,61 +2849,61 @@
       <c r="Q23" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>31</v>
+      <c r="R23" s="11" t="s">
+        <v>368</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>193</v>
+        <v>370</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C24" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G24" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="M24" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>202</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>22</v>
@@ -2887,58 +2911,58 @@
       <c r="Q24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>203</v>
+      <c r="R24" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>204</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="H25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="M25" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>213</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>22</v>
@@ -2947,7 +2971,7 @@
         <v>23</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S25" s="3" t="s">
         <v>68</v>
@@ -2955,19 +2979,19 @@
     </row>
     <row r="26" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F26" s="6"/>
       <c r="H26" s="3" t="s">
@@ -2977,13 +3001,13 @@
         <v>19</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>22</v>
@@ -2998,28 +3022,28 @@
         <v>68</v>
       </c>
       <c r="U26" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>19</v>
@@ -3028,22 +3052,22 @@
         <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>22</v>
@@ -3060,23 +3084,23 @@
     </row>
     <row r="28" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>19</v>
@@ -3085,22 +3109,22 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>22</v>
@@ -3109,7 +3133,7 @@
         <v>23</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S28" s="3" t="s">
         <v>19</v>
@@ -3117,19 +3141,19 @@
     </row>
     <row r="29" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F29" s="6"/>
       <c r="H29" s="3" t="s">
@@ -3139,19 +3163,19 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N29" s="3" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="O29" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>22</v>
@@ -3166,48 +3190,48 @@
         <v>19</v>
       </c>
       <c r="U29" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="H30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="M30" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="N30" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O30" s="3" t="s">
         <v>249</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="N30" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="O30" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>22</v>
@@ -3216,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S30" s="3" t="s">
         <v>19</v>
@@ -3224,43 +3248,43 @@
     </row>
     <row r="31" spans="1:21" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="L31" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="3" t="s">
+      <c r="M31" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="N31" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="O31" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="N31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="O31" s="3" t="s">
-        <v>264</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>22</v>
@@ -3269,60 +3293,60 @@
         <v>23</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="M32" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="M32" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N32" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>22</v>
@@ -3331,7 +3355,7 @@
         <v>23</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>19</v>
@@ -3339,19 +3363,19 @@
     </row>
     <row r="33" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>19</v>
@@ -3360,16 +3384,16 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>22</v>
@@ -3386,49 +3410,49 @@
     </row>
     <row r="34" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="N34" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>290</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>22</v>
@@ -3437,7 +3461,7 @@
         <v>61</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>19</v>
@@ -3445,46 +3469,46 @@
     </row>
     <row r="35" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>22</v>
@@ -3501,19 +3525,19 @@
     </row>
     <row r="36" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -3522,19 +3546,19 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="N36" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>22</v>
@@ -3551,19 +3575,19 @@
     </row>
     <row r="37" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -3572,22 +3596,22 @@
         <v>19</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="O37" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="N37" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>22</v>
@@ -3596,30 +3620,30 @@
         <v>61</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>19</v>
@@ -3628,16 +3652,16 @@
         <v>20</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L38" s="3" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M38" s="3" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="O38" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>22</v>
@@ -3652,51 +3676,51 @@
         <v>19</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="M39" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>22</v>
@@ -3713,19 +3737,19 @@
     </row>
     <row r="40" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>20</v>
@@ -3734,19 +3758,19 @@
         <v>19</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="N40" s="3" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>22</v>
@@ -3761,24 +3785,24 @@
         <v>19</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
@@ -3787,16 +3811,16 @@
         <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="L41" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="M41" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>22</v>
@@ -3805,57 +3829,57 @@
         <v>61</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="K42" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="N42" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>358</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>22</v>
@@ -3870,7 +3894,7 @@
         <v>19</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3886,8 +3910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3907,10 +3931,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3932,7 +3956,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3943,7 +3967,7 @@
         <v>32</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,7 +3978,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3965,7 +3989,7 @@
         <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4105,7 +4129,7 @@
     </row>
     <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>19</v>
@@ -4116,7 +4140,7 @@
     </row>
     <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>32</v>
@@ -4127,7 +4151,7 @@
     </row>
     <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>19</v>
@@ -4138,7 +4162,7 @@
     </row>
     <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>33</v>
@@ -4149,29 +4173,29 @@
     </row>
     <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="10">
-        <v>1</v>
+      <c r="D23" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="10">
-        <v>1</v>
+      <c r="D24" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>19</v>
@@ -4182,7 +4206,7 @@
     </row>
     <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>32</v>
@@ -4193,7 +4217,7 @@
     </row>
     <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>33</v>
@@ -4204,7 +4228,7 @@
     </row>
     <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>19</v>
@@ -4215,7 +4239,7 @@
     </row>
     <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>32</v>
@@ -4226,7 +4250,7 @@
     </row>
     <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>19</v>
@@ -4237,7 +4261,7 @@
     </row>
     <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>19</v>
@@ -4248,7 +4272,7 @@
     </row>
     <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>32</v>
@@ -4259,7 +4283,7 @@
     </row>
     <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -4270,7 +4294,7 @@
     </row>
     <row r="34" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
@@ -4281,7 +4305,7 @@
     </row>
     <row r="35" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
@@ -4292,7 +4316,7 @@
     </row>
     <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -4303,7 +4327,7 @@
     </row>
     <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
@@ -4314,7 +4338,7 @@
     </row>
     <row r="38" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>33</v>
@@ -4325,7 +4349,7 @@
     </row>
     <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -4336,7 +4360,7 @@
     </row>
     <row r="40" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -4347,7 +4371,7 @@
     </row>
     <row r="41" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -4358,7 +4382,7 @@
     </row>
     <row r="42" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glickfeld_lab\Documents\docubase\Other_workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlie\Documents\SourceTree_local\docubase\Other_workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="416">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -808,9 +808,6 @@
   </si>
   <si>
     <t>317, -266</t>
-  </si>
-  <si>
-    <t>The neuron on HS2 is profoundly inhibited (recurrent) after the laser onset. See other Iclamp files not listed here</t>
   </si>
   <si>
     <t>2016_06_09_0009</t>
@@ -1213,6 +1210,141 @@
       </rPr>
       <t xml:space="preserve"> Injection was too medial</t>
     </r>
+  </si>
+  <si>
+    <t>CH_160605_B</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Passive_Props</t>
+  </si>
+  <si>
+    <t>2016_06_23_0001</t>
+  </si>
+  <si>
+    <t>2016_06_23_0003</t>
+  </si>
+  <si>
+    <t>2016_06_23_0005</t>
+  </si>
+  <si>
+    <t>2016_06_23_0009</t>
+  </si>
+  <si>
+    <t>2016_06_23_0018</t>
+  </si>
+  <si>
+    <t>2016_06_23_0011</t>
+  </si>
+  <si>
+    <t>2016_06_23_0022</t>
+  </si>
+  <si>
+    <t>175, 226</t>
+  </si>
+  <si>
+    <t>100, 72</t>
+  </si>
+  <si>
+    <t>-82, 80</t>
+  </si>
+  <si>
+    <t>95, 54</t>
+  </si>
+  <si>
+    <t>49, 34</t>
+  </si>
+  <si>
+    <t>26, 184</t>
+  </si>
+  <si>
+    <t>22, -5</t>
+  </si>
+  <si>
+    <t>15, 200</t>
+  </si>
+  <si>
+    <t>11, -46</t>
+  </si>
+  <si>
+    <t>-82, 217</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>passive props only</t>
+  </si>
+  <si>
+    <t>2016_07_01_0014</t>
+  </si>
+  <si>
+    <t>2016_07_01_0015</t>
+  </si>
+  <si>
+    <t>CH_160614_A</t>
+  </si>
+  <si>
+    <t>54, 196</t>
+  </si>
+  <si>
+    <t>46, 205</t>
+  </si>
+  <si>
+    <t>2016_07_01_0006</t>
+  </si>
+  <si>
+    <t>2016_07_01_concat8and9</t>
+  </si>
+  <si>
+    <t>2016_07_01_0010</t>
+  </si>
+  <si>
+    <t>68, 233</t>
+  </si>
+  <si>
+    <t>-5, -23</t>
+  </si>
+  <si>
+    <t>18, 9</t>
+  </si>
+  <si>
+    <t>40, -362</t>
+  </si>
+  <si>
+    <t>HS1 contains an interesting SOM cell, but I blew it up during DC steps..</t>
+  </si>
+  <si>
+    <t>2016_07_05_0000</t>
+  </si>
+  <si>
+    <t>2016_07_05_0002</t>
+  </si>
+  <si>
+    <t>2016_07_05_0003</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>CH_160614_B</t>
+  </si>
+  <si>
+    <t>21, 242</t>
+  </si>
+  <si>
+    <t>-10, -30</t>
+  </si>
+  <si>
+    <t>11, -7</t>
+  </si>
+  <si>
+    <t>-10, -315</t>
+  </si>
+  <si>
+    <t>The neuron on HS2 is profoundly inhibited (recurrent) after the laser onset. See other Iclamp files not listed here. Also, the nueron on HS2 receives barely any inputs from V1. Kinda neat!</t>
   </si>
 </sst>
 </file>
@@ -1617,11 +1749,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U24" sqref="U24"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1736,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>17</v>
@@ -1781,7 +1913,7 @@
         <v>19</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>28</v>
@@ -1802,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1831,7 +1963,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>35</v>
@@ -1849,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1875,10 +2007,10 @@
         <v>19</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>39</v>
@@ -1902,7 +2034,7 @@
         <v>43</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1928,10 +2060,10 @@
         <v>19</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L6" s="3" t="s">
         <v>47</v>
@@ -1955,7 +2087,7 @@
         <v>51</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1981,7 +2113,7 @@
         <v>19</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>58</v>
@@ -2028,7 +2160,7 @@
         <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>67</v>
@@ -2046,7 +2178,7 @@
         <v>61</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="S8" s="3" t="s">
         <v>68</v>
@@ -2075,7 +2207,7 @@
         <v>19</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>75</v>
@@ -2125,10 +2257,10 @@
         <v>19</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>78</v>
@@ -2181,10 +2313,10 @@
         <v>19</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>86</v>
@@ -2202,7 +2334,7 @@
         <v>22</v>
       </c>
       <c r="Q11" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>43</v>
@@ -2240,7 +2372,7 @@
         <v>19</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>98</v>
@@ -2255,7 +2387,7 @@
         <v>22</v>
       </c>
       <c r="Q12" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>43</v>
@@ -2287,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>104</v>
@@ -2302,7 +2434,7 @@
         <v>22</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>105</v>
@@ -2337,7 +2469,7 @@
         <v>20</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>112</v>
@@ -2352,7 +2484,7 @@
         <v>22</v>
       </c>
       <c r="Q14" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R14" s="11" t="s">
         <v>105</v>
@@ -2390,10 +2522,10 @@
         <v>19</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>112</v>
@@ -2411,7 +2543,7 @@
         <v>22</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R15" s="11" t="s">
         <v>105</v>
@@ -2449,10 +2581,10 @@
         <v>19</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L16" s="3" t="s">
         <v>130</v>
@@ -2470,7 +2602,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R16" s="11" t="s">
         <v>129</v>
@@ -2502,10 +2634,10 @@
         <v>19</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>137</v>
@@ -2561,10 +2693,10 @@
         <v>19</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>144</v>
@@ -2617,10 +2749,10 @@
         <v>19</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L19" s="3" t="s">
         <v>154</v>
@@ -2673,10 +2805,10 @@
         <v>19</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>163</v>
@@ -2729,7 +2861,7 @@
         <v>19</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>172</v>
@@ -2779,7 +2911,7 @@
         <v>19</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>179</v>
@@ -2826,10 +2958,10 @@
         <v>19</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>187</v>
@@ -2850,13 +2982,13 @@
         <v>61</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="S23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="U23" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2888,10 +3020,10 @@
         <v>19</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>196</v>
@@ -2918,7 +3050,7 @@
         <v>19</v>
       </c>
       <c r="U24" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="25" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2947,10 +3079,10 @@
         <v>19</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K25" s="3" t="s">
         <v>305</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>306</v>
       </c>
       <c r="L25" s="3" t="s">
         <v>206</v>
@@ -3052,10 +3184,10 @@
         <v>19</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>219</v>
@@ -3109,10 +3241,10 @@
         <v>19</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L28" s="3" t="s">
         <v>229</v>
@@ -3163,7 +3295,7 @@
         <v>20</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>236</v>
@@ -3219,10 +3351,10 @@
         <v>19</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>247</v>
@@ -3269,10 +3401,10 @@
         <v>19</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L31" s="3" t="s">
         <v>257</v>
@@ -3299,7 +3431,7 @@
         <v>19</v>
       </c>
       <c r="U31" s="5" t="s">
-        <v>261</v>
+        <v>415</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3310,43 +3442,43 @@
         <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="F32" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L32" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L32" s="3" t="s">
+      <c r="M32" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="M32" s="3" t="s">
+      <c r="N32" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="N32" s="3" t="s">
+      <c r="O32" s="3" t="s">
         <v>268</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>269</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>22</v>
@@ -3355,7 +3487,7 @@
         <v>23</v>
       </c>
       <c r="R32" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="S32" s="3" t="s">
         <v>19</v>
@@ -3363,19 +3495,19 @@
     </row>
     <row r="33" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="E33" s="3" t="s">
         <v>273</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>274</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>19</v>
@@ -3384,16 +3516,16 @@
         <v>20</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L33" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="O33" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>22</v>
@@ -3410,49 +3542,49 @@
     </row>
     <row r="34" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="E34" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="F34" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="G34" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="H34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L34" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="N34" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="O34" s="3" t="s">
         <v>285</v>
-      </c>
-      <c r="O34" s="3" t="s">
-        <v>286</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>22</v>
@@ -3461,7 +3593,7 @@
         <v>61</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="S34" s="3" t="s">
         <v>19</v>
@@ -3469,46 +3601,46 @@
     </row>
     <row r="35" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="H35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="M35" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L35" s="3" t="s">
+      <c r="N35" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>22</v>
@@ -3525,19 +3657,19 @@
     </row>
     <row r="36" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="D36" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>20</v>
@@ -3546,19 +3678,19 @@
         <v>19</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L36" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="O36" s="3" t="s">
         <v>303</v>
-      </c>
-      <c r="O36" s="3" t="s">
-        <v>304</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>22</v>
@@ -3575,19 +3707,19 @@
     </row>
     <row r="37" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>310</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>20</v>
@@ -3596,22 +3728,22 @@
         <v>19</v>
       </c>
       <c r="J37" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L37" s="3" t="s">
+      <c r="N37" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="M37" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="N37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="O37" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>22</v>
@@ -3626,24 +3758,24 @@
         <v>19</v>
       </c>
       <c r="U37" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>19</v>
@@ -3652,16 +3784,16 @@
         <v>20</v>
       </c>
       <c r="J38" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="L38" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>22</v>
@@ -3676,51 +3808,51 @@
         <v>19</v>
       </c>
       <c r="U38" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="N39" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="O39" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>22</v>
@@ -3737,19 +3869,19 @@
     </row>
     <row r="40" spans="1:21" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="H40" s="3" t="s">
         <v>20</v>
@@ -3758,19 +3890,19 @@
         <v>19</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L40" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="M40" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="M40" s="3" t="s">
+      <c r="N40" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="O40" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>22</v>
@@ -3785,24 +3917,24 @@
         <v>19</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>19</v>
@@ -3811,16 +3943,16 @@
         <v>20</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L41" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>22</v>
@@ -3835,51 +3967,51 @@
         <v>19</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="H42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="L42" s="3" t="s">
+      <c r="N42" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="O42" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="O42" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="P42" s="3" t="s">
         <v>22</v>
@@ -3894,7 +4026,470 @@
         <v>19</v>
       </c>
       <c r="U42" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="N48" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="R48" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="N49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R50" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="M51" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q51" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R51" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="N53" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="O53" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q53" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R53" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +4503,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3920,10 +4515,11 @@
     <col min="2" max="2" width="7.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="21" style="10" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="10"/>
+    <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -3931,13 +4527,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E1" s="9" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -3947,8 +4546,11 @@
       <c r="C2" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -3956,10 +4558,13 @@
         <v>19</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>25</v>
       </c>
@@ -3967,10 +4572,13 @@
         <v>32</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -3978,10 +4586,13 @@
         <v>33</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>25</v>
       </c>
@@ -3989,10 +4600,13 @@
         <v>44</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
@@ -4002,8 +4616,11 @@
       <c r="C7" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>56</v>
       </c>
@@ -4013,8 +4630,11 @@
       <c r="C8" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>70</v>
       </c>
@@ -4024,8 +4644,11 @@
       <c r="C9" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>70</v>
       </c>
@@ -4035,8 +4658,11 @@
       <c r="C10" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>83</v>
       </c>
@@ -4046,8 +4672,11 @@
       <c r="C11" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -4057,8 +4686,11 @@
       <c r="C12" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>92</v>
       </c>
@@ -4068,8 +4700,11 @@
       <c r="C13" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
@@ -4079,8 +4714,11 @@
       <c r="C14" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>108</v>
       </c>
@@ -4090,8 +4728,11 @@
       <c r="C15" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>108</v>
       </c>
@@ -4104,8 +4745,11 @@
       <c r="D16" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>133</v>
       </c>
@@ -4115,8 +4759,11 @@
       <c r="D17" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>133</v>
       </c>
@@ -4126,8 +4773,11 @@
       <c r="D18" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E18" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>153</v>
       </c>
@@ -4137,8 +4787,11 @@
       <c r="D19" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>153</v>
       </c>
@@ -4148,8 +4801,11 @@
       <c r="D20" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E20" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>169</v>
       </c>
@@ -4159,8 +4815,11 @@
       <c r="D21" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>169</v>
       </c>
@@ -4170,8 +4829,11 @@
       <c r="D22" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>182</v>
       </c>
@@ -4179,10 +4841,13 @@
         <v>19</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>182</v>
       </c>
@@ -4190,10 +4855,13 @@
         <v>32</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>201</v>
       </c>
@@ -4203,8 +4871,11 @@
       <c r="D25" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>201</v>
       </c>
@@ -4214,8 +4885,11 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>201</v>
       </c>
@@ -4225,8 +4899,11 @@
       <c r="D27" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E27" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>223</v>
       </c>
@@ -4236,8 +4913,11 @@
       <c r="D28" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>223</v>
       </c>
@@ -4247,8 +4927,11 @@
       <c r="D29" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E29" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>242</v>
       </c>
@@ -4258,8 +4941,11 @@
       <c r="C30" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>253</v>
       </c>
@@ -4269,8 +4955,11 @@
       <c r="C31" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>253</v>
       </c>
@@ -4280,10 +4969,13 @@
       <c r="C32" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>19</v>
@@ -4291,10 +4983,13 @@
       <c r="C33" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>32</v>
@@ -4302,10 +4997,13 @@
       <c r="C34" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>33</v>
@@ -4313,10 +5011,13 @@
       <c r="C35" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>19</v>
@@ -4324,10 +5025,13 @@
       <c r="C36" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>32</v>
@@ -4335,10 +5039,13 @@
       <c r="C37" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>33</v>
@@ -4346,10 +5053,13 @@
       <c r="C38" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>19</v>
@@ -4357,10 +5067,13 @@
       <c r="C39" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>32</v>
@@ -4368,10 +5081,13 @@
       <c r="C40" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E40" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>19</v>
@@ -4379,15 +5095,148 @@
       <c r="C41" s="10">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E41" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="10">
+        <v>1</v>
+      </c>
+      <c r="E42" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E43" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E44" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E47" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C50" s="10">
+        <v>1</v>
+      </c>
+      <c r="E50" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="E53" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -1755,8 +1755,8 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4832,7 +4832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="608">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -1571,6 +1571,357 @@
   </si>
   <si>
     <t>-43, 230</t>
+  </si>
+  <si>
+    <t>CH_160710_A</t>
+  </si>
+  <si>
+    <t>2016_08_02_0000</t>
+  </si>
+  <si>
+    <t>0, 255</t>
+  </si>
+  <si>
+    <t>-35, 0</t>
+  </si>
+  <si>
+    <t>passive only</t>
+  </si>
+  <si>
+    <t>2016_08_02_0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rs tanks, but clear recurrent activity. All blocked by TTX. </t>
+  </si>
+  <si>
+    <t>2016_08_02_0001</t>
+  </si>
+  <si>
+    <t>-29, 0</t>
+  </si>
+  <si>
+    <t>0, 250</t>
+  </si>
+  <si>
+    <t>2016_08_02_0005</t>
+  </si>
+  <si>
+    <t>-16, -4</t>
+  </si>
+  <si>
+    <t>21, 303</t>
+  </si>
+  <si>
+    <t>2016_08_02_0006</t>
+  </si>
+  <si>
+    <t>2016_08_02_0007</t>
+  </si>
+  <si>
+    <t>2016_08_02_0009</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2016_08_02_0011</t>
+  </si>
+  <si>
+    <t>104, 347</t>
+  </si>
+  <si>
+    <t>28, 16</t>
+  </si>
+  <si>
+    <t>0, -355</t>
+  </si>
+  <si>
+    <t>CH_160710_B</t>
+  </si>
+  <si>
+    <t>2016_08_01_0000</t>
+  </si>
+  <si>
+    <t>2016_08_01_0001</t>
+  </si>
+  <si>
+    <t>18, 250</t>
+  </si>
+  <si>
+    <t>-42, 42</t>
+  </si>
+  <si>
+    <t>104, 50</t>
+  </si>
+  <si>
+    <t>2016_08_01_0005</t>
+  </si>
+  <si>
+    <t>2016_08_01_concat6and7</t>
+  </si>
+  <si>
+    <t>2016_08_01_0008</t>
+  </si>
+  <si>
+    <t>6:10, 16, 20:22</t>
+  </si>
+  <si>
+    <t>-15, 309</t>
+  </si>
+  <si>
+    <t>-18, -6</t>
+  </si>
+  <si>
+    <t>14, -304</t>
+  </si>
+  <si>
+    <t>2016_08_01_0010</t>
+  </si>
+  <si>
+    <t>2016_08_01_0011</t>
+  </si>
+  <si>
+    <t>2016_08_01_0013</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2016_08_01_0014</t>
+  </si>
+  <si>
+    <t>-29, 262</t>
+  </si>
+  <si>
+    <t>-4, -23</t>
+  </si>
+  <si>
+    <t>18, 5</t>
+  </si>
+  <si>
+    <t>10, -336</t>
+  </si>
+  <si>
+    <t>_0012 shows example jitter. _0016 shows effect of 100 nM NBQX. _0017 shows persistant jitter in NBQX at high light power.</t>
+  </si>
+  <si>
+    <t>2016_07_29_0000</t>
+  </si>
+  <si>
+    <t>2016_07_29_0001</t>
+  </si>
+  <si>
+    <t>0, 42</t>
+  </si>
+  <si>
+    <t>18, -18</t>
+  </si>
+  <si>
+    <t>116, 226</t>
+  </si>
+  <si>
+    <t>CH_160710_D</t>
+  </si>
+  <si>
+    <t>2016_07_29_0004</t>
+  </si>
+  <si>
+    <t>2016_07_29_0005</t>
+  </si>
+  <si>
+    <t>2016_07_29_0006</t>
+  </si>
+  <si>
+    <t>2016_07_29_0007</t>
+  </si>
+  <si>
+    <t>37, 208</t>
+  </si>
+  <si>
+    <t>66, 5</t>
+  </si>
+  <si>
+    <t>0, 14</t>
+  </si>
+  <si>
+    <t>-15, -387</t>
+  </si>
+  <si>
+    <t>CH_160718_A</t>
+  </si>
+  <si>
+    <t>2016_08_04_0000</t>
+  </si>
+  <si>
+    <t>2016_08_04_0008</t>
+  </si>
+  <si>
+    <t>2016_08_04_0011</t>
+  </si>
+  <si>
+    <t>2016_08_04_concat_9and10</t>
+  </si>
+  <si>
+    <t>1:11</t>
+  </si>
+  <si>
+    <t>-5, 296</t>
+  </si>
+  <si>
+    <t>-66, 44</t>
+  </si>
+  <si>
+    <t>6, -372</t>
+  </si>
+  <si>
+    <t>2016_08_04_0012</t>
+  </si>
+  <si>
+    <t>2016_08_04_0013</t>
+  </si>
+  <si>
+    <t>-3, -31</t>
+  </si>
+  <si>
+    <t>22, 18</t>
+  </si>
+  <si>
+    <t>92, 284</t>
+  </si>
+  <si>
+    <t>2016_08_04_0014</t>
+  </si>
+  <si>
+    <t>look at _0014 to _0018 to see the effect of APV, and of light power. I think the dominant factor may be jitter onto the non-RSPY cell (and perhaps not recurrent activity). At 58 Hz, there is a clear difference in STP between HS1 and HS3 (look specifically at _0018)</t>
+  </si>
+  <si>
+    <t>CH_160718_B</t>
+  </si>
+  <si>
+    <t>2016_08_09_0000</t>
+  </si>
+  <si>
+    <t>2016_08_09_0001</t>
+  </si>
+  <si>
+    <t>2016_08_09_0003</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>-17, 314</t>
+  </si>
+  <si>
+    <t>24, -13</t>
+  </si>
+  <si>
+    <t>37, 77</t>
+  </si>
+  <si>
+    <t>87, -333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">added 40 uM APV. RS and FS cells. Probably cuts out some minor recurrent activity and can be seen in _0005. Very small bump to the right of the EPSC goes away as APV washes in. </t>
+  </si>
+  <si>
+    <t>2016_08_09_0005</t>
+  </si>
+  <si>
+    <t>2016_08_09_0008</t>
+  </si>
+  <si>
+    <t>2016_08_09_0011</t>
+  </si>
+  <si>
+    <t>5,6</t>
+  </si>
+  <si>
+    <t>2016_08_09_0013</t>
+  </si>
+  <si>
+    <t>UDF_IN</t>
+  </si>
+  <si>
+    <t>100, 307</t>
+  </si>
+  <si>
+    <t>26, -7</t>
+  </si>
+  <si>
+    <t>57, 28</t>
+  </si>
+  <si>
+    <t>15, -333</t>
+  </si>
+  <si>
+    <t>Cell on HS2 could be an IN, or could be an RS cell. Don't know.</t>
+  </si>
+  <si>
+    <t>CH_160718_C</t>
+  </si>
+  <si>
+    <t>2016_08_08_0000</t>
+  </si>
+  <si>
+    <t>2016_08_08_0001</t>
+  </si>
+  <si>
+    <t>2016_08_08_0003</t>
+  </si>
+  <si>
+    <t>-160, 300</t>
+  </si>
+  <si>
+    <t>-96, 90</t>
+  </si>
+  <si>
+    <t>-56, 53</t>
+  </si>
+  <si>
+    <t>75, -325</t>
+  </si>
+  <si>
+    <t>2016_08_08_0004</t>
+  </si>
+  <si>
+    <t>20 uM APV in bath on sweep 8. Hard to make the argument that there's any effect. Perhaps 20uM is too low, or maybe there's more jitter onto FS cells.</t>
+  </si>
+  <si>
+    <t>2016_08_08_0005</t>
+  </si>
+  <si>
+    <t>2016_08_08_0007</t>
+  </si>
+  <si>
+    <t>seems like clear recurrent pop on sweeps 16, 21,26,27 even in 20uM APV</t>
+  </si>
+  <si>
+    <t>30, 250</t>
+  </si>
+  <si>
+    <t>15, 4</t>
+  </si>
+  <si>
+    <t>passive only, some WCSTP but only 3 sweeps</t>
+  </si>
+  <si>
+    <t>CH_160724_C</t>
+  </si>
+  <si>
+    <t>2016_08_10_0000</t>
+  </si>
+  <si>
+    <t>2016_08_10_concat1and2</t>
+  </si>
+  <si>
+    <t>42, 257</t>
+  </si>
+  <si>
+    <t>-46, -320</t>
+  </si>
+  <si>
+    <t>chronos_gfp</t>
   </si>
 </sst>
 </file>
@@ -1698,31 +2049,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1998,11 +2341,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X88"/>
   <sheetViews>
     <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T69" sqref="T69:U70"/>
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3801,7 +4144,7 @@
       <c r="J29" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K29" s="17" t="s">
+      <c r="K29" s="15" t="s">
         <v>14</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -6102,6 +6445,1014 @@
       </c>
       <c r="U70" s="3" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="T71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X71" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="72" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="T72" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X72" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="P73" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="T73" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U73" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X73" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="T74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U74" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q75" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T75" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V75" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="P76" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q76" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="T76" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O77" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="P77" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="R77" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T77" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U77" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="V77" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="P78" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q78" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T78" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U78" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="V78" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="P79" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q79" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="T79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U79" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X79" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="P80" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="Q80" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="R80" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T80" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U80" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V80" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="T81" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T82" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U82" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V82" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="83" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="O84" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="P84" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="Q84" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="R84" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U84" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="V84" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="O85" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="P85" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q85" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="R85" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T85" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U85" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V85" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q86" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="R86" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U86" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V86" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q87" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="T87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U87" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X87" s="5" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="Q88" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="R88" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T88" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="U88" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V88" s="3" t="s">
+        <v>482</v>
       </c>
     </row>
   </sheetData>
@@ -6115,10 +7466,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7051,6 +8402,231 @@
         <v>1</v>
       </c>
     </row>
+    <row r="71" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C75" s="10">
+        <v>1</v>
+      </c>
+      <c r="E75" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="E77" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80" s="10">
+        <v>1</v>
+      </c>
+      <c r="E80" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="10">
+        <v>1</v>
+      </c>
+      <c r="E82" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="10">
+        <v>1</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="10">
+        <v>1</v>
+      </c>
+      <c r="E85" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
+      <c r="E88" s="10">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -7059,19 +8635,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="15"/>
-    <col min="3" max="3" width="32.5703125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="84.28515625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="24.140625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="14"/>
+    <col min="3" max="3" width="32.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="84.28515625" style="17" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7084,21 +8660,21 @@
       <c r="C1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="16" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>404</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>2</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="17" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7117,13 +8693,13 @@
       <c r="A4" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>3</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7134,11 +8710,92 @@
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>464</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="17" t="s">
         <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="14">
+        <v>2</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>496</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="B8" s="14">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1856" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="609">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -1792,9 +1792,6 @@
     <t>2016_08_04_0014</t>
   </si>
   <si>
-    <t>look at _0014 to _0018 to see the effect of APV, and of light power. I think the dominant factor may be jitter onto the non-RSPY cell (and perhaps not recurrent activity). At 58 Hz, there is a clear difference in STP between HS1 and HS3 (look specifically at _0018)</t>
-  </si>
-  <si>
     <t>CH_160718_B</t>
   </si>
   <si>
@@ -1922,6 +1919,12 @@
   </si>
   <si>
     <t>chronos_gfp</t>
+  </si>
+  <si>
+    <t>look at _0014 to _0018 to see the effect of APV, and of light power. I think the dominant factor may be jitter onto the non-RSPY cell (and perhaps not recurrent activity). At 58 Hz, there is a clear difference in STP between HS1 and HS2 (look specifically at _0018)</t>
+  </si>
+  <si>
+    <t>?_rundown</t>
   </si>
 </sst>
 </file>
@@ -2343,9 +2346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X88"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C90" sqref="C90"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2927,7 +2930,7 @@
         <v>72</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>14</v>
@@ -7156,22 +7159,22 @@
     </row>
     <row r="84" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>14</v>
@@ -7195,16 +7198,16 @@
         <v>300</v>
       </c>
       <c r="O84" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="P84" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="Q84" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>17</v>
@@ -7221,55 +7224,55 @@
     </row>
     <row r="85" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N85" s="3" t="s">
+      <c r="O85" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="P85" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="Q85" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>17</v>
@@ -7284,24 +7287,24 @@
         <v>482</v>
       </c>
       <c r="X85" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="H86" s="3" t="s">
         <v>14</v>
@@ -7325,16 +7328,16 @@
         <v>298</v>
       </c>
       <c r="O86" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="P86" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="Q86" s="3" t="s">
         <v>591</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="R86" s="3" t="s">
         <v>592</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>17</v>
@@ -7351,7 +7354,7 @@
     </row>
     <row r="87" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -7360,7 +7363,7 @@
         <v>236</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>236</v>
@@ -7384,10 +7387,10 @@
         <v>298</v>
       </c>
       <c r="O87" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="Q87" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>56</v>
@@ -7396,57 +7399,57 @@
         <v>124</v>
       </c>
       <c r="X87" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="Q88" s="3" t="s">
         <v>460</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="U88" s="3" t="s">
         <v>100</v>
@@ -7468,8 +7471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54:XFD54"/>
+    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7848,9 +7851,6 @@
       <c r="D26" s="10">
         <v>1</v>
       </c>
-      <c r="E26" s="10">
-        <v>1</v>
-      </c>
     </row>
     <row r="27" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -8453,11 +8453,11 @@
       <c r="B75" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="C75" s="10">
-        <v>1</v>
-      </c>
-      <c r="E75" s="10">
-        <v>1</v>
+      <c r="C75" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>608</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8562,7 +8562,7 @@
     </row>
     <row r="84" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -8576,7 +8576,7 @@
     </row>
     <row r="85" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
@@ -8590,7 +8590,7 @@
     </row>
     <row r="86" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>14</v>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="87" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -8615,7 +8615,7 @@
     </row>
     <row r="88" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
@@ -8637,7 +8637,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -8742,7 +8742,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>549</v>
       </c>
@@ -8753,49 +8753,49 @@
         <v>563</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>564</v>
+        <v>607</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>593</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>594</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>596</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>597</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="651">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -896,9 +896,6 @@
   </si>
   <si>
     <t>Manifold</t>
-  </si>
-  <si>
-    <t>RIT_tset</t>
   </si>
   <si>
     <t>CH_160530_B</t>
@@ -1925,6 +1922,135 @@
   </si>
   <si>
     <t>?_rundown</t>
+  </si>
+  <si>
+    <t>CH_160805_A</t>
+  </si>
+  <si>
+    <t>2016_08_24_0007</t>
+  </si>
+  <si>
+    <t>dlgn</t>
+  </si>
+  <si>
+    <t>LGN</t>
+  </si>
+  <si>
+    <t>dLGN</t>
+  </si>
+  <si>
+    <t>LGN recording with chronos tdTom</t>
+  </si>
+  <si>
+    <t>-44, 3</t>
+  </si>
+  <si>
+    <t>-101, 124</t>
+  </si>
+  <si>
+    <t>7:10</t>
+  </si>
+  <si>
+    <t>2016_08_24_0009</t>
+  </si>
+  <si>
+    <t>2016_08_24_0008</t>
+  </si>
+  <si>
+    <t>29:33</t>
+  </si>
+  <si>
+    <t>-43, -47</t>
+  </si>
+  <si>
+    <t>-158, 180</t>
+  </si>
+  <si>
+    <t>CH_160805_D</t>
+  </si>
+  <si>
+    <t>2016_08_26_0005</t>
+  </si>
+  <si>
+    <t>7:9</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>-60</t>
+  </si>
+  <si>
+    <t>LGN recording with chronos tdTom. Lackluster recording, and at the wrong Vhold</t>
+  </si>
+  <si>
+    <t>CH_160827_C</t>
+  </si>
+  <si>
+    <t>CH_160827_D</t>
+  </si>
+  <si>
+    <t>2016_09_14_0017</t>
+  </si>
+  <si>
+    <t>2016_09_16_0007</t>
+  </si>
+  <si>
+    <t>2016_09_16_0009</t>
+  </si>
+  <si>
+    <t>2016_09_12_0000</t>
+  </si>
+  <si>
+    <t>-340, 100</t>
+  </si>
+  <si>
+    <t>-72</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LGN recoring with AAV2/9.hsyn,oChIEF, </t>
+  </si>
+  <si>
+    <t>10:14</t>
+  </si>
+  <si>
+    <t>-487, -451</t>
+  </si>
+  <si>
+    <t>LGN recording with AAV2/9.hsyn.oChIEF. With cesium internal.</t>
+  </si>
+  <si>
+    <t>-454, -456</t>
+  </si>
+  <si>
+    <t>last cell of a very long session with this slice. Responses are a little strange, but trying to show drug dependence. NBQX in on the next file</t>
+  </si>
+  <si>
+    <t>CH_160827_A</t>
+  </si>
+  <si>
+    <t>24:28</t>
+  </si>
+  <si>
+    <t>7, 50</t>
+  </si>
+  <si>
+    <t>-20, -66</t>
+  </si>
+  <si>
+    <t>technically a small inward driving force b/c I'm using a Cs-Glu internal.</t>
+  </si>
+  <si>
+    <t>RIT_test</t>
+  </si>
+  <si>
+    <t>chief_syt7_ko</t>
+  </si>
+  <si>
+    <t>chief_syt7_wt</t>
+  </si>
+  <si>
+    <t>chronos_syt7_wt</t>
   </si>
 </sst>
 </file>
@@ -2344,11 +2470,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X88"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2386,34 +2512,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>454</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>455</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>245</v>
@@ -2484,7 +2610,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>12</v>
@@ -2538,7 +2664,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>23</v>
@@ -2559,7 +2685,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,7 +2723,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>30</v>
@@ -2615,7 +2741,7 @@
         <v>26</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2650,10 +2776,10 @@
         <v>15</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>34</v>
@@ -2677,7 +2803,7 @@
         <v>38</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2712,10 +2838,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>42</v>
@@ -2739,7 +2865,7 @@
         <v>46</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2774,7 +2900,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>53</v>
@@ -2830,7 +2956,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>62</v>
@@ -2848,7 +2974,7 @@
         <v>56</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>63</v>
@@ -2886,7 +3012,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>70</v>
@@ -2945,10 +3071,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>73</v>
@@ -3010,10 +3136,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>81</v>
@@ -3031,7 +3157,7 @@
         <v>17</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>38</v>
@@ -3078,7 +3204,7 @@
         <v>15</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>93</v>
@@ -3093,7 +3219,7 @@
         <v>17</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>38</v>
@@ -3134,7 +3260,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>99</v>
@@ -3149,7 +3275,7 @@
         <v>17</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>100</v>
@@ -3193,7 +3319,7 @@
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>107</v>
@@ -3208,7 +3334,7 @@
         <v>17</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>100</v>
@@ -3255,10 +3381,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>107</v>
@@ -3276,7 +3402,7 @@
         <v>17</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>100</v>
@@ -3323,10 +3449,10 @@
         <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>125</v>
@@ -3344,7 +3470,7 @@
         <v>17</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>124</v>
@@ -3385,10 +3511,10 @@
         <v>14</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>132</v>
@@ -3453,10 +3579,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>139</v>
@@ -3518,10 +3644,10 @@
         <v>14</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>149</v>
@@ -3583,10 +3709,10 @@
         <v>14</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>158</v>
@@ -3648,7 +3774,7 @@
         <v>14</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>167</v>
@@ -3707,7 +3833,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>174</v>
@@ -3763,10 +3889,10 @@
         <v>14</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>182</v>
@@ -3787,13 +3913,13 @@
         <v>56</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3834,10 +3960,10 @@
         <v>14</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>191</v>
@@ -3864,7 +3990,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3902,10 +4028,10 @@
         <v>15</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>201</v>
@@ -4025,10 +4151,10 @@
         <v>14</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>214</v>
@@ -4091,10 +4217,10 @@
         <v>14</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>224</v>
@@ -4154,7 +4280,7 @@
         <v>15</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>231</v>
@@ -4219,10 +4345,10 @@
         <v>14</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>242</v>
@@ -4278,10 +4404,10 @@
         <v>15</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>251</v>
@@ -4308,7 +4434,7 @@
         <v>14</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4328,7 +4454,7 @@
         <v>257</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>258</v>
@@ -4349,10 +4475,10 @@
         <v>14</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>259</v>
@@ -4411,7 +4537,7 @@
         <v>15</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>268</v>
@@ -4473,10 +4599,10 @@
         <v>14</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>276</v>
@@ -4538,10 +4664,10 @@
         <v>14</v>
       </c>
       <c r="M35" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N35" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>286</v>
@@ -4570,49 +4696,49 @@
     </row>
     <row r="36" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>17</v>
@@ -4629,7 +4755,7 @@
     </row>
     <row r="37" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -4638,43 +4764,43 @@
         <v>236</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>17</v>
@@ -4689,51 +4815,51 @@
         <v>14</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="H38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>316</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>17</v>
@@ -4748,60 +4874,60 @@
         <v>14</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="G39" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>17</v>
@@ -4818,7 +4944,7 @@
     </row>
     <row r="40" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -4827,40 +4953,40 @@
         <v>236</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>17</v>
@@ -4875,54 +5001,54 @@
         <v>14</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>17</v>
@@ -4937,60 +5063,60 @@
         <v>14</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>349</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>17</v>
@@ -5005,12 +5131,12 @@
         <v>14</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -5019,7 +5145,7 @@
         <v>236</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>236</v>
@@ -5040,30 +5166,30 @@
         <v>15</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="U43" s="3" t="s">
         <v>100</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>236</v>
@@ -5087,24 +5213,24 @@
         <v>15</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U44" s="3" t="s">
         <v>100</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -5113,7 +5239,7 @@
         <v>236</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>236</v>
@@ -5134,30 +5260,30 @@
         <v>15</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>100</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>236</v>
@@ -5181,33 +5307,33 @@
         <v>15</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U46" s="3" t="s">
         <v>100</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>366</v>
-      </c>
       <c r="C47" s="6" t="s">
         <v>236</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>236</v>
@@ -5228,24 +5354,24 @@
         <v>15</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="Q47" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="U47" s="3" t="s">
         <v>195</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>258</v>
@@ -5254,7 +5380,7 @@
         <v>236</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>236</v>
@@ -5275,24 +5401,24 @@
         <v>15</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O48" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="U48" s="3" t="s">
         <v>195</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>91</v>
@@ -5301,7 +5427,7 @@
         <v>236</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>236</v>
@@ -5322,24 +5448,24 @@
         <v>15</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>84</v>
       </c>
       <c r="U49" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="X49" s="5" t="s">
         <v>385</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>27</v>
@@ -5348,43 +5474,43 @@
         <v>236</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="H50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="K50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>17</v>
@@ -5399,18 +5525,18 @@
         <v>14</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>236</v>
@@ -5434,10 +5560,10 @@
         <v>15</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -5449,12 +5575,12 @@
         <v>46</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>39</v>
@@ -5463,7 +5589,7 @@
         <v>236</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>236</v>
@@ -5484,10 +5610,10 @@
         <v>15</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>84</v>
@@ -5499,27 +5625,27 @@
         <v>46</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>401</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>39</v>
@@ -5531,7 +5657,7 @@
         <v>14</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>14</v>
@@ -5540,22 +5666,22 @@
         <v>15</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O53" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>17</v>
@@ -5572,7 +5698,7 @@
     </row>
     <row r="54" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>27</v>
@@ -5581,34 +5707,34 @@
         <v>236</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q54" s="3" t="s">
         <v>416</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>18</v>
@@ -5617,54 +5743,54 @@
         <v>38</v>
       </c>
       <c r="X54" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>17</v>
@@ -5681,49 +5807,49 @@
     </row>
     <row r="56" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>432</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>433</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>56</v>
@@ -5732,48 +5858,48 @@
         <v>263</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>56</v>
@@ -5782,54 +5908,54 @@
         <v>124</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>443</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>444</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>17</v>
@@ -5846,7 +5972,7 @@
     </row>
     <row r="59" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -5855,34 +5981,34 @@
         <v>236</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>56</v>
@@ -5891,48 +6017,48 @@
         <v>38</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>56</v>
@@ -5941,60 +6067,60 @@
         <v>247</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>457</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>403</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>17</v>
@@ -6011,13 +6137,13 @@
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>236</v>
@@ -6041,7 +6167,7 @@
         <v>15</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>56</v>
@@ -6050,12 +6176,12 @@
         <v>124</v>
       </c>
       <c r="X62" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -6064,7 +6190,7 @@
         <v>236</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>236</v>
@@ -6085,7 +6211,7 @@
         <v>15</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>56</v>
@@ -6094,18 +6220,18 @@
         <v>124</v>
       </c>
       <c r="X63" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>236</v>
@@ -6129,7 +6255,7 @@
         <v>15</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>56</v>
@@ -6138,48 +6264,48 @@
         <v>124</v>
       </c>
       <c r="X64" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>56</v>
@@ -6188,12 +6314,12 @@
         <v>46</v>
       </c>
       <c r="X65" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>27</v>
@@ -6202,7 +6328,7 @@
         <v>236</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>236</v>
@@ -6223,13 +6349,13 @@
         <v>15</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>56</v>
@@ -6238,57 +6364,57 @@
         <v>46</v>
       </c>
       <c r="X66" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="H67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O67" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="Q67" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="R67" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>17</v>
@@ -6300,48 +6426,48 @@
         <v>46</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="P68" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>56</v>
@@ -6350,48 +6476,48 @@
         <v>38</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>484</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>56</v>
@@ -6400,48 +6526,48 @@
         <v>38</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>489</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>56</v>
@@ -6452,43 +6578,43 @@
     </row>
     <row r="71" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="P71" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>494</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>18</v>
@@ -6497,48 +6623,48 @@
         <v>195</v>
       </c>
       <c r="X71" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>500</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>18</v>
@@ -6547,48 +6673,48 @@
         <v>195</v>
       </c>
       <c r="X72" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>501</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>503</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>502</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>18</v>
@@ -6597,12 +6723,12 @@
         <v>124</v>
       </c>
       <c r="X73" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>39</v>
@@ -6611,7 +6737,7 @@
         <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>236</v>
@@ -6632,7 +6758,7 @@
         <v>15</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>18</v>
@@ -6641,54 +6767,54 @@
         <v>124</v>
       </c>
       <c r="X74" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>236</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>511</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>17</v>
@@ -6700,54 +6826,54 @@
         <v>100</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O76" s="3" t="s">
+      <c r="P76" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>517</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>18</v>
@@ -6756,54 +6882,54 @@
         <v>100</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="K77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O77" s="3" t="s">
+      <c r="P77" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>524</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>17</v>
@@ -6815,60 +6941,60 @@
         <v>225</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="P78" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="Q78" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="S78" s="3" t="s">
         <v>17</v>
@@ -6880,54 +7006,54 @@
         <v>124</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="P79" s="3" t="s">
         <v>536</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="P79" s="3" t="s">
+      <c r="Q79" s="3" t="s">
         <v>537</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>18</v>
@@ -6936,57 +7062,57 @@
         <v>100</v>
       </c>
       <c r="X79" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O80" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O80" s="3" t="s">
+      <c r="P80" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="Q80" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="R80" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="S80" s="3" t="s">
         <v>17</v>
@@ -6998,18 +7124,18 @@
         <v>100</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>549</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>236</v>
@@ -7039,54 +7165,54 @@
         <v>195</v>
       </c>
       <c r="X81" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="K82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O82" s="3" t="s">
+      <c r="P82" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="P82" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>556</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>557</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>17</v>
@@ -7098,54 +7224,54 @@
         <v>195</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>562</v>
-      </c>
-      <c r="P83" s="3" t="s">
+      <c r="Q83" s="3" t="s">
         <v>560</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>56</v>
@@ -7154,60 +7280,60 @@
         <v>38</v>
       </c>
       <c r="X83" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="O84" s="3" t="s">
+      <c r="P84" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="Q84" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>17</v>
@@ -7219,60 +7345,60 @@
         <v>263</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N85" s="3" t="s">
+      <c r="O85" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="P85" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="Q85" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>17</v>
@@ -7284,60 +7410,60 @@
         <v>100</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="X85" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O86" s="3" t="s">
+      <c r="P86" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="Q86" s="3" t="s">
         <v>590</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="R86" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>17</v>
@@ -7349,12 +7475,12 @@
         <v>100</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -7363,7 +7489,7 @@
         <v>236</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>236</v>
@@ -7384,13 +7510,13 @@
         <v>15</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O87" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="Q87" s="3" t="s">
         <v>598</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>56</v>
@@ -7399,80 +7525,490 @@
         <v>124</v>
       </c>
       <c r="X87" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>603</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="O88" s="3" t="s">
+      <c r="Q88" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R88" s="3" t="s">
         <v>604</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="U88" s="3" t="s">
         <v>100</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q89" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R89" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V89" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X89" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q90" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="S90" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T90" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="U90" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V90" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X90" s="5" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R91" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X91" s="5" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="92" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q92" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="R92" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="S92" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="T92" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="U92" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V92" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X92" s="5" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q93" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="R93" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="S93" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="T93" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="U93" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V93" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X93" s="5" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="94" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q94" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="R94" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V94" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X94" s="5" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="95" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q95" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T95" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="U95" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="V95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X95" s="5" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q5" twoDigitTextYear="1"/>
+    <ignoredError sqref="Q5 Q95" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7485,7 +8021,7 @@
     <col min="6" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -7496,13 +8032,16 @@
         <v>289</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>290</v>
+        <v>647</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -7516,7 +8055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -7524,13 +8063,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -7538,13 +8077,13 @@
         <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -7552,13 +8091,13 @@
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -7566,13 +8105,13 @@
         <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>51</v>
       </c>
@@ -7586,7 +8125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -7600,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>65</v>
       </c>
@@ -7614,7 +8153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>65</v>
       </c>
@@ -7628,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>78</v>
       </c>
@@ -7642,7 +8181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>87</v>
       </c>
@@ -7656,7 +8195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>87</v>
       </c>
@@ -7670,7 +8209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>103</v>
       </c>
@@ -7684,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>103</v>
       </c>
@@ -7698,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>103</v>
       </c>
@@ -7807,7 +8346,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -7821,7 +8360,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -7980,7 +8519,7 @@
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>14</v>
@@ -7994,7 +8533,7 @@
     </row>
     <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -8008,7 +8547,7 @@
     </row>
     <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>28</v>
@@ -8022,7 +8561,7 @@
     </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>14</v>
@@ -8036,7 +8575,7 @@
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -8050,7 +8589,7 @@
     </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>14</v>
@@ -8064,7 +8603,7 @@
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
@@ -8078,7 +8617,7 @@
     </row>
     <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -8089,7 +8628,7 @@
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
@@ -8100,7 +8639,7 @@
     </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -8111,7 +8650,7 @@
     </row>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -8122,10 +8661,10 @@
     </row>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -8133,7 +8672,7 @@
     </row>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>258</v>
@@ -8144,7 +8683,7 @@
     </row>
     <row r="49" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>91</v>
@@ -8155,7 +8694,7 @@
     </row>
     <row r="50" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>27</v>
@@ -8169,7 +8708,7 @@
     </row>
     <row r="51" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
@@ -8180,7 +8719,7 @@
     </row>
     <row r="52" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>39</v>
@@ -8191,7 +8730,7 @@
     </row>
     <row r="53" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>14</v>
@@ -8205,7 +8744,7 @@
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>27</v>
@@ -8216,7 +8755,7 @@
     </row>
     <row r="55" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>14</v>
@@ -8230,7 +8769,7 @@
     </row>
     <row r="56" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
@@ -8241,7 +8780,7 @@
     </row>
     <row r="57" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
@@ -8252,7 +8791,7 @@
     </row>
     <row r="58" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>14</v>
@@ -8266,7 +8805,7 @@
     </row>
     <row r="59" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -8277,7 +8816,7 @@
     </row>
     <row r="60" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
@@ -8288,7 +8827,7 @@
     </row>
     <row r="61" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>14</v>
@@ -8302,7 +8841,7 @@
     </row>
     <row r="62" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>27</v>
@@ -8313,7 +8852,7 @@
     </row>
     <row r="63" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -8324,7 +8863,7 @@
     </row>
     <row r="64" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>39</v>
@@ -8335,7 +8874,7 @@
     </row>
     <row r="65" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>14</v>
@@ -8346,7 +8885,7 @@
     </row>
     <row r="66" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>27</v>
@@ -8357,7 +8896,7 @@
     </row>
     <row r="67" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
@@ -8371,7 +8910,7 @@
     </row>
     <row r="68" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>39</v>
@@ -8382,7 +8921,7 @@
     </row>
     <row r="69" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>258</v>
@@ -8393,7 +8932,7 @@
     </row>
     <row r="70" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>91</v>
@@ -8404,7 +8943,7 @@
     </row>
     <row r="71" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>14</v>
@@ -8415,7 +8954,7 @@
     </row>
     <row r="72" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>27</v>
@@ -8426,7 +8965,7 @@
     </row>
     <row r="73" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
@@ -8437,7 +8976,7 @@
     </row>
     <row r="74" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>39</v>
@@ -8448,21 +8987,21 @@
     </row>
     <row r="75" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>14</v>
@@ -8473,7 +9012,7 @@
     </row>
     <row r="77" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>27</v>
@@ -8487,7 +9026,7 @@
     </row>
     <row r="78" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>28</v>
@@ -8501,7 +9040,7 @@
     </row>
     <row r="79" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
@@ -8512,7 +9051,7 @@
     </row>
     <row r="80" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>27</v>
@@ -8524,9 +9063,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>14</v>
@@ -8535,9 +9074,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>27</v>
@@ -8549,9 +9088,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>28</v>
@@ -8560,9 +9099,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -8574,9 +9113,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
@@ -8588,9 +9127,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>14</v>
@@ -8602,9 +9141,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -8613,9 +9152,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
@@ -8624,6 +9163,83 @@
         <v>1</v>
       </c>
       <c r="E88" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F89" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F90" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F91" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F92" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F93" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F94" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95" s="10">
         <v>1</v>
       </c>
     </row>
@@ -8666,136 +9282,136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2" s="14">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>420</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>452</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>464</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>496</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>592</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>593</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>596</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="6645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2005" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="838">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -866,9 +866,6 @@
   </si>
   <si>
     <t>71, -363</t>
-  </si>
-  <si>
-    <t>AL/LM</t>
   </si>
   <si>
     <t>2016_06_13_0015</t>
@@ -1978,9 +1975,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>-60</t>
-  </si>
-  <si>
     <t>LGN recording with chronos tdTom. Lackluster recording, and at the wrong Vhold</t>
   </si>
   <si>
@@ -2038,9 +2032,6 @@
     <t>-20, -66</t>
   </si>
   <si>
-    <t>technically a small inward driving force b/c I'm using a Cs-Glu internal.</t>
-  </si>
-  <si>
     <t>RIT_test</t>
   </si>
   <si>
@@ -2051,6 +2042,588 @@
   </si>
   <si>
     <t>chronos_syt7_wt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">technically a small inward driving force b/c I'm using a Cs-Glu internal. Actually a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV-Cre animal</t>
+    </r>
+  </si>
+  <si>
+    <t>CH_160907_D</t>
+  </si>
+  <si>
+    <t>2016_09_21_0006</t>
+  </si>
+  <si>
+    <t>150, -68</t>
+  </si>
+  <si>
+    <t>-33, -155</t>
+  </si>
+  <si>
+    <t>technically from an EMX+/- animal expressing ochief</t>
+  </si>
+  <si>
+    <t>CH_160805_C</t>
+  </si>
+  <si>
+    <t>2016_08_23_0000</t>
+  </si>
+  <si>
+    <t>2016_08_23_0001</t>
+  </si>
+  <si>
+    <t>2016_08_23_0002_nospks</t>
+  </si>
+  <si>
+    <t>40, 190</t>
+  </si>
+  <si>
+    <t>44, 10</t>
+  </si>
+  <si>
+    <t>-13, -400</t>
+  </si>
+  <si>
+    <t>2016_08_23_0003</t>
+  </si>
+  <si>
+    <t>2016_08_23_0004</t>
+  </si>
+  <si>
+    <t>2016_08_23_0005</t>
+  </si>
+  <si>
+    <t>27:30</t>
+  </si>
+  <si>
+    <t>41, 236</t>
+  </si>
+  <si>
+    <t>-18, 1</t>
+  </si>
+  <si>
+    <t>0, 36</t>
+  </si>
+  <si>
+    <t>0, -371</t>
+  </si>
+  <si>
+    <t>2016_08_28_0000</t>
+  </si>
+  <si>
+    <t>CH_160811_A</t>
+  </si>
+  <si>
+    <t>2016_08_28_0001</t>
+  </si>
+  <si>
+    <t>2016_08_28_0002</t>
+  </si>
+  <si>
+    <t>somtom</t>
+  </si>
+  <si>
+    <t>chief_cit</t>
+  </si>
+  <si>
+    <t>2016_08_28_0003</t>
+  </si>
+  <si>
+    <t>2016_08_28_0005</t>
+  </si>
+  <si>
+    <t>150, 315</t>
+  </si>
+  <si>
+    <t>-6, -11</t>
+  </si>
+  <si>
+    <t>-101, -105</t>
+  </si>
+  <si>
+    <t>pretty bad Rs.</t>
+  </si>
+  <si>
+    <t>2016_09_28_0000</t>
+  </si>
+  <si>
+    <t>CH_160907_A</t>
+  </si>
+  <si>
+    <t>-62, 250</t>
+  </si>
+  <si>
+    <t>-8, 6</t>
+  </si>
+  <si>
+    <t>2016_09_28_0002</t>
+  </si>
+  <si>
+    <t>2016_09_28_0004</t>
+  </si>
+  <si>
+    <t>-16, -30</t>
+  </si>
+  <si>
+    <t>63, -388</t>
+  </si>
+  <si>
+    <t>2016_09_28_0008</t>
+  </si>
+  <si>
+    <t>2016_09_28_0005</t>
+  </si>
+  <si>
+    <t>43, 251</t>
+  </si>
+  <si>
+    <t>23, 18</t>
+  </si>
+  <si>
+    <t>98, -333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not a NON-PY RS cell (SOM), but also not an FS cell. </t>
+  </si>
+  <si>
+    <t>CH_160907_B</t>
+  </si>
+  <si>
+    <t>2016_09_26_0000</t>
+  </si>
+  <si>
+    <t>2016_09_26_0001</t>
+  </si>
+  <si>
+    <t>2016_09_26_0003</t>
+  </si>
+  <si>
+    <t>2016_09_26_0005</t>
+  </si>
+  <si>
+    <t>-72, 10</t>
+  </si>
+  <si>
+    <t>-222, 341</t>
+  </si>
+  <si>
+    <t>138, -320</t>
+  </si>
+  <si>
+    <t>2016_09_26_0006</t>
+  </si>
+  <si>
+    <t>2016_09_26_0008</t>
+  </si>
+  <si>
+    <t>2016_09_26_0009</t>
+  </si>
+  <si>
+    <t>80, 214</t>
+  </si>
+  <si>
+    <t>-60, -320</t>
+  </si>
+  <si>
+    <t>2016_09_26_0010</t>
+  </si>
+  <si>
+    <t>2016_09_26_0013</t>
+  </si>
+  <si>
+    <t>2016_09_26_0014</t>
+  </si>
+  <si>
+    <t>-10, 32</t>
+  </si>
+  <si>
+    <t>-24, 289</t>
+  </si>
+  <si>
+    <t>100, -355</t>
+  </si>
+  <si>
+    <t>CH_160915_A</t>
+  </si>
+  <si>
+    <t>2016_10_03_0000</t>
+  </si>
+  <si>
+    <t>88, 166</t>
+  </si>
+  <si>
+    <t>1, -10</t>
+  </si>
+  <si>
+    <t>2016_10_03_0006</t>
+  </si>
+  <si>
+    <t>26, 46</t>
+  </si>
+  <si>
+    <t>24, 218</t>
+  </si>
+  <si>
+    <t>CH_160915_B</t>
+  </si>
+  <si>
+    <t>2016_10_01_0000</t>
+  </si>
+  <si>
+    <t>2016_10_01_0003</t>
+  </si>
+  <si>
+    <t>-37, -1</t>
+  </si>
+  <si>
+    <t>-25, 264</t>
+  </si>
+  <si>
+    <t>-18, -366</t>
+  </si>
+  <si>
+    <t>2016_10_01_0001</t>
+  </si>
+  <si>
+    <t>2016_10_01_0004</t>
+  </si>
+  <si>
+    <t>2016_10_01_0007</t>
+  </si>
+  <si>
+    <t>2016_10_01_0008_trim</t>
+  </si>
+  <si>
+    <t>-160, 236</t>
+  </si>
+  <si>
+    <t>-22, 22</t>
+  </si>
+  <si>
+    <t>221, -280</t>
+  </si>
+  <si>
+    <t>2016_10_01_0009</t>
+  </si>
+  <si>
+    <t>-36, 250</t>
+  </si>
+  <si>
+    <t>10, -10</t>
+  </si>
+  <si>
+    <t>A/AM</t>
+  </si>
+  <si>
+    <t>2016_10_01_0012</t>
+  </si>
+  <si>
+    <t>14, -14</t>
+  </si>
+  <si>
+    <t>2016_10_01_0015</t>
+  </si>
+  <si>
+    <t>-35, -20</t>
+  </si>
+  <si>
+    <t>-6, 270</t>
+  </si>
+  <si>
+    <t>-10. -94</t>
+  </si>
+  <si>
+    <t>-25, 173</t>
+  </si>
+  <si>
+    <t>CH_160915_C</t>
+  </si>
+  <si>
+    <t>2016_09_30_0000</t>
+  </si>
+  <si>
+    <t>2016_09_30_concat2to3</t>
+  </si>
+  <si>
+    <t>5, 200</t>
+  </si>
+  <si>
+    <t>-30, -14</t>
+  </si>
+  <si>
+    <t>-66, -415</t>
+  </si>
+  <si>
+    <t>2016_09_30_0006</t>
+  </si>
+  <si>
+    <t>2016_09_30_concat7to8</t>
+  </si>
+  <si>
+    <t>-24, 240</t>
+  </si>
+  <si>
+    <t>-60, -30</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>2016_09_30_0009</t>
+  </si>
+  <si>
+    <t>38, 237</t>
+  </si>
+  <si>
+    <t>12, -18</t>
+  </si>
+  <si>
+    <t>2016_10_01_0019</t>
+  </si>
+  <si>
+    <t>?_wrong v hold</t>
+  </si>
+  <si>
+    <t>CH_160920_C</t>
+  </si>
+  <si>
+    <t>2016_10_10_0006</t>
+  </si>
+  <si>
+    <t>-24, -3</t>
+  </si>
+  <si>
+    <t>-185, -332</t>
+  </si>
+  <si>
+    <t>chronos_syt7_ko</t>
+  </si>
+  <si>
+    <t>2016_10_10_0008</t>
+  </si>
+  <si>
+    <t>-60, -52</t>
+  </si>
+  <si>
+    <t>-188, -333</t>
+  </si>
+  <si>
+    <t>2016_10_10_0011</t>
+  </si>
+  <si>
+    <t>-281, 46</t>
+  </si>
+  <si>
+    <t>2016_10_08_0000</t>
+  </si>
+  <si>
+    <t>CH_160920_D</t>
+  </si>
+  <si>
+    <t>-200, -82</t>
+  </si>
+  <si>
+    <t>2016_10_08_0009</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>10, -7</t>
+  </si>
+  <si>
+    <t>-264, -55</t>
+  </si>
+  <si>
+    <t>2016_10_08_0013</t>
+  </si>
+  <si>
+    <t>1, 106</t>
+  </si>
+  <si>
+    <t>22, -180</t>
+  </si>
+  <si>
+    <t>CH_160929_A</t>
+  </si>
+  <si>
+    <t>2016_10_19_0000</t>
+  </si>
+  <si>
+    <t>-18, 192</t>
+  </si>
+  <si>
+    <t>-9, 17</t>
+  </si>
+  <si>
+    <t>2016_10_19_0003</t>
+  </si>
+  <si>
+    <t>2016_10_19_0008</t>
+  </si>
+  <si>
+    <t>0, -15</t>
+  </si>
+  <si>
+    <t>-220, 283</t>
+  </si>
+  <si>
+    <t>65, -315</t>
+  </si>
+  <si>
+    <t>2016_10_19_0010</t>
+  </si>
+  <si>
+    <t>2016_10_19_0011</t>
+  </si>
+  <si>
+    <t>2016_10_19_0014</t>
+  </si>
+  <si>
+    <t>-6, -333</t>
+  </si>
+  <si>
+    <t>No ND filter, few trials, possibly weak expression in PM.</t>
+  </si>
+  <si>
+    <t>CH_160929_B</t>
+  </si>
+  <si>
+    <t>2016_10_17_0000</t>
+  </si>
+  <si>
+    <t>2016_10_17_0002</t>
+  </si>
+  <si>
+    <t>28:33</t>
+  </si>
+  <si>
+    <t>-40, -2</t>
+  </si>
+  <si>
+    <t>58, 240</t>
+  </si>
+  <si>
+    <t>-187, -332</t>
+  </si>
+  <si>
+    <t>2016_10_17_0004</t>
+  </si>
+  <si>
+    <t>150, 268</t>
+  </si>
+  <si>
+    <t>45, -30</t>
+  </si>
+  <si>
+    <t>2016_10_17_0008</t>
+  </si>
+  <si>
+    <t>2016_10_17_0012</t>
+  </si>
+  <si>
+    <t>8, -14</t>
+  </si>
+  <si>
+    <t>0, 220</t>
+  </si>
+  <si>
+    <t>10, 45</t>
+  </si>
+  <si>
+    <t>10, 220</t>
+  </si>
+  <si>
+    <t>CH_160929_C</t>
+  </si>
+  <si>
+    <t>2016_10_14_0001</t>
+  </si>
+  <si>
+    <t>93, 205</t>
+  </si>
+  <si>
+    <t>38, 17</t>
+  </si>
+  <si>
+    <t>2016_10_14_0006</t>
+  </si>
+  <si>
+    <t>44, -41</t>
+  </si>
+  <si>
+    <t>50, 218</t>
+  </si>
+  <si>
+    <t>2016_10_14_0009</t>
+  </si>
+  <si>
+    <t>-38, 210</t>
+  </si>
+  <si>
+    <t>-12, -17</t>
+  </si>
+  <si>
+    <t>11, -386</t>
+  </si>
+  <si>
+    <t>EPSCs are probably poly-synaptic</t>
+  </si>
+  <si>
+    <t>2016_10_27_0000</t>
+  </si>
+  <si>
+    <t>CH_161006_A</t>
+  </si>
+  <si>
+    <t>PV_TOM_L23</t>
+  </si>
+  <si>
+    <t>-44, 9</t>
+  </si>
+  <si>
+    <t>-24, 275</t>
+  </si>
+  <si>
+    <t>PVxAi14 mouse</t>
+  </si>
+  <si>
+    <t>2016_10_24_0000</t>
+  </si>
+  <si>
+    <t>CH_161006_B</t>
+  </si>
+  <si>
+    <t>-32, -55</t>
+  </si>
+  <si>
+    <t>40, -126</t>
+  </si>
+  <si>
+    <t>2016_10_24_0006</t>
+  </si>
+  <si>
+    <t>50, 235</t>
+  </si>
+  <si>
+    <t>-35, -8</t>
+  </si>
+  <si>
+    <t>85, 212</t>
+  </si>
+  <si>
+    <t>2016_10_24_0010</t>
   </si>
 </sst>
 </file>
@@ -2090,7 +2663,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2106,6 +2679,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2137,7 +2722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2189,6 +2774,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2470,11 +3070,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X138"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="O1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T91" sqref="T91"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2512,34 +3112,34 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>411</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>412</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>102</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>413</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>245</v>
@@ -2610,7 +3210,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>12</v>
@@ -2664,7 +3264,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>23</v>
@@ -2685,7 +3285,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2723,7 +3323,7 @@
         <v>15</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>30</v>
@@ -2741,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2776,10 +3376,10 @@
         <v>15</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>34</v>
@@ -2803,7 +3403,7 @@
         <v>38</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2838,10 +3438,10 @@
         <v>15</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>42</v>
@@ -2865,7 +3465,7 @@
         <v>46</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2900,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O7" s="3" t="s">
         <v>53</v>
@@ -2956,7 +3556,7 @@
         <v>15</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>62</v>
@@ -2974,7 +3574,7 @@
         <v>56</v>
       </c>
       <c r="U8" s="11" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>63</v>
@@ -3012,7 +3612,7 @@
         <v>15</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>70</v>
@@ -3071,10 +3671,10 @@
         <v>15</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>73</v>
@@ -3136,10 +3736,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>81</v>
@@ -3157,7 +3757,7 @@
         <v>17</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U11" s="12" t="s">
         <v>38</v>
@@ -3204,7 +3804,7 @@
         <v>15</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>93</v>
@@ -3219,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U12" s="12" t="s">
         <v>38</v>
@@ -3260,7 +3860,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O13" s="3" t="s">
         <v>99</v>
@@ -3275,7 +3875,7 @@
         <v>17</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U13" s="12" t="s">
         <v>100</v>
@@ -3319,7 +3919,7 @@
         <v>15</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>107</v>
@@ -3334,7 +3934,7 @@
         <v>17</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U14" s="11" t="s">
         <v>100</v>
@@ -3381,10 +3981,10 @@
         <v>15</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>107</v>
@@ -3402,7 +4002,7 @@
         <v>17</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U15" s="11" t="s">
         <v>100</v>
@@ -3449,10 +4049,10 @@
         <v>14</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O16" s="3" t="s">
         <v>125</v>
@@ -3470,7 +4070,7 @@
         <v>17</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="U16" s="11" t="s">
         <v>124</v>
@@ -3511,10 +4111,10 @@
         <v>14</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>132</v>
@@ -3579,10 +4179,10 @@
         <v>14</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O18" s="3" t="s">
         <v>139</v>
@@ -3644,10 +4244,10 @@
         <v>14</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O19" s="3" t="s">
         <v>149</v>
@@ -3709,10 +4309,10 @@
         <v>14</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O20" s="3" t="s">
         <v>158</v>
@@ -3774,7 +4374,7 @@
         <v>14</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O21" s="3" t="s">
         <v>167</v>
@@ -3833,7 +4433,7 @@
         <v>14</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>174</v>
@@ -3889,10 +4489,10 @@
         <v>14</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>182</v>
@@ -3913,13 +4513,13 @@
         <v>56</v>
       </c>
       <c r="U23" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="V23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X23" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3960,10 +4560,10 @@
         <v>14</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>191</v>
@@ -3990,7 +4590,7 @@
         <v>14</v>
       </c>
       <c r="X24" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4028,10 +4628,10 @@
         <v>15</v>
       </c>
       <c r="M25" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>201</v>
@@ -4150,11 +4750,11 @@
       <c r="L27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>299</v>
+      <c r="M27" s="22" t="s">
+        <v>298</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>214</v>
@@ -4217,10 +4817,10 @@
         <v>14</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O28" s="3" t="s">
         <v>224</v>
@@ -4280,7 +4880,7 @@
         <v>15</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>231</v>
@@ -4345,10 +4945,10 @@
         <v>14</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N30" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>242</v>
@@ -4365,8 +4965,8 @@
       <c r="T30" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U30" s="3" t="s">
-        <v>195</v>
+      <c r="U30" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="V30" s="3" t="s">
         <v>14</v>
@@ -4404,10 +5004,10 @@
         <v>15</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>251</v>
@@ -4427,14 +5027,14 @@
       <c r="T31" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U31" s="3" t="s">
-        <v>225</v>
+      <c r="U31" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="V31" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X31" s="5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="32" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4454,7 +5054,7 @@
         <v>257</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>258</v>
@@ -4475,10 +5075,10 @@
         <v>14</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N32" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O32" s="3" t="s">
         <v>259</v>
@@ -4498,68 +5098,69 @@
       <c r="T32" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>263</v>
+      <c r="U32" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
+    <row r="33" spans="1:24" s="19" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
         <v>264</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="B33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D33" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E33" s="3" t="s">
+      <c r="D33" s="20" t="s">
+        <v>236</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="H33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O33" s="3" t="s">
+      <c r="K33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="L33" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="M33" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="O33" s="19" t="s">
         <v>268</v>
       </c>
-      <c r="P33" s="3" t="s">
+      <c r="P33" s="19" t="s">
         <v>269</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="R33" s="19" t="s">
         <v>270</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S33" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="T33" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="U33" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="V33" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="V33" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="X33" s="21"/>
     </row>
     <row r="34" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
@@ -4599,10 +5200,10 @@
         <v>14</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N34" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O34" s="3" t="s">
         <v>276</v>
@@ -4622,8 +5223,8 @@
       <c r="T34" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U34" s="3" t="s">
-        <v>280</v>
+      <c r="U34" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="V34" s="3" t="s">
         <v>14</v>
@@ -4637,49 +5238,49 @@
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="E35" s="3" t="s">
+      <c r="F35" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="K35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O35" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N35" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O35" s="3" t="s">
+      <c r="Q35" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q35" s="3" t="s">
+      <c r="R35" s="3" t="s">
         <v>287</v>
-      </c>
-      <c r="R35" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="S35" s="3" t="s">
         <v>17</v>
@@ -4687,7 +5288,7 @@
       <c r="T35" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U35" s="3" t="s">
+      <c r="U35" s="19" t="s">
         <v>124</v>
       </c>
       <c r="V35" s="3" t="s">
@@ -4696,49 +5297,49 @@
     </row>
     <row r="36" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="H36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O36" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="K36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L36" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N36" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O36" s="3" t="s">
+      <c r="Q36" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="R36" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="R36" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="S36" s="3" t="s">
         <v>17</v>
@@ -4746,8 +5347,8 @@
       <c r="T36" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U36" s="3" t="s">
-        <v>38</v>
+      <c r="U36" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="V36" s="3" t="s">
         <v>14</v>
@@ -4755,7 +5356,7 @@
     </row>
     <row r="37" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -4764,43 +5365,43 @@
         <v>236</v>
       </c>
       <c r="D37" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="H37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M37" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="K37" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M37" s="3" t="s">
+      <c r="N37" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O37" s="3" t="s">
+      <c r="Q37" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="P37" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q37" s="3" t="s">
+      <c r="R37" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="R37" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="S37" s="3" t="s">
         <v>17</v>
@@ -4808,58 +5409,58 @@
       <c r="T37" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U37" s="3" t="s">
-        <v>195</v>
+      <c r="U37" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="V37" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X37" s="5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="38" spans="1:24" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E38" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E38" s="3" t="s">
+      <c r="H38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M38" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="K38" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M38" s="3" t="s">
+      <c r="O38" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="P38" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="P38" s="3" t="s">
+      <c r="R38" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="S38" s="3" t="s">
         <v>17</v>
@@ -4867,67 +5468,67 @@
       <c r="T38" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="U38" s="19" t="s">
         <v>38</v>
       </c>
       <c r="V38" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C39" s="3" t="s">
+      <c r="D39" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="E39" s="3" t="s">
+      <c r="G39" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O39" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O39" s="3" t="s">
+      <c r="P39" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="P39" s="3" t="s">
+      <c r="Q39" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="R39" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="S39" s="3" t="s">
         <v>17</v>
@@ -4935,7 +5536,7 @@
       <c r="T39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="U39" s="19" t="s">
         <v>46</v>
       </c>
       <c r="V39" s="3" t="s">
@@ -4944,7 +5545,7 @@
     </row>
     <row r="40" spans="1:24" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -4953,40 +5554,40 @@
         <v>236</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="H40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O40" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="K40" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O40" s="3" t="s">
+      <c r="P40" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="P40" s="3" t="s">
+      <c r="Q40" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="R40" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="S40" s="3" t="s">
         <v>17</v>
@@ -4994,61 +5595,61 @@
       <c r="T40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="U40" s="19" t="s">
         <v>46</v>
       </c>
       <c r="V40" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C41" s="3" t="s">
+      <c r="D41" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E41" s="3" t="s">
+      <c r="H41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O41" s="3" t="s">
+      <c r="R41" s="3" t="s">
         <v>339</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="R41" s="3" t="s">
-        <v>340</v>
       </c>
       <c r="S41" s="3" t="s">
         <v>17</v>
@@ -5056,67 +5657,67 @@
       <c r="T41" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>247</v>
+      <c r="U41" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="V41" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E42" s="3" t="s">
+      <c r="G42" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="K42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M42" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M42" s="3" t="s">
+      <c r="N42" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="P42" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O42" s="3" t="s">
+      <c r="Q42" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="P42" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q42" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="R42" s="3" t="s">
-        <v>350</v>
       </c>
       <c r="S42" s="3" t="s">
         <v>17</v>
@@ -5124,19 +5725,19 @@
       <c r="T42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="U42" s="19" t="s">
         <v>38</v>
       </c>
       <c r="V42" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X42" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="43" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -5145,7 +5746,7 @@
         <v>236</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>236</v>
@@ -5166,30 +5767,30 @@
         <v>15</v>
       </c>
       <c r="N43" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O43" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q43" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="U43" s="3" t="s">
+      <c r="U43" s="19" t="s">
         <v>100</v>
       </c>
       <c r="X43" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="44" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D44" s="6" t="s">
         <v>236</v>
@@ -5213,24 +5814,24 @@
         <v>15</v>
       </c>
       <c r="M44" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P44" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="U44" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="U44" s="19" t="s">
         <v>100</v>
       </c>
       <c r="X44" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -5239,7 +5840,7 @@
         <v>236</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>236</v>
@@ -5260,30 +5861,30 @@
         <v>15</v>
       </c>
       <c r="N45" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="Q45" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="U45" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="U45" s="19" t="s">
         <v>100</v>
       </c>
       <c r="X45" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="46" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>236</v>
@@ -5307,33 +5908,33 @@
         <v>15</v>
       </c>
       <c r="M46" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="P46" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="U46" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="U46" s="19" t="s">
         <v>100</v>
       </c>
       <c r="X46" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="B47" s="3" t="s">
-        <v>365</v>
-      </c>
       <c r="C47" s="6" t="s">
         <v>236</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>236</v>
@@ -5354,24 +5955,24 @@
         <v>15</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O47" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q47" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="U47" s="3" t="s">
-        <v>195</v>
+      <c r="U47" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="X47" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>258</v>
@@ -5380,7 +5981,7 @@
         <v>236</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>236</v>
@@ -5401,24 +6002,24 @@
         <v>15</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O48" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q48" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>195</v>
+      <c r="U48" s="19" t="s">
+        <v>46</v>
       </c>
       <c r="X48" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="49" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>91</v>
@@ -5427,7 +6028,7 @@
         <v>236</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>236</v>
@@ -5448,24 +6049,24 @@
         <v>15</v>
       </c>
       <c r="N49" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="U49" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="X49" s="5" t="s">
         <v>384</v>
-      </c>
-      <c r="X49" s="5" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="50" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>27</v>
@@ -5474,43 +6075,43 @@
         <v>236</v>
       </c>
       <c r="D50" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E50" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="H50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J50" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J50" s="6" t="s">
+      <c r="K50" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M50" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O50" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="K50" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M50" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N50" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O50" s="3" t="s">
+      <c r="P50" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="P50" s="3" t="s">
+      <c r="Q50" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="R50" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="R50" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="S50" s="3" t="s">
         <v>17</v>
@@ -5518,25 +6119,25 @@
       <c r="T50" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="U50" s="18" t="s">
         <v>38</v>
       </c>
       <c r="V50" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X50" s="5" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D51" s="6" t="s">
         <v>236</v>
@@ -5560,10 +6161,10 @@
         <v>15</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O51" s="3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="P51" s="3" t="s">
         <v>84</v>
@@ -5571,16 +6172,16 @@
       <c r="T51" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="U51" s="18" t="s">
         <v>46</v>
       </c>
       <c r="X51" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>39</v>
@@ -5589,7 +6190,7 @@
         <v>236</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>236</v>
@@ -5610,10 +6211,10 @@
         <v>15</v>
       </c>
       <c r="N52" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>84</v>
@@ -5621,31 +6222,31 @@
       <c r="T52" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="U52" s="18" t="s">
         <v>46</v>
       </c>
       <c r="X52" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="53" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E53" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="F53" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>39</v>
@@ -5657,7 +6258,7 @@
         <v>14</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K53" s="3" t="s">
         <v>14</v>
@@ -5666,22 +6267,22 @@
         <v>15</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="N53" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O53" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="P53" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="P53" s="3" t="s">
+      <c r="Q53" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="R53" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="R53" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="S53" s="3" t="s">
         <v>17</v>
@@ -5689,7 +6290,7 @@
       <c r="T53" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="U53" s="18" t="s">
         <v>46</v>
       </c>
       <c r="V53" s="3" t="s">
@@ -5698,7 +6299,7 @@
     </row>
     <row r="54" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>27</v>
@@ -5707,90 +6308,90 @@
         <v>236</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q54" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N54" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q54" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="U54" s="18" t="s">
         <v>38</v>
       </c>
       <c r="X54" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55" s="3" t="s">
+      <c r="D55" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="D55" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E55" s="3" t="s">
+      <c r="F55" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J55" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="K55" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O55" s="3" t="s">
+      <c r="P55" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="P55" s="3" t="s">
+      <c r="R55" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="R55" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="S55" s="3" t="s">
         <v>17</v>
@@ -5798,7 +6399,7 @@
       <c r="T55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="U55" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V55" s="3" t="s">
@@ -5807,155 +6408,155 @@
     </row>
     <row r="56" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J56" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O56" s="3" t="s">
+      <c r="P56" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="P56" s="3" t="s">
+      <c r="Q56" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="Q56" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="U56" s="18" t="s">
         <v>263</v>
       </c>
       <c r="X56" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="57" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J57" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O57" s="3" t="s">
+      <c r="P57" s="3" t="s">
         <v>434</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>435</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="U57" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X57" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D58" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="H58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J58" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J58" s="3" t="s">
+      <c r="K58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O58" s="3" t="s">
+      <c r="R58" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>443</v>
       </c>
       <c r="S58" s="3" t="s">
         <v>17</v>
@@ -5963,7 +6564,7 @@
       <c r="T58" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="U58" s="18" t="s">
         <v>46</v>
       </c>
       <c r="V58" s="3" t="s">
@@ -5972,7 +6573,7 @@
     </row>
     <row r="59" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -5981,146 +6582,146 @@
         <v>236</v>
       </c>
       <c r="D59" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O59" s="3" t="s">
+      <c r="Q59" s="3" t="s">
         <v>445</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="U59" s="18" t="s">
         <v>38</v>
       </c>
       <c r="X59" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="60" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>447</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O60" s="3" t="s">
+      <c r="P60" s="3" t="s">
         <v>448</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="T60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="U60" s="18" t="s">
         <v>247</v>
       </c>
       <c r="X60" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>455</v>
-      </c>
-      <c r="E61" s="3" t="s">
+      <c r="F61" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="S61" s="3" t="s">
         <v>17</v>
@@ -6128,7 +6729,7 @@
       <c r="T61" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="U61" s="18" t="s">
         <v>225</v>
       </c>
       <c r="V61" s="3" t="s">
@@ -6137,13 +6738,13 @@
     </row>
     <row r="62" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>236</v>
@@ -6167,21 +6768,21 @@
         <v>15</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="U62" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X62" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="63" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -6190,7 +6791,7 @@
         <v>236</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>236</v>
@@ -6211,27 +6812,27 @@
         <v>15</v>
       </c>
       <c r="N63" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="T63" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U63" s="3" t="s">
+      <c r="U63" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X63" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="64" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>236</v>
@@ -6255,71 +6856,71 @@
         <v>15</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="T64" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U64" s="3" t="s">
+      <c r="U64" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X64" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="65" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O65" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="P65" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J65" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="P65" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="T65" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="U65" s="18" t="s">
         <v>46</v>
       </c>
       <c r="X65" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="66" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>27</v>
@@ -6328,7 +6929,7 @@
         <v>236</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>236</v>
@@ -6349,72 +6950,72 @@
         <v>15</v>
       </c>
       <c r="N66" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="Q66" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="T66" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U66" s="3" t="s">
+      <c r="U66" s="18" t="s">
         <v>46</v>
       </c>
       <c r="X66" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="67" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="D67" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="E67" s="3" t="s">
+      <c r="H67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="H67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J67" s="3" t="s">
+      <c r="K67" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O67" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="K67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N67" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O67" s="3" t="s">
+      <c r="P67" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="Q67" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="Q67" s="3" t="s">
+      <c r="R67" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="R67" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="S67" s="3" t="s">
         <v>17</v>
@@ -6422,313 +7023,313 @@
       <c r="T67" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U67" s="3" t="s">
+      <c r="U67" s="18" t="s">
         <v>46</v>
       </c>
       <c r="V67" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="68" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C68" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O68" s="3" t="s">
         <v>482</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J68" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L68" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M68" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="P68" s="3" t="s">
         <v>483</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>484</v>
       </c>
       <c r="T68" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U68" s="3" t="s">
+      <c r="U68" s="18" t="s">
         <v>38</v>
       </c>
       <c r="X68" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="69" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>258</v>
       </c>
       <c r="C69" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O69" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="P69" s="3" t="s">
         <v>485</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J69" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L69" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M69" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O69" s="3" t="s">
-        <v>483</v>
-      </c>
-      <c r="P69" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="T69" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U69" s="3" t="s">
+      <c r="U69" s="18" t="s">
         <v>38</v>
       </c>
       <c r="X69" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="70" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C70" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O70" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="P70" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J70" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M70" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>489</v>
-      </c>
-      <c r="P70" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="T70" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U70" s="3" t="s">
+      <c r="U70" s="18" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="D71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O71" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J71" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M71" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="P71" s="3" t="s">
         <v>492</v>
-      </c>
-      <c r="P71" s="3" t="s">
-        <v>493</v>
       </c>
       <c r="T71" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U71" s="3" t="s">
+      <c r="U71" s="18" t="s">
         <v>195</v>
       </c>
       <c r="X71" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="72" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C72" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="P72" s="3" t="s">
         <v>497</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>499</v>
-      </c>
-      <c r="P72" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="T72" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U72" s="3" t="s">
+      <c r="U72" s="18" t="s">
         <v>195</v>
       </c>
       <c r="X72" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="73" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O73" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="P73" s="3" t="s">
         <v>500</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J73" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L73" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M73" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O73" s="3" t="s">
-        <v>502</v>
-      </c>
-      <c r="P73" s="3" t="s">
-        <v>501</v>
       </c>
       <c r="T73" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U73" s="3" t="s">
+      <c r="U73" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X73" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="74" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>39</v>
@@ -6737,7 +7338,7 @@
         <v>236</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>236</v>
@@ -6758,63 +7359,63 @@
         <v>15</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="T74" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U74" s="3" t="s">
+      <c r="U74" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X74" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>236</v>
       </c>
       <c r="D75" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="E75" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="H75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="H75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J75" s="3" t="s">
+      <c r="K75" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O75" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="K75" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="Q75" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="Q75" s="3" t="s">
+      <c r="R75" s="3" t="s">
         <v>509</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>510</v>
       </c>
       <c r="S75" s="3" t="s">
         <v>17</v>
@@ -6822,114 +7423,114 @@
       <c r="T75" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U75" s="3" t="s">
+      <c r="U75" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V75" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="E76" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O76" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="E76" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L76" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N76" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O76" s="3" t="s">
+      <c r="P76" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="P76" s="3" t="s">
+      <c r="Q76" s="3" t="s">
         <v>515</v>
-      </c>
-      <c r="Q76" s="3" t="s">
-        <v>516</v>
       </c>
       <c r="T76" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U76" s="3" t="s">
+      <c r="U76" s="18" t="s">
         <v>100</v>
       </c>
       <c r="X76" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E77" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="D77" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E77" s="3" t="s">
+      <c r="F77" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="K77" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O77" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="H77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J77" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="K77" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O77" s="3" t="s">
+      <c r="P77" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="P77" s="3" t="s">
+      <c r="R77" s="3" t="s">
         <v>522</v>
-      </c>
-      <c r="R77" s="3" t="s">
-        <v>523</v>
       </c>
       <c r="S77" s="3" t="s">
         <v>17</v>
@@ -6937,64 +7538,64 @@
       <c r="T77" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U77" s="3" t="s">
+      <c r="U77" s="18" t="s">
         <v>225</v>
       </c>
       <c r="V77" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="E78" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="D78" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>526</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="H78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>527</v>
       </c>
-      <c r="H78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J78" s="3" t="s">
+      <c r="K78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O78" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="K78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L78" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M78" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="P78" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="P78" s="3" t="s">
+      <c r="Q78" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="Q78" s="3" t="s">
+      <c r="R78" s="3" t="s">
         <v>531</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="S78" s="3" t="s">
         <v>17</v>
@@ -7002,117 +7603,117 @@
       <c r="T78" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U78" s="3" t="s">
+      <c r="U78" s="18" t="s">
         <v>124</v>
       </c>
       <c r="V78" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="79" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="P79" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="D79" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J79" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L79" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M79" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="P79" s="3" t="s">
+      <c r="Q79" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="Q79" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="T79" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U79" s="3" t="s">
+      <c r="U79" s="18" t="s">
         <v>100</v>
       </c>
       <c r="X79" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="80" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C80" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="E80" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="H80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J80" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="H80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J80" s="3" t="s">
+      <c r="K80" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O80" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="K80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M80" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N80" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O80" s="3" t="s">
+      <c r="P80" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="Q80" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="R80" s="3" t="s">
         <v>546</v>
-      </c>
-      <c r="Q80" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="R80" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="S80" s="3" t="s">
         <v>17</v>
@@ -7120,22 +7721,22 @@
       <c r="T80" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="U80" s="3" t="s">
+      <c r="U80" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V80" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="81" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C81" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>236</v>
@@ -7161,58 +7762,58 @@
       <c r="T81" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U81" s="3" t="s">
+      <c r="U81" s="18" t="s">
         <v>195</v>
       </c>
       <c r="X81" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C82" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J82" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="F82" s="3" t="s">
+      <c r="K82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O82" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="H82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J82" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="K82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L82" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M82" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O82" s="3" t="s">
+      <c r="P82" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="P82" s="3" t="s">
+      <c r="R82" s="3" t="s">
         <v>555</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>556</v>
       </c>
       <c r="S82" s="3" t="s">
         <v>17</v>
@@ -7220,120 +7821,120 @@
       <c r="T82" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U82" s="3" t="s">
+      <c r="U82" s="18" t="s">
         <v>195</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C83" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D83" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="E83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="P83" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="N83" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>561</v>
-      </c>
-      <c r="P83" s="3" t="s">
+      <c r="Q83" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>560</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U83" s="3" t="s">
+      <c r="U83" s="18" t="s">
         <v>38</v>
       </c>
       <c r="X83" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="E84" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="H84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N84" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O84" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N84" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="O84" s="3" t="s">
+      <c r="P84" s="3" t="s">
         <v>568</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="Q84" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="Q84" s="3" t="s">
+      <c r="R84" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="R84" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="S84" s="3" t="s">
         <v>17</v>
@@ -7341,64 +7942,64 @@
       <c r="T84" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U84" s="3" t="s">
+      <c r="U84" s="18" t="s">
         <v>263</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C85" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>574</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="E85" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="H85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J85" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J85" s="3" t="s">
+      <c r="K85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N85" s="3" t="s">
         <v>577</v>
       </c>
-      <c r="K85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L85" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M85" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="N85" s="3" t="s">
+      <c r="O85" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="P85" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="P85" s="3" t="s">
+      <c r="Q85" s="3" t="s">
         <v>580</v>
       </c>
-      <c r="Q85" s="3" t="s">
+      <c r="R85" s="3" t="s">
         <v>581</v>
-      </c>
-      <c r="R85" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="S85" s="3" t="s">
         <v>17</v>
@@ -7406,64 +8007,64 @@
       <c r="T85" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U85" s="3" t="s">
+      <c r="U85" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V85" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="X85" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D86" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C86" s="3" t="s">
+      <c r="E86" s="3" t="s">
         <v>586</v>
       </c>
-      <c r="D86" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E86" s="3" t="s">
+      <c r="H86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O86" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O86" s="3" t="s">
+      <c r="P86" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="P86" s="3" t="s">
+      <c r="Q86" s="3" t="s">
         <v>589</v>
       </c>
-      <c r="Q86" s="3" t="s">
+      <c r="R86" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="R86" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="S86" s="3" t="s">
         <v>17</v>
@@ -7471,16 +8072,16 @@
       <c r="T86" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U86" s="3" t="s">
+      <c r="U86" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V86" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -7489,7 +8090,7 @@
         <v>236</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E87" s="3" t="s">
         <v>236</v>
@@ -7510,83 +8111,83 @@
         <v>15</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O87" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="Q87" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="U87" s="3" t="s">
+      <c r="U87" s="18" t="s">
         <v>124</v>
       </c>
       <c r="X87" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="3" t="s">
         <v>600</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D88" s="3" t="s">
+      <c r="E88" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="H88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O88" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="H88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I88" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J88" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L88" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="O88" s="3" t="s">
+      <c r="Q88" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="R88" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="R88" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="S88" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="U88" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="U88" s="18" t="s">
         <v>100</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>27</v>
@@ -7598,54 +8199,54 @@
         <v>236</v>
       </c>
       <c r="E89" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N89" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="Q89" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="R89" s="3" t="s">
         <v>614</v>
-      </c>
-      <c r="R89" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T89" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>612</v>
+        <v>647</v>
+      </c>
+      <c r="U89" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V89" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X89" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="90" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>28</v>
@@ -7654,57 +8255,57 @@
         <v>236</v>
       </c>
       <c r="D90" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="G90" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="G90" s="3" t="s">
+      <c r="H90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q90" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="H90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J90" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q90" s="3" t="s">
+      <c r="R90" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="S90" s="3" t="s">
         <v>17</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="U90" s="3" t="s">
-        <v>612</v>
+        <v>647</v>
+      </c>
+      <c r="U90" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V90" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X90" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>27</v>
@@ -7716,57 +8317,57 @@
         <v>236</v>
       </c>
       <c r="E91" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="G91" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="H91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="P91" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N91" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>84</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="S91" s="3" t="s">
-        <v>626</v>
+        <v>17</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>612</v>
+        <v>647</v>
+      </c>
+      <c r="U91" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V91" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X91" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>39</v>
@@ -7778,7 +8379,7 @@
         <v>236</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="H92" s="3" t="s">
         <v>15</v>
@@ -7796,33 +8397,33 @@
         <v>15</v>
       </c>
       <c r="N92" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q92" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="S92" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T92" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="U92" s="3" t="s">
-        <v>612</v>
+        <v>645</v>
+      </c>
+      <c r="U92" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V92" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X92" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="93" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>27</v>
@@ -7834,10 +8435,10 @@
         <v>236</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>15</v>
@@ -7855,33 +8456,33 @@
         <v>15</v>
       </c>
       <c r="N93" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q93" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="S93" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="U93" s="3" t="s">
-        <v>612</v>
+        <v>645</v>
+      </c>
+      <c r="U93" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V93" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X93" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>28</v>
@@ -7893,7 +8494,7 @@
         <v>236</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>15</v>
@@ -7911,87 +8512,2324 @@
         <v>15</v>
       </c>
       <c r="N94" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q94" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="S94" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>648</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>612</v>
+        <v>645</v>
+      </c>
+      <c r="U94" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V94" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X94" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q95" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C95" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E95" s="3" t="s">
+      <c r="R95" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="S95" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>643</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I95" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J95" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="K95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L95" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>644</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>645</v>
-      </c>
-      <c r="S95" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="T95" s="3" t="s">
-        <v>649</v>
-      </c>
-      <c r="U95" s="3" t="s">
-        <v>612</v>
+        <v>646</v>
+      </c>
+      <c r="U95" s="18" t="s">
+        <v>611</v>
       </c>
       <c r="V95" s="3" t="s">
         <v>122</v>
       </c>
       <c r="X95" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="96" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q96" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="R96" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T96" s="3" t="s">
         <v>646</v>
+      </c>
+      <c r="U96" s="18" t="s">
+        <v>611</v>
+      </c>
+      <c r="V96" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="X96" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O97" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="Q97" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="R97" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T97" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U97" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V97" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J98" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="Q98" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="R98" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="S98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T98" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="U98" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="V98" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J99" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N99" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T99" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U99" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V99" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="R100" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U100" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V100" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X100" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O101" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q101" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U101" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q102" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="R102" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U102" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="V102" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J103" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="O103" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q103" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="R103" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T103" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U103" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="V103" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="X103" s="5" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J104" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M104" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="U104" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O105" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="P105" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="R105" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="S105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U105" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V105" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J106" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="Q106" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="R106" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T106" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U106" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="V106" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="107" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J107" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M107" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O107" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="P107" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="R107" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U107" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="V107" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J108" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="Q108" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="T108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U108" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J109" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O109" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q109" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="T109" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U109" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J110" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="Q110" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="R110" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="S110" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T110" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U110" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="V110" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J111" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N111" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O111" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="Q111" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="R111" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="S111" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T111" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U111" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="V111" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="112" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J112" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q112" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="T112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U112" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="113" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J113" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O113" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="Q113" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="T113" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U113" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J114" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="Q114" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="T114" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U114" s="18" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J115" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M115" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O115" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="P115" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="T115" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U115" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J116" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="P116" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T116" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U116" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V116" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J117" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O117" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="P117" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="R117" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T117" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U117" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="V117" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="E118" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O118" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="Q118" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="T118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U118" s="18" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J119" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q119" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="R119" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="S119" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T119" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U119" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="120" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q120" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="R120" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="S120" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T120" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U120" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="121" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J121" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q121" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R121" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="S121" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T121" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U121" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="122" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J122" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N122" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q122" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="R122" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="S122" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T122" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U122" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="123" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J123" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q123" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="R123" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="S123" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T123" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U123" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="124" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J124" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="Q124" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="R124" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="S124" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="T124" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="U124" s="3" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="125" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="D125" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J125" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M125" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O125" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="P125" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="T125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U125" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="126" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J126" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O126" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="P126" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="R126" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="S126" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T126" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U126" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V126" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="127" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J127" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N127" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q127" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="R127" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="S127" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T127" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U127" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V127" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="X127" s="5" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="128" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J128" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O128" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="P128" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="R128" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="S128" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T128" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U128" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V128" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="129" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J129" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O129" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="Q129" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="T129" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U129" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J130" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O130" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="Q130" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="T130" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U130" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J131" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N131" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O131" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="Q131" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="T131" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U131" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J132" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O132" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="P132" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="T132" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U132" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J133" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M133" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O133" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="P133" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="T133" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U133" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="134" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D134" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O134" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="P134" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="R134" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="S134" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T134" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U134" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V134" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="X134" s="5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="135" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D135" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N135" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="O135" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="Q135" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="T135" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U135" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="X135" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="136" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="O136" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="Q136" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="T136" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U136" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X136" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="137" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J137" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="O137" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="Q137" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="T137" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U137" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X137" s="5" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="138" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J138" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="O138" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="Q138" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="T138" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="U138" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="X138" s="5" t="s">
+        <v>828</v>
       </c>
     </row>
   </sheetData>
@@ -8005,10 +10843,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F95"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8029,16 +10868,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8063,7 +10902,7 @@
         <v>14</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -8077,7 +10916,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -8091,7 +10930,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -8105,7 +10944,7 @@
         <v>39</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -8230,9 +11069,6 @@
       <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="10">
-        <v>1</v>
-      </c>
       <c r="E15" s="10">
         <v>1</v>
       </c>
@@ -8346,7 +11182,7 @@
         <v>14</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E23" s="10">
         <v>1</v>
@@ -8360,7 +11196,7 @@
         <v>27</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E24" s="10">
         <v>1</v>
@@ -8519,7 +11355,7 @@
     </row>
     <row r="36" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>14</v>
@@ -8533,7 +11369,7 @@
     </row>
     <row r="37" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>27</v>
@@ -8547,7 +11383,7 @@
     </row>
     <row r="38" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>28</v>
@@ -8561,7 +11397,7 @@
     </row>
     <row r="39" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>14</v>
@@ -8575,7 +11411,7 @@
     </row>
     <row r="40" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>27</v>
@@ -8589,7 +11425,7 @@
     </row>
     <row r="41" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>14</v>
@@ -8603,7 +11439,7 @@
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>27</v>
@@ -8617,7 +11453,7 @@
     </row>
     <row r="43" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>14</v>
@@ -8628,7 +11464,7 @@
     </row>
     <row r="44" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>27</v>
@@ -8639,7 +11475,7 @@
     </row>
     <row r="45" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>28</v>
@@ -8650,7 +11486,7 @@
     </row>
     <row r="46" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>39</v>
@@ -8661,10 +11497,10 @@
     </row>
     <row r="47" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>365</v>
       </c>
       <c r="E47" s="10">
         <v>1</v>
@@ -8672,7 +11508,7 @@
     </row>
     <row r="48" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>258</v>
@@ -8683,7 +11519,7 @@
     </row>
     <row r="49" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>91</v>
@@ -8694,7 +11530,7 @@
     </row>
     <row r="50" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>27</v>
@@ -8708,7 +11544,7 @@
     </row>
     <row r="51" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>28</v>
@@ -8719,7 +11555,7 @@
     </row>
     <row r="52" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>39</v>
@@ -8730,7 +11566,7 @@
     </row>
     <row r="53" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>14</v>
@@ -8744,7 +11580,7 @@
     </row>
     <row r="54" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>27</v>
@@ -8755,7 +11591,7 @@
     </row>
     <row r="55" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>14</v>
@@ -8769,7 +11605,7 @@
     </row>
     <row r="56" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>27</v>
@@ -8780,7 +11616,7 @@
     </row>
     <row r="57" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>28</v>
@@ -8791,7 +11627,7 @@
     </row>
     <row r="58" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>14</v>
@@ -8805,7 +11641,7 @@
     </row>
     <row r="59" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>27</v>
@@ -8816,7 +11652,7 @@
     </row>
     <row r="60" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>28</v>
@@ -8827,7 +11663,7 @@
     </row>
     <row r="61" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>14</v>
@@ -8841,7 +11677,7 @@
     </row>
     <row r="62" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>27</v>
@@ -8852,7 +11688,7 @@
     </row>
     <row r="63" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>28</v>
@@ -8863,7 +11699,7 @@
     </row>
     <row r="64" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>39</v>
@@ -8874,7 +11710,7 @@
     </row>
     <row r="65" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>14</v>
@@ -8885,7 +11721,7 @@
     </row>
     <row r="66" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>27</v>
@@ -8896,7 +11732,7 @@
     </row>
     <row r="67" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>28</v>
@@ -8910,7 +11746,7 @@
     </row>
     <row r="68" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>39</v>
@@ -8921,7 +11757,7 @@
     </row>
     <row r="69" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>258</v>
@@ -8932,7 +11768,7 @@
     </row>
     <row r="70" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>91</v>
@@ -8943,7 +11779,7 @@
     </row>
     <row r="71" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>14</v>
@@ -8954,7 +11790,7 @@
     </row>
     <row r="72" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>27</v>
@@ -8965,7 +11801,7 @@
     </row>
     <row r="73" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>28</v>
@@ -8976,7 +11812,7 @@
     </row>
     <row r="74" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>39</v>
@@ -8987,21 +11823,21 @@
     </row>
     <row r="75" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>14</v>
@@ -9012,7 +11848,7 @@
     </row>
     <row r="77" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>27</v>
@@ -9026,7 +11862,7 @@
     </row>
     <row r="78" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>28</v>
@@ -9040,7 +11876,7 @@
     </row>
     <row r="79" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>14</v>
@@ -9051,7 +11887,7 @@
     </row>
     <row r="80" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>27</v>
@@ -9065,7 +11901,7 @@
     </row>
     <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>14</v>
@@ -9076,7 +11912,7 @@
     </row>
     <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>27</v>
@@ -9090,7 +11926,7 @@
     </row>
     <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>28</v>
@@ -9101,7 +11937,7 @@
     </row>
     <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>14</v>
@@ -9115,7 +11951,7 @@
     </row>
     <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>27</v>
@@ -9129,7 +11965,7 @@
     </row>
     <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>14</v>
@@ -9143,7 +11979,7 @@
     </row>
     <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>27</v>
@@ -9154,7 +11990,7 @@
     </row>
     <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>14</v>
@@ -9168,7 +12004,7 @@
     </row>
     <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>27</v>
@@ -9179,7 +12015,7 @@
     </row>
     <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B90" s="3" t="s">
         <v>28</v>
@@ -9190,18 +12026,18 @@
     </row>
     <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B91" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="10">
-        <v>1</v>
+      <c r="F91" s="10" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>39</v>
@@ -9212,7 +12048,7 @@
     </row>
     <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>27</v>
@@ -9223,7 +12059,7 @@
     </row>
     <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>28</v>
@@ -9234,12 +12070,533 @@
     </row>
     <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F95" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C97" s="10">
+        <v>1</v>
+      </c>
+      <c r="E97" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98" s="10">
+        <v>1</v>
+      </c>
+      <c r="E98" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C99" s="10">
+        <v>1</v>
+      </c>
+      <c r="E99" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100" s="10">
+        <v>1</v>
+      </c>
+      <c r="E100" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102" s="10">
+        <v>1</v>
+      </c>
+      <c r="E102" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="10">
+        <v>1</v>
+      </c>
+      <c r="E103" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105" s="10">
+        <v>1</v>
+      </c>
+      <c r="E105" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C106" s="10">
+        <v>1</v>
+      </c>
+      <c r="E106" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C107" s="10">
+        <v>1</v>
+      </c>
+      <c r="E107" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E108" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" s="10">
+        <v>1</v>
+      </c>
+      <c r="E110" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111" s="10">
+        <v>1</v>
+      </c>
+      <c r="E111" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E113" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E114" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E115" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C116" s="10">
+        <v>1</v>
+      </c>
+      <c r="E116" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="10">
+        <v>1</v>
+      </c>
+      <c r="E117" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E118" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F121" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F124" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E125" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C126" s="10">
+        <v>1</v>
+      </c>
+      <c r="E126" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="10">
+        <v>1</v>
+      </c>
+      <c r="E127" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="10">
+        <v>1</v>
+      </c>
+      <c r="E128" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E129" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E130" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E131" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E132" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E133" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C134" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E135" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E137" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E138" s="10">
         <v>1</v>
       </c>
     </row>
@@ -9282,136 +12639,136 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2" s="14">
         <v>2</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>419</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B4" s="14">
         <v>3</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>451</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>462</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B6" s="14">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>494</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>495</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>592</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="14" t="s">
+        <v>594</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>595</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>596</v>
       </c>
     </row>
   </sheetData>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13320" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3059" uniqueCount="915">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -2624,6 +2624,237 @@
   </si>
   <si>
     <t>2016_10_24_0010</t>
+  </si>
+  <si>
+    <t>?_recurrent</t>
+  </si>
+  <si>
+    <t>14:17</t>
+  </si>
+  <si>
+    <t>?_Rs</t>
+  </si>
+  <si>
+    <t>CH_161016_C</t>
+  </si>
+  <si>
+    <t>2016_11_07_0000</t>
+  </si>
+  <si>
+    <t>-27, 52</t>
+  </si>
+  <si>
+    <t>-74, 350</t>
+  </si>
+  <si>
+    <t>CH_161016_D</t>
+  </si>
+  <si>
+    <t>2016_11_03_0000</t>
+  </si>
+  <si>
+    <t>2016_11_03_0003</t>
+  </si>
+  <si>
+    <t>-60, 36</t>
+  </si>
+  <si>
+    <t>8, 33</t>
+  </si>
+  <si>
+    <t>-53, 253</t>
+  </si>
+  <si>
+    <t>111, -340</t>
+  </si>
+  <si>
+    <t>10, ND=0.7+0.4</t>
+  </si>
+  <si>
+    <t>CH_161022_A</t>
+  </si>
+  <si>
+    <t>2016_11_08_0000</t>
+  </si>
+  <si>
+    <t>142, -14</t>
+  </si>
+  <si>
+    <t>174, 2</t>
+  </si>
+  <si>
+    <t>227, 182</t>
+  </si>
+  <si>
+    <t>-39, -335</t>
+  </si>
+  <si>
+    <t>CH_161022_B</t>
+  </si>
+  <si>
+    <t>2016_11_15_0001</t>
+  </si>
+  <si>
+    <t>-14, 24</t>
+  </si>
+  <si>
+    <t>44, 259</t>
+  </si>
+  <si>
+    <t>2016_11_15_0006</t>
+  </si>
+  <si>
+    <t>2016_11_15_0003</t>
+  </si>
+  <si>
+    <t>2016_11_15_0007_analysis</t>
+  </si>
+  <si>
+    <t>NPYRS_L23</t>
+  </si>
+  <si>
+    <t>-88, -363</t>
+  </si>
+  <si>
+    <t>2016_11_10_0000</t>
+  </si>
+  <si>
+    <t>2016_11_10_0001</t>
+  </si>
+  <si>
+    <t>CH_161022_C</t>
+  </si>
+  <si>
+    <t>2016_11_10_0008</t>
+  </si>
+  <si>
+    <t>2016_11_10_0002</t>
+  </si>
+  <si>
+    <t>-14, -29</t>
+  </si>
+  <si>
+    <t>52, -42</t>
+  </si>
+  <si>
+    <t>-35, 196</t>
+  </si>
+  <si>
+    <t>41, -352</t>
+  </si>
+  <si>
+    <t>CH_161022_D</t>
+  </si>
+  <si>
+    <t>2016_11_14_0000</t>
+  </si>
+  <si>
+    <t>2016_11_14_0007</t>
+  </si>
+  <si>
+    <t>22:end</t>
+  </si>
+  <si>
+    <t>-10, 16</t>
+  </si>
+  <si>
+    <t>45, 235</t>
+  </si>
+  <si>
+    <t>-106, -325</t>
+  </si>
+  <si>
+    <t>WCSTP protocol has 40uM APV</t>
+  </si>
+  <si>
+    <t>2016_11_14_0014</t>
+  </si>
+  <si>
+    <t>2016_11_14_0016</t>
+  </si>
+  <si>
+    <t>3, -35</t>
+  </si>
+  <si>
+    <t>-107, 224</t>
+  </si>
+  <si>
+    <t>78, -385</t>
+  </si>
+  <si>
+    <t>Vclamp WCSTP is a little unstable, and light power may be too small</t>
+  </si>
+  <si>
+    <t>2016_11_18_0000</t>
+  </si>
+  <si>
+    <t>CH_161026_A</t>
+  </si>
+  <si>
+    <t>-25, -36</t>
+  </si>
+  <si>
+    <t>-41, 286</t>
+  </si>
+  <si>
+    <t>2016_11_18_0002</t>
+  </si>
+  <si>
+    <t>2016_11_18_0003</t>
+  </si>
+  <si>
+    <t>23:end</t>
+  </si>
+  <si>
+    <t>2016_11_18_0004</t>
+  </si>
+  <si>
+    <t>-30, 0</t>
+  </si>
+  <si>
+    <t>-43, 240</t>
+  </si>
+  <si>
+    <t>-15, -360</t>
+  </si>
+  <si>
+    <t>2016_11_18_0005</t>
+  </si>
+  <si>
+    <t>2016_11_18_0006</t>
+  </si>
+  <si>
+    <t>-12, -5</t>
+  </si>
+  <si>
+    <t>-4, 270</t>
+  </si>
+  <si>
+    <t>-26, -315</t>
+  </si>
+  <si>
+    <t>CH_161026_B</t>
+  </si>
+  <si>
+    <t>2016_11_16_0000</t>
+  </si>
+  <si>
+    <t>2016_11_16_0002</t>
+  </si>
+  <si>
+    <t>2016_11_16_0003</t>
+  </si>
+  <si>
+    <t>7, -4</t>
+  </si>
+  <si>
+    <t>10, -1</t>
+  </si>
+  <si>
+    <t>-45, 205</t>
+  </si>
+  <si>
+    <t>104, -277</t>
   </si>
 </sst>
 </file>
@@ -3070,11 +3301,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X138"/>
+  <dimension ref="A1:X150"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A134" sqref="A134:XFD134"/>
+    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A150" sqref="A150:B150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5188,7 +5419,7 @@
         <v>14</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>273</v>
@@ -5197,7 +5428,7 @@
         <v>14</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>296</v>
@@ -5498,7 +5729,7 @@
         <v>323</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>14</v>
@@ -5507,7 +5738,7 @@
         <v>324</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L39" s="3" t="s">
         <v>14</v>
@@ -6080,8 +6311,11 @@
       <c r="E50" s="6" t="s">
         <v>391</v>
       </c>
+      <c r="F50" s="3" t="s">
+        <v>839</v>
+      </c>
       <c r="H50" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>14</v>
@@ -10830,24 +11064,705 @@
       </c>
       <c r="X138" s="5" t="s">
         <v>828</v>
+      </c>
+    </row>
+    <row r="139" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J139" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O139" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="P139" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="T139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U139" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="140" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J140" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N140" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O140" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="P140" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="Q140" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="R140" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="S140" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U140" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V140" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="141" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J141" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O141" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="P141" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="Q141" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="R141" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="S141" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U141" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="142" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J142" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N142" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O142" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q142" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="T142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U142" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J143" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N143" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="O143" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="Q143" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="R143" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="S143" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U143" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V143" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="144" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J144" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M144" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O144" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="P144" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="Q144" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="R144" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="S144" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U144" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="V144" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="145" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J145" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M145" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O145" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="P145" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="R145" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="S145" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U145" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V145" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="X145" s="5" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J146" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O146" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="P146" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="R146" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="S146" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U146" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="V146" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="X146" s="5" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="147" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J147" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O147" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="Q147" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="T147" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U147" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="D148" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J148" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O148" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="P148" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="R148" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="S148" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U148" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="V148" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="149" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="D149" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J149" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O149" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="P149" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="R149" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="S149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T149" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U149" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V149" s="3" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="150" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M150" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="O150" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="P150" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="Q150" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="R150" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="S150" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="V150" s="3" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q5 Q95" twoDigitTextYear="1"/>
+    <ignoredError sqref="Q5 Q95 Q140" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E139" sqref="E139"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E150" sqref="E150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10957,8 +11872,8 @@
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="10">
-        <v>1</v>
+      <c r="C7" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -11041,8 +11956,8 @@
       <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="10">
-        <v>1</v>
+      <c r="C13" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -11276,8 +12191,8 @@
       <c r="B30" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="10">
-        <v>1</v>
+      <c r="C30" s="10" t="s">
+        <v>838</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -11318,8 +12233,8 @@
       <c r="B33" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="10">
-        <v>1</v>
+      <c r="C33" s="10" t="s">
+        <v>838</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -11416,8 +12331,8 @@
       <c r="B40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="10">
-        <v>1</v>
+      <c r="C40" s="10" t="s">
+        <v>840</v>
       </c>
       <c r="E40" s="10">
         <v>1</v>
@@ -12552,8 +13467,8 @@
       <c r="B134" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C134" s="10">
-        <v>1</v>
+      <c r="C134" s="10" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12597,6 +13512,159 @@
         <v>28</v>
       </c>
       <c r="E138" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E139" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" s="10">
+        <v>1</v>
+      </c>
+      <c r="E140" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C143" s="10">
+        <v>1</v>
+      </c>
+      <c r="E143" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C144" s="10">
+        <v>1</v>
+      </c>
+      <c r="E144" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" s="10">
+        <v>1</v>
+      </c>
+      <c r="E146" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E147" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C148" s="10">
+        <v>1</v>
+      </c>
+      <c r="E148" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C149" s="10">
+        <v>1</v>
+      </c>
+      <c r="E149" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="10">
+        <v>1</v>
+      </c>
+      <c r="E150" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="10155"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="4935"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3052" uniqueCount="908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3642" uniqueCount="1054">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -2835,6 +2835,444 @@
   </si>
   <si>
     <t>?medinject</t>
+  </si>
+  <si>
+    <t>CH_161112_A</t>
+  </si>
+  <si>
+    <t>2016_12_09_0000</t>
+  </si>
+  <si>
+    <t>2016_12_09_0003</t>
+  </si>
+  <si>
+    <t>2016_12_09_0004</t>
+  </si>
+  <si>
+    <t>19,24:33</t>
+  </si>
+  <si>
+    <t>-50, 197</t>
+  </si>
+  <si>
+    <t>-36, -30</t>
+  </si>
+  <si>
+    <t>-6, -353</t>
+  </si>
+  <si>
+    <t>CH_161112_B</t>
+  </si>
+  <si>
+    <t>2016_12_08_0000</t>
+  </si>
+  <si>
+    <t>2016_12_08_0001</t>
+  </si>
+  <si>
+    <t>-28, -20</t>
+  </si>
+  <si>
+    <t>16, 280</t>
+  </si>
+  <si>
+    <t>2016_12_08_0002</t>
+  </si>
+  <si>
+    <t>2016_12_08_0004</t>
+  </si>
+  <si>
+    <t>-52, -353</t>
+  </si>
+  <si>
+    <t>26:28</t>
+  </si>
+  <si>
+    <t>2016_12_08_0005</t>
+  </si>
+  <si>
+    <t>2016_12_08_0006</t>
+  </si>
+  <si>
+    <t>-60, 3</t>
+  </si>
+  <si>
+    <t>-55, 266</t>
+  </si>
+  <si>
+    <t>2016_12_08_0007</t>
+  </si>
+  <si>
+    <t>2016_12_08_0008</t>
+  </si>
+  <si>
+    <t>2016_12_08_0009</t>
+  </si>
+  <si>
+    <t>-3, 40</t>
+  </si>
+  <si>
+    <t>60, -334</t>
+  </si>
+  <si>
+    <t>CH_161112_C</t>
+  </si>
+  <si>
+    <t>2016_12_07_0000</t>
+  </si>
+  <si>
+    <t>2016_12_07_0001</t>
+  </si>
+  <si>
+    <t>82, 298</t>
+  </si>
+  <si>
+    <t>38, 36</t>
+  </si>
+  <si>
+    <t>85, 20</t>
+  </si>
+  <si>
+    <t>-13, -340</t>
+  </si>
+  <si>
+    <t>CH_161112_D</t>
+  </si>
+  <si>
+    <t>2016_12_05_0000</t>
+  </si>
+  <si>
+    <t>2016_12_05_0001</t>
+  </si>
+  <si>
+    <t>2016_12_05_0003</t>
+  </si>
+  <si>
+    <t>149, 187</t>
+  </si>
+  <si>
+    <t>49, 12</t>
+  </si>
+  <si>
+    <t>47, -69</t>
+  </si>
+  <si>
+    <t>69, -410</t>
+  </si>
+  <si>
+    <t>2016_12_05_0007</t>
+  </si>
+  <si>
+    <t>2016_12_05_0008</t>
+  </si>
+  <si>
+    <t>2016_12_05_0010</t>
+  </si>
+  <si>
+    <t>63, 192</t>
+  </si>
+  <si>
+    <t>24, -16</t>
+  </si>
+  <si>
+    <t>53, -54</t>
+  </si>
+  <si>
+    <t>-45, -325</t>
+  </si>
+  <si>
+    <t>CH_161228_B</t>
+  </si>
+  <si>
+    <t>2017_01_27_0001</t>
+  </si>
+  <si>
+    <t>2017_01_27_0004</t>
+  </si>
+  <si>
+    <t>-86, 18</t>
+  </si>
+  <si>
+    <t>-189, 294</t>
+  </si>
+  <si>
+    <t>130, -245</t>
+  </si>
+  <si>
+    <t>CH_170112_A</t>
+  </si>
+  <si>
+    <t>2017_01_31_0000</t>
+  </si>
+  <si>
+    <t>2017_01_31_0001</t>
+  </si>
+  <si>
+    <t>131, 218</t>
+  </si>
+  <si>
+    <t>-66, -14</t>
+  </si>
+  <si>
+    <t>28, 15</t>
+  </si>
+  <si>
+    <t>2017_01_31_0003</t>
+  </si>
+  <si>
+    <t>2017_01_31_0004</t>
+  </si>
+  <si>
+    <t>2017_01_31_0005</t>
+  </si>
+  <si>
+    <t>-166, -21</t>
+  </si>
+  <si>
+    <t>-246, 210</t>
+  </si>
+  <si>
+    <t>33, -360</t>
+  </si>
+  <si>
+    <t>10, ND=0</t>
+  </si>
+  <si>
+    <t>no ND filter</t>
+  </si>
+  <si>
+    <t>2017_01_30_0000</t>
+  </si>
+  <si>
+    <t>2017_01_30_0001</t>
+  </si>
+  <si>
+    <t>CH_170112_B</t>
+  </si>
+  <si>
+    <t>-78, 270</t>
+  </si>
+  <si>
+    <t>-8, -13</t>
+  </si>
+  <si>
+    <t>-6, 38</t>
+  </si>
+  <si>
+    <t>2017_01_30_0006</t>
+  </si>
+  <si>
+    <t>-118, 270</t>
+  </si>
+  <si>
+    <t>-40, -4</t>
+  </si>
+  <si>
+    <t>CH_170112_C</t>
+  </si>
+  <si>
+    <t>2017_02_01_0000</t>
+  </si>
+  <si>
+    <t>-70, 46</t>
+  </si>
+  <si>
+    <t>37, 378</t>
+  </si>
+  <si>
+    <t>2017_02_01_0001</t>
+  </si>
+  <si>
+    <t>2017_02_01_0004</t>
+  </si>
+  <si>
+    <t>2017_02_01_0006</t>
+  </si>
+  <si>
+    <t>11,21,26</t>
+  </si>
+  <si>
+    <t>106, 252</t>
+  </si>
+  <si>
+    <t>0, -6</t>
+  </si>
+  <si>
+    <t>-160, -340</t>
+  </si>
+  <si>
+    <t>P/LM</t>
+  </si>
+  <si>
+    <t>most posterior slice, possible P.</t>
+  </si>
+  <si>
+    <t>CH_170112_D</t>
+  </si>
+  <si>
+    <t>2017_02_07_0000</t>
+  </si>
+  <si>
+    <t>-7, 192</t>
+  </si>
+  <si>
+    <t>-20, -22</t>
+  </si>
+  <si>
+    <t>2017_02_07_0003</t>
+  </si>
+  <si>
+    <t>2017_02_07_0004</t>
+  </si>
+  <si>
+    <t>2017_02_07_0007</t>
+  </si>
+  <si>
+    <t>88, 282</t>
+  </si>
+  <si>
+    <t>-15, 90</t>
+  </si>
+  <si>
+    <t>18, -3</t>
+  </si>
+  <si>
+    <t>-114, -229</t>
+  </si>
+  <si>
+    <t>2017_02_07_0008</t>
+  </si>
+  <si>
+    <t>64, 230</t>
+  </si>
+  <si>
+    <t>-13, 3</t>
+  </si>
+  <si>
+    <t>-73, -321</t>
+  </si>
+  <si>
+    <t>very poor holding current situation.</t>
+  </si>
+  <si>
+    <t>2017_02_07_0009</t>
+  </si>
+  <si>
+    <t>2017_02_07_0010</t>
+  </si>
+  <si>
+    <t>14:20</t>
+  </si>
+  <si>
+    <t>CH_170120_A</t>
+  </si>
+  <si>
+    <t>2017_02_13_0000</t>
+  </si>
+  <si>
+    <t>-55, 60</t>
+  </si>
+  <si>
+    <t>-4, 315</t>
+  </si>
+  <si>
+    <t>2017_02_13_0004</t>
+  </si>
+  <si>
+    <t>2017_02_13_0011</t>
+  </si>
+  <si>
+    <t>-4, 236</t>
+  </si>
+  <si>
+    <t>10, -9</t>
+  </si>
+  <si>
+    <t>53, 30</t>
+  </si>
+  <si>
+    <t>CH_170120_B</t>
+  </si>
+  <si>
+    <t>2017_02_10_0002</t>
+  </si>
+  <si>
+    <t>2017_02_10_0016</t>
+  </si>
+  <si>
+    <t>2017_02_10_0017</t>
+  </si>
+  <si>
+    <t>108, 272</t>
+  </si>
+  <si>
+    <t>-19, 53</t>
+  </si>
+  <si>
+    <t>-40, 113</t>
+  </si>
+  <si>
+    <t>-43, 365</t>
+  </si>
+  <si>
+    <t>CH_170120_C</t>
+  </si>
+  <si>
+    <t>2017_02_14_0000</t>
+  </si>
+  <si>
+    <t>52, -51</t>
+  </si>
+  <si>
+    <t>-56, 278</t>
+  </si>
+  <si>
+    <t>2017_02_14_0002</t>
+  </si>
+  <si>
+    <t>2017_02_14_0004</t>
+  </si>
+  <si>
+    <t>-14, 14</t>
+  </si>
+  <si>
+    <t>-9, 68</t>
+  </si>
+  <si>
+    <t>CH_170120_D</t>
+  </si>
+  <si>
+    <t>2017_02_08_0007_corrected</t>
+  </si>
+  <si>
+    <t>SOMTOM_L4</t>
+  </si>
+  <si>
+    <t>89, 365</t>
+  </si>
+  <si>
+    <t>73, 99</t>
+  </si>
+  <si>
+    <t>62, -140</t>
+  </si>
+  <si>
+    <t>CH_170120_F</t>
+  </si>
+  <si>
+    <t>2017_02_16_0000</t>
+  </si>
+  <si>
+    <t>-6, 3</t>
+  </si>
+  <si>
+    <t>2017_02_16_0003</t>
+  </si>
+  <si>
+    <t>-24, -14</t>
+  </si>
+  <si>
+    <t>32, 232</t>
   </si>
 </sst>
 </file>
@@ -3337,11 +3775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X149"/>
+  <dimension ref="A1:X180"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U147" sqref="U147"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155:XFD155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11727,6 +12165,1652 @@
         <v>835</v>
       </c>
     </row>
+    <row r="150" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J150" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="T150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U150" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="151" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J151" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O151" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="Q151" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="R151" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="S151" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T151" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U151" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V151" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="152" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="D152" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J152" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M152" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O152" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="P152" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="Q152" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="T152" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U152" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J153" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M153" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O153" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="P153" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="R153" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="S153" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T153" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U153" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V153" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="154" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J154" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N154" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O154" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="P154" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="Q154" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="T154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U154" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="155" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J155" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N155" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O155" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="Q155" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="R155" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="S155" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T155" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U155" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V155" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="156" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J156" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M156" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O156" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="P156" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="Q156" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="R156" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="S156" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T156" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U156" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V156" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="157" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J157" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N157" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="O157" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="P157" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="Q157" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="R157" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="S157" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U157" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V157" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="158" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J158" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M158" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O158" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="P158" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="Q158" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="R158" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="S158" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T158" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U158" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V158" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="159" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="D159" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J159" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M159" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O159" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="P159" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="R159" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="S159" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T159" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U159" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V159" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="160" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J160" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M160" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="O160" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="P160" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="Q160" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="T160" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U160" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="161" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="D161" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J161" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O161" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="P161" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="R161" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="S161" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U161" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V161" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="X161" s="5" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="162" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J162" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N162" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O162" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="P162" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="Q162" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="T162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U162" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="163" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D163" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J163" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M163" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O163" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="P163" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="T163" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U163" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J164" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O164" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q164" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="T164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U164" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="165" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J165" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O165" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="Q165" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="T165" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U165" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="166" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D166" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J166" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N166" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O166" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="Q166" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="R166" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="S166" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T166" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U166" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="V166" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="X166" s="5" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="D167" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J167" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O167" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="P167" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U167" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="168" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D168" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J168" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O168" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P168" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="Q168" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R168" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="S168" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T168" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U168" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="V168" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="169" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D169" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J169" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O169" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q169" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R169" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="S169" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U169" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V169" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="X169" s="5" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="170" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J170" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O170" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="Q170" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="R170" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="S170" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T170" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U170" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="V170" s="3" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="171" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J171" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O171" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P171" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="T171" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U171" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="172" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D172" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J172" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="O172" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="P172" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="Q172" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T172" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U172" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="173" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D173" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J173" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O173" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P173" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="T173" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U173" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="174" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D174" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J174" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N174" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O174" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q174" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T174" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U174" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="175" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D175" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J175" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O175" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q175" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="T175" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U175" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="176" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D176" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J176" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O176" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="Q176" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="T176" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U176" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J177" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="N177" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="O177" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="P177" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="Q177" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="T177" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U177" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J178" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M178" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="O178" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="P178" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="Q178" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="T178" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U178" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J179" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="P179" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="T179" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U179" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J180" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="O180" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="P180" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="T180" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="U180" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -11738,11 +13822,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A138" sqref="A138:XFD138"/>
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D197" sqref="D197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13628,6 +15712,380 @@
         <v>1</v>
       </c>
       <c r="E149" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C151" s="10">
+        <v>1</v>
+      </c>
+      <c r="E151" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C153" s="10">
+        <v>1</v>
+      </c>
+      <c r="E153" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E154" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="10">
+        <v>1</v>
+      </c>
+      <c r="E155" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="10">
+        <v>1</v>
+      </c>
+      <c r="E156" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C157" s="10">
+        <v>1</v>
+      </c>
+      <c r="E157" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C158" s="10">
+        <v>1</v>
+      </c>
+      <c r="E158" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C159" s="10">
+        <v>1</v>
+      </c>
+      <c r="E159" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C161" s="10">
+        <v>1</v>
+      </c>
+      <c r="E161" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E162" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E163" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E165" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="10">
+        <v>1</v>
+      </c>
+      <c r="E166" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="10">
+        <v>1</v>
+      </c>
+      <c r="E168" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C170" s="10">
+        <v>1</v>
+      </c>
+      <c r="E170" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E172" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E174" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E175" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E179" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E180" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4226" uniqueCount="1231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1328">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -3725,9 +3725,6 @@
     <t>2017_05_10_0017</t>
   </si>
   <si>
-    <t>5:7,14,26</t>
-  </si>
-  <si>
     <t>-65, 285</t>
   </si>
   <si>
@@ -3804,6 +3801,300 @@
   </si>
   <si>
     <t>39,40</t>
+  </si>
+  <si>
+    <t>2017_05_12_0006</t>
+  </si>
+  <si>
+    <t>2017_05_12_0009</t>
+  </si>
+  <si>
+    <t>-138, -71</t>
+  </si>
+  <si>
+    <t>-104, -55</t>
+  </si>
+  <si>
+    <t>-202, 243</t>
+  </si>
+  <si>
+    <t>36, -354</t>
+  </si>
+  <si>
+    <t>-85</t>
+  </si>
+  <si>
+    <t>CH_170501_B</t>
+  </si>
+  <si>
+    <t>2017_05_18_0001</t>
+  </si>
+  <si>
+    <t>2017_05_18_0002</t>
+  </si>
+  <si>
+    <t>-53,0</t>
+  </si>
+  <si>
+    <t>-10, 291</t>
+  </si>
+  <si>
+    <t>2017_06_05_concat_1to2</t>
+  </si>
+  <si>
+    <t>CH_170508_B</t>
+  </si>
+  <si>
+    <t>36, 23</t>
+  </si>
+  <si>
+    <t>96, 27</t>
+  </si>
+  <si>
+    <t>100, 312</t>
+  </si>
+  <si>
+    <t>0, -329</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>2017_05_31_0002</t>
+  </si>
+  <si>
+    <t>25, -340</t>
+  </si>
+  <si>
+    <t>35, 58</t>
+  </si>
+  <si>
+    <t>85, 305</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>2017_05_31_0004</t>
+  </si>
+  <si>
+    <t>1,26</t>
+  </si>
+  <si>
+    <t>CH_170508_C</t>
+  </si>
+  <si>
+    <t>2017_05_31_0006</t>
+  </si>
+  <si>
+    <t>105, 260</t>
+  </si>
+  <si>
+    <t>74, -37</t>
+  </si>
+  <si>
+    <t>CH_170516_C</t>
+  </si>
+  <si>
+    <t>2017_06_07_0003</t>
+  </si>
+  <si>
+    <t>2017_06_07_0004</t>
+  </si>
+  <si>
+    <t>27:33</t>
+  </si>
+  <si>
+    <t>51, 220</t>
+  </si>
+  <si>
+    <t>-4, 10</t>
+  </si>
+  <si>
+    <t>-94, -298</t>
+  </si>
+  <si>
+    <t>2017_06_07_0006</t>
+  </si>
+  <si>
+    <t>2017_06_07_0007</t>
+  </si>
+  <si>
+    <t>6, -29</t>
+  </si>
+  <si>
+    <t>-64, 200</t>
+  </si>
+  <si>
+    <t>90, -254</t>
+  </si>
+  <si>
+    <t>CH_170523_A</t>
+  </si>
+  <si>
+    <t>1:17</t>
+  </si>
+  <si>
+    <t>2017_06_15_concat_3to4</t>
+  </si>
+  <si>
+    <t>2017_06_15_0002</t>
+  </si>
+  <si>
+    <t>2017_06_15_0006</t>
+  </si>
+  <si>
+    <t>15, -299</t>
+  </si>
+  <si>
+    <t>27, 291</t>
+  </si>
+  <si>
+    <t>-3, -28</t>
+  </si>
+  <si>
+    <t>33, 0</t>
+  </si>
+  <si>
+    <t>2017_06_27_0000</t>
+  </si>
+  <si>
+    <t>CH_170602_A</t>
+  </si>
+  <si>
+    <t>-25. 194</t>
+  </si>
+  <si>
+    <t>9, -11</t>
+  </si>
+  <si>
+    <t>2017_06_27_concat_3to8</t>
+  </si>
+  <si>
+    <t>CH_170602_B</t>
+  </si>
+  <si>
+    <t>2017_06_22_0003</t>
+  </si>
+  <si>
+    <t>2017_06_22_0004</t>
+  </si>
+  <si>
+    <t>18:25</t>
+  </si>
+  <si>
+    <t>-37, 205</t>
+  </si>
+  <si>
+    <t>-40, -23</t>
+  </si>
+  <si>
+    <t>11, -350</t>
+  </si>
+  <si>
+    <t>2017_06_22_0007</t>
+  </si>
+  <si>
+    <t>2017_06_22_0005</t>
+  </si>
+  <si>
+    <t>80, 295</t>
+  </si>
+  <si>
+    <t>34, 51</t>
+  </si>
+  <si>
+    <t>-66, -352</t>
+  </si>
+  <si>
+    <t>CH_170602_C</t>
+  </si>
+  <si>
+    <t>-14, -8</t>
+  </si>
+  <si>
+    <t>10, 215</t>
+  </si>
+  <si>
+    <t>-4, -293</t>
+  </si>
+  <si>
+    <t>-122, 310</t>
+  </si>
+  <si>
+    <t>-10, -7</t>
+  </si>
+  <si>
+    <t>91, -248</t>
+  </si>
+  <si>
+    <t>2017_06_28_0000</t>
+  </si>
+  <si>
+    <t>CH_170608_A</t>
+  </si>
+  <si>
+    <t>-7, 16</t>
+  </si>
+  <si>
+    <t>17, 9</t>
+  </si>
+  <si>
+    <t>-6, 290</t>
+  </si>
+  <si>
+    <t>-21, -366</t>
+  </si>
+  <si>
+    <t>2017_06_28_concat_5to15</t>
+  </si>
+  <si>
+    <t>2017_06_28_concat_16to18</t>
+  </si>
+  <si>
+    <t>CH_170608_C</t>
+  </si>
+  <si>
+    <t>2017_06_29_0000</t>
+  </si>
+  <si>
+    <t>2017_06_29_0001</t>
+  </si>
+  <si>
+    <t>93:107</t>
+  </si>
+  <si>
+    <t>2017_06_29_concat_2to12</t>
+  </si>
+  <si>
+    <t>-1, 364</t>
+  </si>
+  <si>
+    <t>2017_06_23_0000</t>
+  </si>
+  <si>
+    <t>2017_06_23_0001</t>
+  </si>
+  <si>
+    <t>2017_06_23_0005</t>
+  </si>
+  <si>
+    <t>2017_06_23_0006</t>
+  </si>
+  <si>
+    <t>2017_06_28_0002</t>
+  </si>
+  <si>
+    <t>?_broke_code</t>
+  </si>
+  <si>
+    <t>5:15,26</t>
+  </si>
+  <si>
+    <t>?_proximity</t>
+  </si>
+  <si>
+    <t>Zucker_Stim</t>
   </si>
 </sst>
 </file>
@@ -4306,26 +4597,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X207"/>
+  <dimension ref="A1:X226"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H215" sqref="H215"/>
+      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="3" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" style="3" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="8.85546875" style="3" customWidth="1"/>
     <col min="9" max="9" width="9" style="3" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="3" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="10" style="3" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10" style="3" customWidth="1"/>
     <col min="13" max="14" width="8.140625" style="3" customWidth="1"/>
     <col min="15" max="15" width="8" style="3" customWidth="1"/>
     <col min="16" max="16" width="7.85546875" style="3" customWidth="1"/>
@@ -4500,7 +4792,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>23</v>
@@ -5347,7 +5639,7 @@
         <v>14</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>284</v>
@@ -5867,7 +6159,7 @@
         <v>284</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O25" s="3" t="s">
         <v>192</v>
@@ -6035,7 +6327,7 @@
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="3" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>14</v>
@@ -6243,7 +6535,7 @@
         <v>286</v>
       </c>
       <c r="N31" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O31" s="3" t="s">
         <v>240</v>
@@ -6622,7 +6914,7 @@
         <v>14</v>
       </c>
       <c r="M37" s="3" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="N37" s="3" t="s">
         <v>284</v>
@@ -7317,10 +7609,10 @@
         <v>376</v>
       </c>
       <c r="F50" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="G50" s="3" t="s">
         <v>1229</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>1230</v>
       </c>
       <c r="H50" s="3" t="s">
         <v>14</v>
@@ -7338,7 +7630,7 @@
         <v>14</v>
       </c>
       <c r="M50" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N50" s="3" t="s">
         <v>284</v>
@@ -9102,7 +9394,7 @@
         <v>15</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>284</v>
@@ -15344,7 +15636,7 @@
         <v>284</v>
       </c>
       <c r="N198" s="3" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="O198" s="3" t="s">
         <v>1146</v>
@@ -15713,10 +16005,10 @@
         <v>1194</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I204" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J204" s="3" t="s">
         <v>225</v>
@@ -15777,17 +16069,14 @@
       <c r="E205" s="3" t="s">
         <v>1203</v>
       </c>
-      <c r="F205" s="3" t="s">
-        <v>1204</v>
-      </c>
       <c r="G205" s="3" t="s">
-        <v>1204</v>
+        <v>1325</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I205" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J205" s="3" t="s">
         <v>225</v>
@@ -15805,16 +16094,16 @@
         <v>284</v>
       </c>
       <c r="O205" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="P205" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="Q205" s="3" t="s">
         <v>1205</v>
       </c>
-      <c r="P205" s="3" t="s">
+      <c r="R205" s="3" t="s">
         <v>1207</v>
-      </c>
-      <c r="Q205" s="3" t="s">
-        <v>1206</v>
-      </c>
-      <c r="R205" s="3" t="s">
-        <v>1208</v>
       </c>
       <c r="S205" s="3" t="s">
         <v>17</v>
@@ -15834,25 +16123,25 @@
     </row>
     <row r="206" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>1210</v>
       </c>
-      <c r="B206" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C206" s="3" t="s">
+      <c r="D206" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E206" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="D206" s="3" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>1212</v>
-      </c>
       <c r="H206" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I206" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J206" s="3" t="s">
         <v>225</v>
@@ -15870,16 +16159,16 @@
         <v>1140</v>
       </c>
       <c r="O206" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="P206" s="3" t="s">
         <v>1213</v>
       </c>
-      <c r="P206" s="3" t="s">
+      <c r="Q206" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="Q206" s="3" t="s">
+      <c r="R206" s="3" t="s">
         <v>1215</v>
-      </c>
-      <c r="R206" s="3" t="s">
-        <v>1216</v>
       </c>
       <c r="S206" s="3" t="s">
         <v>17</v>
@@ -15899,31 +16188,31 @@
     </row>
     <row r="207" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D207" s="3" t="s">
         <v>1218</v>
       </c>
-      <c r="B207" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C207" s="3" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D207" s="3" t="s">
+      <c r="E207" s="3" t="s">
         <v>1219</v>
       </c>
-      <c r="E207" s="3" t="s">
+      <c r="F207" s="3" t="s">
         <v>1220</v>
       </c>
-      <c r="F207" s="3" t="s">
-        <v>1221</v>
-      </c>
       <c r="G207" s="3" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I207" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J207" s="3" t="s">
         <v>225</v>
@@ -15941,16 +16230,16 @@
         <v>284</v>
       </c>
       <c r="O207" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="P207" s="3" t="s">
         <v>1222</v>
       </c>
-      <c r="P207" s="3" t="s">
+      <c r="Q207" s="3" t="s">
         <v>1223</v>
       </c>
-      <c r="Q207" s="3" t="s">
+      <c r="R207" s="3" t="s">
         <v>1224</v>
-      </c>
-      <c r="R207" s="3" t="s">
-        <v>1225</v>
       </c>
       <c r="S207" s="3" t="s">
         <v>17</v>
@@ -15966,6 +16255,1112 @@
       </c>
       <c r="W207" s="3" t="s">
         <v>1184</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J208" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N208" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O208" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="P208" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="Q208" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="R208" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S208" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T208" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U208" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V208" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W208" s="3" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J209" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N209" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O209" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="P209" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="Q209" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S209" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T209" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U209" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J210" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N210" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O210" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="P210" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="Q210" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="R210" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="S210" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T210" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U210" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V210" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W210" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J211" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M211" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O211" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="P211" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="Q211" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R211" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="S211" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T211" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U211" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V211" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W211" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J212" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O212" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="Q212" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="R212" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="S212" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T212" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U212" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V212" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W212" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J213" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O213" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="Q213" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="S213" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T213" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U213" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J214" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M214" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O214" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="P214" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="R214" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="S214" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T214" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U214" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V214" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="D215" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E215" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J215" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M215" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O215" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="P215" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="R215" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="S215" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T215" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U215" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V215" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E216" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J216" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M216" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O216" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="P216" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="Q216" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="R216" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="S216" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T216" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U216" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V216" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W216" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="217" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="E217" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J217" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O217" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="Q217" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="S217" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T217" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U217" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="218" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D218" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J218" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M218" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="S218" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T218" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U218" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="219" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="D219" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J219" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M219" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O219" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="P219" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="R219" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="S219" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U219" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V219" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="220" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D220" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J220" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N220" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O220" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="Q220" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="R220" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="S220" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T220" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U220" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V220" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="221" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D221" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J221" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O221" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="P221" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="R221" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="S221" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T221" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U221" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V221" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="222" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J222" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O222" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="Q222" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="R222" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="S222" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U222" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V222" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="223" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D223" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J223" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M223" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O223" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P223" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="Q223" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="R223" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="S223" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T223" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U223" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V223" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="224" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D224" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J224" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M224" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O224" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="P224" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="R224" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="S224" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T224" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U224" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V224" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="225" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D225" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J225" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="S225" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T225" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="V225" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="226" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J226" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M226" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O226" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="P226" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="Q226" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="S226" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T226" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U226" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V226" s="3" t="s">
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
@@ -15979,11 +17374,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L209" sqref="L209"/>
+      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -15995,10 +17390,11 @@
     <col min="5" max="5" width="26.85546875" style="10" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="7" width="19.5703125" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="10"/>
+    <col min="8" max="8" width="23.85546875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -16020,8 +17416,11 @@
       <c r="G1" s="9" t="s">
         <v>1185</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -16035,7 +17434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -16049,7 +17448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -16063,7 +17462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -16077,7 +17476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -16091,7 +17490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -16105,7 +17504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -16119,7 +17518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -16130,7 +17529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -16141,7 +17540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -16155,7 +17554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -16169,7 +17568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
@@ -16183,7 +17582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -16197,7 +17596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -16208,7 +17607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -16350,9 +17749,6 @@
       <c r="E25" s="10">
         <v>1</v>
       </c>
-      <c r="G25" s="10">
-        <v>1</v>
-      </c>
     </row>
     <row r="26" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
@@ -17046,7 +18442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>532</v>
       </c>
@@ -17057,7 +18453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>532</v>
       </c>
@@ -17071,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>532</v>
       </c>
@@ -17082,7 +18478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>547</v>
       </c>
@@ -17096,7 +18492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>547</v>
       </c>
@@ -17110,7 +18506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>567</v>
       </c>
@@ -17123,11 +18519,8 @@
       <c r="E86" s="10">
         <v>1</v>
       </c>
-      <c r="G86" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>567</v>
       </c>
@@ -17138,7 +18531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>583</v>
       </c>
@@ -17152,7 +18545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>591</v>
       </c>
@@ -17163,7 +18556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>591</v>
       </c>
@@ -17174,7 +18567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>605</v>
       </c>
@@ -17185,7 +18578,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>610</v>
       </c>
@@ -17196,7 +18589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>611</v>
       </c>
@@ -17207,7 +18600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>611</v>
       </c>
@@ -17218,7 +18611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>624</v>
       </c>
@@ -17229,7 +18622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>633</v>
       </c>
@@ -18401,9 +19794,6 @@
       <c r="C191" s="10">
         <v>1</v>
       </c>
-      <c r="E191" s="10">
-        <v>1</v>
-      </c>
     </row>
     <row r="192" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
@@ -18583,8 +19973,8 @@
       <c r="B204" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G204" s="10">
-        <v>1</v>
+      <c r="G204" s="10" t="s">
+        <v>1326</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18603,7 +19993,7 @@
     </row>
     <row r="206" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>14</v>
@@ -18617,7 +20007,7 @@
     </row>
     <row r="207" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>14</v>
@@ -18626,6 +20016,251 @@
         <v>1</v>
       </c>
       <c r="G207" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E208" s="10">
+        <v>1</v>
+      </c>
+      <c r="G208" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E209" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="10">
+        <v>1</v>
+      </c>
+      <c r="G210" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G211" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C212" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E213" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C214" s="10">
+        <v>1</v>
+      </c>
+      <c r="E214" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C215" s="10">
+        <v>1</v>
+      </c>
+      <c r="E215" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C216" s="10">
+        <v>1</v>
+      </c>
+      <c r="E216" s="10">
+        <v>1</v>
+      </c>
+      <c r="G216" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E217" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H218" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C219" s="10">
+        <v>1</v>
+      </c>
+      <c r="E219" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C220" s="10">
+        <v>1</v>
+      </c>
+      <c r="E220" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C221" s="10">
+        <v>1</v>
+      </c>
+      <c r="E221" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C222" s="10">
+        <v>1</v>
+      </c>
+      <c r="E222" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E223" s="10">
+        <v>1</v>
+      </c>
+      <c r="G223" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H224" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H225" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E226" s="10" t="s">
+        <v>1324</v>
+      </c>
+      <c r="H226" s="10">
         <v>1</v>
       </c>
     </row>
@@ -18639,7 +20274,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4622" uniqueCount="1328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="1447">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -4095,6 +4095,363 @@
   </si>
   <si>
     <t>Zucker_Stim</t>
+  </si>
+  <si>
+    <t>CH_170707_D</t>
+  </si>
+  <si>
+    <t>2017_08_11_concat_9to10</t>
+  </si>
+  <si>
+    <t>20, 332</t>
+  </si>
+  <si>
+    <t>-41, 38</t>
+  </si>
+  <si>
+    <t>-77, 57</t>
+  </si>
+  <si>
+    <t>-118, -288</t>
+  </si>
+  <si>
+    <t>CH_170808_B</t>
+  </si>
+  <si>
+    <t>2017_08_30_0005</t>
+  </si>
+  <si>
+    <t>204, 251</t>
+  </si>
+  <si>
+    <t>-34, -36</t>
+  </si>
+  <si>
+    <t>6, -9</t>
+  </si>
+  <si>
+    <t>-85, -114</t>
+  </si>
+  <si>
+    <t>CH_170815_A</t>
+  </si>
+  <si>
+    <t>2017_09_06_0001</t>
+  </si>
+  <si>
+    <t>75, 302</t>
+  </si>
+  <si>
+    <t>-10, 80</t>
+  </si>
+  <si>
+    <t>-38, 68</t>
+  </si>
+  <si>
+    <t>-90, -290</t>
+  </si>
+  <si>
+    <t>CH_170821_B</t>
+  </si>
+  <si>
+    <t>13:15,18:20,23,24,38,39,42,43,49,51,59,60,62,66</t>
+  </si>
+  <si>
+    <t>-42, 344</t>
+  </si>
+  <si>
+    <t>22, 61</t>
+  </si>
+  <si>
+    <t>16, 47</t>
+  </si>
+  <si>
+    <t>CH_170829_A</t>
+  </si>
+  <si>
+    <t>2017_09_13_0002</t>
+  </si>
+  <si>
+    <t>1:14</t>
+  </si>
+  <si>
+    <t>2017_09_13_0003</t>
+  </si>
+  <si>
+    <t>-47, 204</t>
+  </si>
+  <si>
+    <t>38, 20</t>
+  </si>
+  <si>
+    <t>-22, -8</t>
+  </si>
+  <si>
+    <t>116, -331</t>
+  </si>
+  <si>
+    <t>2017_09_13_0005</t>
+  </si>
+  <si>
+    <t>2017_09_13_0007</t>
+  </si>
+  <si>
+    <t>2017_09_13_0008</t>
+  </si>
+  <si>
+    <t>30, 201</t>
+  </si>
+  <si>
+    <t>14, -8</t>
+  </si>
+  <si>
+    <t>-117, -361</t>
+  </si>
+  <si>
+    <t>CH_170829_B</t>
+  </si>
+  <si>
+    <t>2017_09_19_0000</t>
+  </si>
+  <si>
+    <t>14, -4</t>
+  </si>
+  <si>
+    <t>-47, 206</t>
+  </si>
+  <si>
+    <t>CH_170829_C</t>
+  </si>
+  <si>
+    <t>2017_09_20_0002</t>
+  </si>
+  <si>
+    <t>2017_09_20_0004</t>
+  </si>
+  <si>
+    <t>-37, 180</t>
+  </si>
+  <si>
+    <t>-14, -18</t>
+  </si>
+  <si>
+    <t>45, 46</t>
+  </si>
+  <si>
+    <t>130, -310</t>
+  </si>
+  <si>
+    <t>2017_09_20_0007</t>
+  </si>
+  <si>
+    <t>57, 203</t>
+  </si>
+  <si>
+    <t>-2, 19</t>
+  </si>
+  <si>
+    <t>-233, -274</t>
+  </si>
+  <si>
+    <t>2017_09_20_0008</t>
+  </si>
+  <si>
+    <t>-65, 213</t>
+  </si>
+  <si>
+    <t>27, -7</t>
+  </si>
+  <si>
+    <t>221, -238</t>
+  </si>
+  <si>
+    <t>2017_09_15_concat_1to2</t>
+  </si>
+  <si>
+    <t>2017_09_15_0000</t>
+  </si>
+  <si>
+    <t>CH_170907_D</t>
+  </si>
+  <si>
+    <t>2017_09_26_0000</t>
+  </si>
+  <si>
+    <t>-27, 155</t>
+  </si>
+  <si>
+    <t>120, -6</t>
+  </si>
+  <si>
+    <t>2017_09_26_0001</t>
+  </si>
+  <si>
+    <t>2017_09_26_0004</t>
+  </si>
+  <si>
+    <t>6, -90</t>
+  </si>
+  <si>
+    <t>26, -47</t>
+  </si>
+  <si>
+    <t>250, -215</t>
+  </si>
+  <si>
+    <t>IN_powers</t>
+  </si>
+  <si>
+    <t>2017_09_26_0011</t>
+  </si>
+  <si>
+    <t>2017_09_26_0010</t>
+  </si>
+  <si>
+    <t>-19, 216</t>
+  </si>
+  <si>
+    <t>13, -23</t>
+  </si>
+  <si>
+    <t>17, -18</t>
+  </si>
+  <si>
+    <t>71, -322</t>
+  </si>
+  <si>
+    <t>CH_170915_A</t>
+  </si>
+  <si>
+    <t>2017_10_02_0000</t>
+  </si>
+  <si>
+    <t>2017_10_02_0001</t>
+  </si>
+  <si>
+    <t>2017_10_02_0002</t>
+  </si>
+  <si>
+    <t>2017_10_02_0003</t>
+  </si>
+  <si>
+    <t>2017_10_02_0004</t>
+  </si>
+  <si>
+    <t>0, -357</t>
+  </si>
+  <si>
+    <t>-13, 280</t>
+  </si>
+  <si>
+    <t>-45, 17</t>
+  </si>
+  <si>
+    <t>-20, 45</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>2017_10_02_0005</t>
+  </si>
+  <si>
+    <t>?_dupof_2.0</t>
+  </si>
+  <si>
+    <t>CH_170915_B</t>
+  </si>
+  <si>
+    <t>2017_10_04_0001</t>
+  </si>
+  <si>
+    <t>2017_10_04_0000</t>
+  </si>
+  <si>
+    <t>2017_10_04_0002</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>-120, 170</t>
+  </si>
+  <si>
+    <t>-92, -41</t>
+  </si>
+  <si>
+    <t>-76, -41</t>
+  </si>
+  <si>
+    <t>104, -331</t>
+  </si>
+  <si>
+    <t>?_dupof_1.2</t>
+  </si>
+  <si>
+    <t>CH_170915_C</t>
+  </si>
+  <si>
+    <t>2017_10_06_0000</t>
+  </si>
+  <si>
+    <t>2017_10_06_0003</t>
+  </si>
+  <si>
+    <t>93, 180</t>
+  </si>
+  <si>
+    <t>21, -71</t>
+  </si>
+  <si>
+    <t>13, -73</t>
+  </si>
+  <si>
+    <t>-83, -304</t>
+  </si>
+  <si>
+    <t>CH_170915_D</t>
+  </si>
+  <si>
+    <t>2017_10_05_0000</t>
+  </si>
+  <si>
+    <t>2017_10_05_0002</t>
+  </si>
+  <si>
+    <t>-102, 216</t>
+  </si>
+  <si>
+    <t>-55, -20</t>
+  </si>
+  <si>
+    <t>-32, -35</t>
+  </si>
+  <si>
+    <t>-3, -342</t>
+  </si>
+  <si>
+    <t>?_dialized</t>
+  </si>
+  <si>
+    <t>2017_10_05_0003</t>
+  </si>
+  <si>
+    <t>2017_10_05_0005</t>
+  </si>
+  <si>
+    <t>2017_10_05_0006</t>
+  </si>
+  <si>
+    <t>40, 227</t>
+  </si>
+  <si>
+    <t>48, -5</t>
+  </si>
+  <si>
+    <t>51, 4</t>
+  </si>
+  <si>
+    <t>-56, -377</t>
   </si>
 </sst>
 </file>
@@ -4597,11 +4954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X226"/>
+  <dimension ref="A1:X248"/>
   <sheetViews>
     <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A226" sqref="A226"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17254,7 +17611,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="225" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3" t="s">
         <v>1306</v>
       </c>
@@ -17301,7 +17658,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="226" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3" t="s">
         <v>1313</v>
       </c>
@@ -17361,6 +17718,1361 @@
       </c>
       <c r="V226" s="3" t="s">
         <v>1200</v>
+      </c>
+    </row>
+    <row r="227" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J227" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M227" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O227" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="P227" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="Q227" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="R227" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="S227" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T227" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U227" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V227" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="228" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D228" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J228" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O228" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="P228" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="Q228" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="R228" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="S228" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T228" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U228" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V228" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W228" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="229" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D229" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J229" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M229" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O229" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P229" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="Q229" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="R229" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="S229" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T229" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U229" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V229" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W229" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="230" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D230" s="3" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J230" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M230" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O230" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="P230" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="Q230" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="R230" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="S230" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T230" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="U230" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V230" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W230" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="231" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D231" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J231" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N231" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O231" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="P231" s="3" t="s">
+        <v>1357</v>
+      </c>
+      <c r="Q231" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="R231" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="S231" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U231" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V231" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="232" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D232" s="3" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J232" s="3" t="s">
+        <v>1361</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N232" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O232" s="3" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q232" s="3" t="s">
+        <v>1363</v>
+      </c>
+      <c r="R232" s="3" t="s">
+        <v>1364</v>
+      </c>
+      <c r="S232" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T232" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U232" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V232" s="3" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="233" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>1366</v>
+      </c>
+      <c r="D233" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J233" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M233" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O233" s="3" t="s">
+        <v>1368</v>
+      </c>
+      <c r="P233" s="3" t="s">
+        <v>1367</v>
+      </c>
+      <c r="T233" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U233" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="234" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D234" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J234" s="3" t="s">
+        <v>1371</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N234" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O234" s="3" t="s">
+        <v>1372</v>
+      </c>
+      <c r="P234" s="3" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q234" s="3" t="s">
+        <v>1374</v>
+      </c>
+      <c r="R234" s="3" t="s">
+        <v>1375</v>
+      </c>
+      <c r="S234" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T234" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U234" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V234" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D235" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J235" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O235" s="3" t="s">
+        <v>1377</v>
+      </c>
+      <c r="Q235" s="3" t="s">
+        <v>1378</v>
+      </c>
+      <c r="R235" s="3" t="s">
+        <v>1379</v>
+      </c>
+      <c r="S235" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T235" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U235" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V235" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="236" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D236" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J236" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N236" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O236" s="3" t="s">
+        <v>1381</v>
+      </c>
+      <c r="Q236" s="3" t="s">
+        <v>1382</v>
+      </c>
+      <c r="R236" s="3" t="s">
+        <v>1383</v>
+      </c>
+      <c r="S236" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T236" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U236" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V236" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="237" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D237" s="3" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J237" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N237" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O237" s="3" t="s">
+        <v>1388</v>
+      </c>
+      <c r="Q237" s="3" t="s">
+        <v>1389</v>
+      </c>
+      <c r="S237" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T237" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="U237" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="238" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>1391</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J238" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M238" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="P238" s="3" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Q238" s="3" t="s">
+        <v>1393</v>
+      </c>
+      <c r="R238" s="3" t="s">
+        <v>1394</v>
+      </c>
+      <c r="S238" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T238" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="U238" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V238" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W238" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="239" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="D239" s="3" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J239" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N239" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O239" s="3" t="s">
+        <v>1398</v>
+      </c>
+      <c r="P239" s="3" t="s">
+        <v>1399</v>
+      </c>
+      <c r="Q239" s="3" t="s">
+        <v>1400</v>
+      </c>
+      <c r="R239" s="3" t="s">
+        <v>1401</v>
+      </c>
+      <c r="S239" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T239" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="U239" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V239" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W239" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="240" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>1404</v>
+      </c>
+      <c r="D240" s="3" t="s">
+        <v>1403</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J240" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N240" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="U240" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="241" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D241" s="3" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>1407</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J241" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M241" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O241" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P241" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q241" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="R241" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S241" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T241" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U241" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V241" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W241" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="242" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D242" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>1413</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J242" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M242" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O242" s="3" t="s">
+        <v>1409</v>
+      </c>
+      <c r="P242" s="3" t="s">
+        <v>1410</v>
+      </c>
+      <c r="Q242" s="3" t="s">
+        <v>1411</v>
+      </c>
+      <c r="R242" s="3" t="s">
+        <v>1408</v>
+      </c>
+      <c r="S242" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T242" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U242" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V242" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W242" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="243" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J243" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O243" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q243" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R243" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S243" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T243" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U243" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V243" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W243" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="244" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D244" s="3" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>1419</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J244" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M244" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O244" s="3" t="s">
+        <v>1420</v>
+      </c>
+      <c r="P244" s="3" t="s">
+        <v>1421</v>
+      </c>
+      <c r="Q244" s="3" t="s">
+        <v>1422</v>
+      </c>
+      <c r="R244" s="3" t="s">
+        <v>1423</v>
+      </c>
+      <c r="S244" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T244" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U244" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V244" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W244" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="245" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>1427</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J245" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M245" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O245" s="3" t="s">
+        <v>1428</v>
+      </c>
+      <c r="P245" s="3" t="s">
+        <v>1429</v>
+      </c>
+      <c r="Q245" s="3" t="s">
+        <v>1430</v>
+      </c>
+      <c r="R245" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="S245" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T245" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U245" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V245" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W245" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="246" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D246" s="3" t="s">
+        <v>1433</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J246" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M246" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O246" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P246" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q246" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="R246" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S246" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T246" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U246" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V246" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W246" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="247" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D247" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J247" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M247" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O247" s="3" t="s">
+        <v>1435</v>
+      </c>
+      <c r="P247" s="3" t="s">
+        <v>1436</v>
+      </c>
+      <c r="Q247" s="3" t="s">
+        <v>1437</v>
+      </c>
+      <c r="R247" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="S247" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T247" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U247" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V247" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W247" s="3" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="248" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>1442</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J248" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O248" s="3" t="s">
+        <v>1443</v>
+      </c>
+      <c r="P248" s="3" t="s">
+        <v>1444</v>
+      </c>
+      <c r="Q248" s="3" t="s">
+        <v>1445</v>
+      </c>
+      <c r="R248" s="3" t="s">
+        <v>1446</v>
+      </c>
+      <c r="S248" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T248" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U248" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V248" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W248" s="3" t="s">
+        <v>1114</v>
       </c>
     </row>
   </sheetData>
@@ -17374,11 +19086,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A197" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
+      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A222" sqref="A222:XFD222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17391,10 +19103,11 @@
     <col min="6" max="6" width="9.140625" style="10"/>
     <col min="7" max="7" width="19.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="23.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="10"/>
+    <col min="9" max="9" width="13.7109375" style="10" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -17419,8 +19132,11 @@
       <c r="H1" s="9" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="9" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -17434,7 +19150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>20</v>
       </c>
@@ -17448,7 +19164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>20</v>
       </c>
@@ -17462,7 +19178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
@@ -17476,7 +19192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>20</v>
       </c>
@@ -17490,7 +19206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -17504,7 +19220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -17518,7 +19234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>62</v>
       </c>
@@ -17529,7 +19245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>62</v>
       </c>
@@ -17540,7 +19256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>74</v>
       </c>
@@ -17554,7 +19270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>81</v>
       </c>
@@ -17568,7 +19284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>81</v>
       </c>
@@ -17582,7 +19298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>97</v>
       </c>
@@ -17596,7 +19312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>97</v>
       </c>
@@ -17607,7 +19323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -20221,6 +21937,9 @@
       <c r="B223" s="3" t="s">
         <v>1248</v>
       </c>
+      <c r="C223" s="10">
+        <v>1</v>
+      </c>
       <c r="E223" s="10">
         <v>1</v>
       </c>
@@ -20261,6 +21980,287 @@
         <v>1324</v>
       </c>
       <c r="H226" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G227" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G228" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C230" s="10">
+        <v>1</v>
+      </c>
+      <c r="G230" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C231" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C232" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="3" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E233" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C235" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C236" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E237" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C238" s="10">
+        <v>1</v>
+      </c>
+      <c r="E238" s="10">
+        <v>1</v>
+      </c>
+      <c r="G238" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="3" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C239" s="10">
+        <v>1</v>
+      </c>
+      <c r="G239" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E240" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C241" s="10">
+        <v>1</v>
+      </c>
+      <c r="E241" s="10">
+        <v>1</v>
+      </c>
+      <c r="G241" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G242" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I242" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G243" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I243" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C244" s="10">
+        <v>1</v>
+      </c>
+      <c r="G244" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E245" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I245" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E246" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I246" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C247" s="10">
+        <v>1</v>
+      </c>
+      <c r="G247" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A248" s="3" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E248" s="10">
+        <v>1</v>
+      </c>
+      <c r="I248" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="4935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="4935" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="1482">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -4452,6 +4452,111 @@
   </si>
   <si>
     <t>-56, -377</t>
+  </si>
+  <si>
+    <t>CH_171009_B</t>
+  </si>
+  <si>
+    <t>2017_11_06_0000</t>
+  </si>
+  <si>
+    <t>2017_11_06_0001</t>
+  </si>
+  <si>
+    <t>2017_11_06_0002</t>
+  </si>
+  <si>
+    <t>2,22</t>
+  </si>
+  <si>
+    <t>-83, 176</t>
+  </si>
+  <si>
+    <t>-91, -31</t>
+  </si>
+  <si>
+    <t>-53, -53</t>
+  </si>
+  <si>
+    <t>65, -326</t>
+  </si>
+  <si>
+    <t>CH_171009_D</t>
+  </si>
+  <si>
+    <t>2017_11_03_0000</t>
+  </si>
+  <si>
+    <t>-53, 236</t>
+  </si>
+  <si>
+    <t>-104, -4</t>
+  </si>
+  <si>
+    <t>-69, -17</t>
+  </si>
+  <si>
+    <t>-26, -312</t>
+  </si>
+  <si>
+    <t>CH_171024_C</t>
+  </si>
+  <si>
+    <t>2017_11_15_0000</t>
+  </si>
+  <si>
+    <t>2017_11_15_0001</t>
+  </si>
+  <si>
+    <t>0, 253</t>
+  </si>
+  <si>
+    <t>-22, -16</t>
+  </si>
+  <si>
+    <t>-26, -326</t>
+  </si>
+  <si>
+    <t>CH_171102_B</t>
+  </si>
+  <si>
+    <t>2017_11_20_0004</t>
+  </si>
+  <si>
+    <t>2017_11_20_0001</t>
+  </si>
+  <si>
+    <t>64, 350</t>
+  </si>
+  <si>
+    <t>-13, -20</t>
+  </si>
+  <si>
+    <t>-34, -353</t>
+  </si>
+  <si>
+    <t>2017_11_20_0002</t>
+  </si>
+  <si>
+    <t>2017_11_20_0005</t>
+  </si>
+  <si>
+    <t>2017_11_20_0007</t>
+  </si>
+  <si>
+    <t>2017_11_20_0008</t>
+  </si>
+  <si>
+    <t>-173, -276</t>
+  </si>
+  <si>
+    <t>87, 195</t>
+  </si>
+  <si>
+    <t>-5, -21</t>
+  </si>
+  <si>
+    <t>5, 2</t>
   </si>
 </sst>
 </file>
@@ -4954,11 +5059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X248"/>
+  <dimension ref="A1:X256"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N240" sqref="N240"/>
+    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A255" sqref="A255:B256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -19075,6 +19180,520 @@
         <v>1114</v>
       </c>
     </row>
+    <row r="249" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="D249" s="3" t="s">
+        <v>1448</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J249" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N249" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O249" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P249" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Q249" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="R249" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="S249" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T249" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U249" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V249" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W249" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="250" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D250" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J250" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N250" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O250" s="3" t="s">
+        <v>1452</v>
+      </c>
+      <c r="P250" s="3" t="s">
+        <v>1453</v>
+      </c>
+      <c r="Q250" s="3" t="s">
+        <v>1454</v>
+      </c>
+      <c r="R250" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="S250" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T250" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U250" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V250" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W250" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="251" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J251" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N251" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O251" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="P251" s="3" t="s">
+        <v>1459</v>
+      </c>
+      <c r="Q251" s="3" t="s">
+        <v>1460</v>
+      </c>
+      <c r="R251" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="S251" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T251" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U251" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V251" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W251" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="252" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D252" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J252" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O252" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="P252" s="3" t="s">
+        <v>1466</v>
+      </c>
+      <c r="R252" s="3" t="s">
+        <v>1467</v>
+      </c>
+      <c r="S252" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U252" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V252" s="3" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="253" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D253" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>1470</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N253" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O253" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P253" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q253" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R253" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="S253" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T253" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U253" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V253" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W253" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="254" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D254" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>1474</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J254" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M254" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O254" s="3" t="s">
+        <v>1471</v>
+      </c>
+      <c r="P254" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="Q254" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="R254" s="3" t="s">
+        <v>1473</v>
+      </c>
+      <c r="S254" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T254" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U254" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V254" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W254" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="255" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D255" s="3" t="s">
+        <v>1475</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>1476</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J255" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N255" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O255" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P255" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q255" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="R255" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S255" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T255" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U255" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V255" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W255" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="256" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D256" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>1477</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J256" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N256" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O256" s="3" t="s">
+        <v>1479</v>
+      </c>
+      <c r="P256" s="3" t="s">
+        <v>1480</v>
+      </c>
+      <c r="Q256" s="3" t="s">
+        <v>1481</v>
+      </c>
+      <c r="R256" s="3" t="s">
+        <v>1478</v>
+      </c>
+      <c r="S256" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T256" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U256" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V256" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W256" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -19086,11 +19705,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I256"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A213" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A222" sqref="A222:XFD222"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22218,6 +22837,9 @@
       <c r="E245" s="10" t="s">
         <v>1439</v>
       </c>
+      <c r="G245" s="10">
+        <v>1</v>
+      </c>
       <c r="I245" s="10">
         <v>1</v>
       </c>
@@ -22260,7 +22882,113 @@
       <c r="E248" s="10">
         <v>1</v>
       </c>
+      <c r="G248" s="10">
+        <v>1</v>
+      </c>
       <c r="I248" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I249" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C250" s="10">
+        <v>1</v>
+      </c>
+      <c r="G250" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G251" s="10">
+        <v>1</v>
+      </c>
+      <c r="I251" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C252" s="10">
+        <v>1</v>
+      </c>
+      <c r="E252" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I253" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C254" s="10">
+        <v>1</v>
+      </c>
+      <c r="G254" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="10">
+        <v>1</v>
+      </c>
+      <c r="G255" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I256" s="10">
         <v>1</v>
       </c>
     </row>
@@ -22274,7 +23002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="4935" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="4350"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5290" uniqueCount="1482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="1643">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -4557,6 +4557,489 @@
   </si>
   <si>
     <t>5, 2</t>
+  </si>
+  <si>
+    <t>CH_171221_B</t>
+  </si>
+  <si>
+    <t>2018_01_12_0005</t>
+  </si>
+  <si>
+    <t>1, 226</t>
+  </si>
+  <si>
+    <t>17, -40</t>
+  </si>
+  <si>
+    <t>39, -34</t>
+  </si>
+  <si>
+    <t>103, -282</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2018_01_12_0007</t>
+  </si>
+  <si>
+    <t>2018_01_12_0008</t>
+  </si>
+  <si>
+    <t>3, 250</t>
+  </si>
+  <si>
+    <t>-22, 7</t>
+  </si>
+  <si>
+    <t>-27, 22</t>
+  </si>
+  <si>
+    <t>-92, -269</t>
+  </si>
+  <si>
+    <t>2018_01_12_0009</t>
+  </si>
+  <si>
+    <t>2018_01_12_0003</t>
+  </si>
+  <si>
+    <t>CH_171221_A</t>
+  </si>
+  <si>
+    <t>2018_01_15_0002</t>
+  </si>
+  <si>
+    <t>2018_01_15_0001</t>
+  </si>
+  <si>
+    <t>2018_01_15_0003</t>
+  </si>
+  <si>
+    <t>2018_01_15_0004</t>
+  </si>
+  <si>
+    <t>2018_01_15_0005</t>
+  </si>
+  <si>
+    <t>2018_01_15_0006</t>
+  </si>
+  <si>
+    <t>-60, 284</t>
+  </si>
+  <si>
+    <t>-58, -18</t>
+  </si>
+  <si>
+    <t>-52, 9</t>
+  </si>
+  <si>
+    <t>-12, -305</t>
+  </si>
+  <si>
+    <t>-10, 214</t>
+  </si>
+  <si>
+    <t>13, -4</t>
+  </si>
+  <si>
+    <t>19, 15</t>
+  </si>
+  <si>
+    <t>87, -305</t>
+  </si>
+  <si>
+    <t>CH_171130_C</t>
+  </si>
+  <si>
+    <t>2018_01_16_0000</t>
+  </si>
+  <si>
+    <t>2018_01_16_0001</t>
+  </si>
+  <si>
+    <t>2018_01_16_0002</t>
+  </si>
+  <si>
+    <t>-21, 252</t>
+  </si>
+  <si>
+    <t>4, -8</t>
+  </si>
+  <si>
+    <t>44, -10</t>
+  </si>
+  <si>
+    <t>20, -333</t>
+  </si>
+  <si>
+    <t>2018_01_16_0003</t>
+  </si>
+  <si>
+    <t>2018_01_16_0004</t>
+  </si>
+  <si>
+    <t>-88, 166</t>
+  </si>
+  <si>
+    <t>-23, -31</t>
+  </si>
+  <si>
+    <t>-1, -333</t>
+  </si>
+  <si>
+    <t>2018_01_16_0005</t>
+  </si>
+  <si>
+    <t>2018_01_16_0006</t>
+  </si>
+  <si>
+    <t>32, 190</t>
+  </si>
+  <si>
+    <t>4, -37</t>
+  </si>
+  <si>
+    <t>-52, -297</t>
+  </si>
+  <si>
+    <t>2018_01_12_0004</t>
+  </si>
+  <si>
+    <t>22:27</t>
+  </si>
+  <si>
+    <t>CH_171221_C</t>
+  </si>
+  <si>
+    <t>2018_01_22_0004</t>
+  </si>
+  <si>
+    <t>2018_01_22_0005</t>
+  </si>
+  <si>
+    <t>2018_01_22_0007</t>
+  </si>
+  <si>
+    <t>103, 325</t>
+  </si>
+  <si>
+    <t>75, 3</t>
+  </si>
+  <si>
+    <t>100, -7</t>
+  </si>
+  <si>
+    <t>-38, -341</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2018_01_22_0012</t>
+  </si>
+  <si>
+    <t>2018_01_22_0011</t>
+  </si>
+  <si>
+    <t>2018_01_22_0013</t>
+  </si>
+  <si>
+    <t>-9, 217</t>
+  </si>
+  <si>
+    <t>-4, 39</t>
+  </si>
+  <si>
+    <t>-15, 4</t>
+  </si>
+  <si>
+    <t>20, -350</t>
+  </si>
+  <si>
+    <t>CH_171221_D</t>
+  </si>
+  <si>
+    <t>2018_01_23_0000</t>
+  </si>
+  <si>
+    <t>2018_01_23_0001</t>
+  </si>
+  <si>
+    <t>2018_01_23_0002</t>
+  </si>
+  <si>
+    <t>-12, 278</t>
+  </si>
+  <si>
+    <t>-30. 11</t>
+  </si>
+  <si>
+    <t>-11, 44</t>
+  </si>
+  <si>
+    <t>49, -335</t>
+  </si>
+  <si>
+    <t>2018_01_23_0004</t>
+  </si>
+  <si>
+    <t>2018_01_23_0005</t>
+  </si>
+  <si>
+    <t>146, 226</t>
+  </si>
+  <si>
+    <t>56, 17</t>
+  </si>
+  <si>
+    <t>70, 37</t>
+  </si>
+  <si>
+    <t>-107, -322</t>
+  </si>
+  <si>
+    <t>CH_180104_A</t>
+  </si>
+  <si>
+    <t>2018_01_25_0000</t>
+  </si>
+  <si>
+    <t>2018_01_25_0001</t>
+  </si>
+  <si>
+    <t>14,16,17,18,23,</t>
+  </si>
+  <si>
+    <t>63, 226</t>
+  </si>
+  <si>
+    <t>12, -2</t>
+  </si>
+  <si>
+    <t>35, 51</t>
+  </si>
+  <si>
+    <t>69, -290</t>
+  </si>
+  <si>
+    <t>2018_01_25_0004</t>
+  </si>
+  <si>
+    <t>2018_01_25_0005</t>
+  </si>
+  <si>
+    <t>38, 253</t>
+  </si>
+  <si>
+    <t>-171, -237</t>
+  </si>
+  <si>
+    <t>2018_01_25_0007</t>
+  </si>
+  <si>
+    <t>2018_01_25_0009</t>
+  </si>
+  <si>
+    <t>66, 180</t>
+  </si>
+  <si>
+    <t>17, -11</t>
+  </si>
+  <si>
+    <t>-107, -336</t>
+  </si>
+  <si>
+    <t>CH_180104_B</t>
+  </si>
+  <si>
+    <t>2018_01_28_0003</t>
+  </si>
+  <si>
+    <t>2018_01_28_0004</t>
+  </si>
+  <si>
+    <t>25, 206</t>
+  </si>
+  <si>
+    <t>-5, -32</t>
+  </si>
+  <si>
+    <t>-109, -314</t>
+  </si>
+  <si>
+    <t>2018_01_28_0006</t>
+  </si>
+  <si>
+    <t>2018_01_28_0008</t>
+  </si>
+  <si>
+    <t>2018_01_28_0009</t>
+  </si>
+  <si>
+    <t>2018_01_28_0007</t>
+  </si>
+  <si>
+    <t>71, 221</t>
+  </si>
+  <si>
+    <t>70, 50</t>
+  </si>
+  <si>
+    <t>-109, -315</t>
+  </si>
+  <si>
+    <t>-21, 233</t>
+  </si>
+  <si>
+    <t>-14, -46</t>
+  </si>
+  <si>
+    <t>CH_180104_C</t>
+  </si>
+  <si>
+    <t>2018_01_31_0003</t>
+  </si>
+  <si>
+    <t>2018_01_31_0004</t>
+  </si>
+  <si>
+    <t>2018_01_31_0005</t>
+  </si>
+  <si>
+    <t>86, 226</t>
+  </si>
+  <si>
+    <t>60, 72</t>
+  </si>
+  <si>
+    <t>13, -347</t>
+  </si>
+  <si>
+    <t>2018_01_31_0007</t>
+  </si>
+  <si>
+    <t>2018_01_31_0008</t>
+  </si>
+  <si>
+    <t>7, 250</t>
+  </si>
+  <si>
+    <t>45, -21</t>
+  </si>
+  <si>
+    <t>26, -280</t>
+  </si>
+  <si>
+    <t>CH_180104_D</t>
+  </si>
+  <si>
+    <t>2018_01_30_0000</t>
+  </si>
+  <si>
+    <t>2018_01_30_0001</t>
+  </si>
+  <si>
+    <t>0, 273</t>
+  </si>
+  <si>
+    <t>-13, 16</t>
+  </si>
+  <si>
+    <t>4, 28</t>
+  </si>
+  <si>
+    <t>CH_180111_A</t>
+  </si>
+  <si>
+    <t>2018_02_01_0000</t>
+  </si>
+  <si>
+    <t>2018_02_01_0001</t>
+  </si>
+  <si>
+    <t>-165, -163</t>
+  </si>
+  <si>
+    <t>-118, -21</t>
+  </si>
+  <si>
+    <t>-96, -49</t>
+  </si>
+  <si>
+    <t>42, -333</t>
+  </si>
+  <si>
+    <t>2018_02_01_0002</t>
+  </si>
+  <si>
+    <t>2018_02_01_0003</t>
+  </si>
+  <si>
+    <t>2018_02_01_0004</t>
+  </si>
+  <si>
+    <t>21, 252</t>
+  </si>
+  <si>
+    <t>10, 44</t>
+  </si>
+  <si>
+    <t>39, 40</t>
+  </si>
+  <si>
+    <t>-67, -351</t>
+  </si>
+  <si>
+    <t>30 uM APV</t>
+  </si>
+  <si>
+    <t>CH_180111_B</t>
+  </si>
+  <si>
+    <t>concat_2018_02_02_2to3</t>
+  </si>
+  <si>
+    <t>2018_02_02_0001</t>
+  </si>
+  <si>
+    <t>2018_02_02_0004</t>
+  </si>
+  <si>
+    <t>-124, 188</t>
+  </si>
+  <si>
+    <t>-70, 30</t>
+  </si>
+  <si>
+    <t>-50, 50</t>
+  </si>
+  <si>
+    <t>173, -288</t>
+  </si>
+  <si>
+    <t>2018_02_02_0005</t>
+  </si>
+  <si>
+    <t>2018_02_02_0006</t>
+  </si>
+  <si>
+    <t>-30, 164</t>
+  </si>
+  <si>
+    <t>-68, -33</t>
+  </si>
+  <si>
+    <t>-58, -37</t>
+  </si>
+  <si>
+    <t>-114, -371</t>
+  </si>
+  <si>
+    <t>21:27</t>
   </si>
 </sst>
 </file>
@@ -5059,11 +5542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X256"/>
+  <dimension ref="A1:X295"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A255" sqref="A255:B256"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A295" sqref="A295:B295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -18324,7 +18807,7 @@
         <v>37</v>
       </c>
       <c r="V234" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
     </row>
     <row r="235" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18380,7 +18863,7 @@
         <v>116</v>
       </c>
       <c r="V235" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
     </row>
     <row r="236" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18436,7 +18919,7 @@
         <v>116</v>
       </c>
       <c r="V236" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
     </row>
     <row r="237" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -18716,7 +19199,7 @@
         <v>94</v>
       </c>
       <c r="V241" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W241" s="3" t="s">
         <v>1114</v>
@@ -18781,7 +19264,7 @@
         <v>94</v>
       </c>
       <c r="V242" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W242" s="3" t="s">
         <v>1114</v>
@@ -18846,7 +19329,7 @@
         <v>45</v>
       </c>
       <c r="V243" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W243" s="3" t="s">
         <v>1114</v>
@@ -18914,7 +19397,7 @@
         <v>45</v>
       </c>
       <c r="V244" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W244" s="3" t="s">
         <v>1114</v>
@@ -18979,7 +19462,7 @@
         <v>45</v>
       </c>
       <c r="V245" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W245" s="3" t="s">
         <v>1114</v>
@@ -19044,7 +19527,7 @@
         <v>94</v>
       </c>
       <c r="V246" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W246" s="3" t="s">
         <v>1114</v>
@@ -19109,7 +19592,7 @@
         <v>94</v>
       </c>
       <c r="V247" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W247" s="3" t="s">
         <v>1114</v>
@@ -19174,7 +19657,7 @@
         <v>116</v>
       </c>
       <c r="V248" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W248" s="3" t="s">
         <v>1114</v>
@@ -19239,7 +19722,7 @@
         <v>45</v>
       </c>
       <c r="V249" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W249" s="3" t="s">
         <v>1150</v>
@@ -19307,7 +19790,7 @@
         <v>45</v>
       </c>
       <c r="V250" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W250" s="3" t="s">
         <v>1150</v>
@@ -19372,7 +19855,7 @@
         <v>45</v>
       </c>
       <c r="V251" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W251" s="3" t="s">
         <v>1150</v>
@@ -19431,7 +19914,7 @@
         <v>116</v>
       </c>
       <c r="V252" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
     </row>
     <row r="253" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -19493,7 +19976,7 @@
         <v>94</v>
       </c>
       <c r="V253" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W253" s="3" t="s">
         <v>1150</v>
@@ -19558,7 +20041,7 @@
         <v>94</v>
       </c>
       <c r="V254" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W254" s="3" t="s">
         <v>1150</v>
@@ -19623,7 +20106,7 @@
         <v>45</v>
       </c>
       <c r="V255" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W255" s="3" t="s">
         <v>1150</v>
@@ -19688,28 +20171,2506 @@
         <v>45</v>
       </c>
       <c r="V256" s="3" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="W256" s="3" t="s">
         <v>1150</v>
+      </c>
+    </row>
+    <row r="257" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D257" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>1496</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J257" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M257" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O257" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P257" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="Q257" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="R257" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="S257" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T257" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U257" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V257" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W257" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="258" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D258" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J258" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O258" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="P258" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q258" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R258" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S258" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T258" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V258" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W258" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="259" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D259" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J259" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N259" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O259" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="P259" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q259" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R259" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S259" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T259" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V259" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W259" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="260" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D260" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J260" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M260" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N260" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O260" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P260" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q260" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R260" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S260" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T260" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U260" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V260" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W260" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="261" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D261" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J261" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N261" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O261" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P261" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q261" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R261" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S261" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T261" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U261" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V261" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W261" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="262" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D262" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J262" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M262" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O262" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="P262" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q262" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="R262" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S262" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T262" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U262" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V262" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W262" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="263" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D263" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>1503</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J263" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M263" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O263" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="P263" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q263" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="R263" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S263" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T263" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U263" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V263" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W263" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D264" s="3" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J264" s="3" t="s">
+        <v>1515</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N264" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O264" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="P264" s="3" t="s">
+        <v>1517</v>
+      </c>
+      <c r="Q264" s="3" t="s">
+        <v>1518</v>
+      </c>
+      <c r="R264" s="3" t="s">
+        <v>1519</v>
+      </c>
+      <c r="S264" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T264" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U264" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V264" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W264" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="265" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D265" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>1521</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J265" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O265" s="3" t="s">
+        <v>1522</v>
+      </c>
+      <c r="P265" s="3" t="s">
+        <v>1523</v>
+      </c>
+      <c r="R265" s="3" t="s">
+        <v>1524</v>
+      </c>
+      <c r="S265" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T265" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U265" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V265" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W265" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="266" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D266" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J266" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O266" s="3" t="s">
+        <v>1527</v>
+      </c>
+      <c r="P266" s="3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="R266" s="3" t="s">
+        <v>1529</v>
+      </c>
+      <c r="S266" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V266" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W266" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="267" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D267" s="3" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>1499</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J267" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M267" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O267" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P267" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q267" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R267" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S267" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T267" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U267" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V267" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W267" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="268" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D268" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>1500</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J268" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M268" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O268" s="3" t="s">
+        <v>1504</v>
+      </c>
+      <c r="P268" s="3" t="s">
+        <v>1505</v>
+      </c>
+      <c r="Q268" s="3" t="s">
+        <v>1506</v>
+      </c>
+      <c r="R268" s="3" t="s">
+        <v>1507</v>
+      </c>
+      <c r="S268" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T268" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U268" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V268" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W268" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="269" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D269" s="3" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J269" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M269" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O269" s="3" t="s">
+        <v>1508</v>
+      </c>
+      <c r="P269" s="3" t="s">
+        <v>1509</v>
+      </c>
+      <c r="Q269" s="3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="R269" s="3" t="s">
+        <v>1511</v>
+      </c>
+      <c r="S269" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T269" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U269" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V269" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W269" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="270" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D270" s="3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>1530</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J270" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M270" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N270" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O270" s="3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="P270" s="3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="Q270" s="3" t="s">
+        <v>1486</v>
+      </c>
+      <c r="R270" s="3" t="s">
+        <v>1487</v>
+      </c>
+      <c r="S270" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T270" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U270" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V270" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W270" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="271" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D271" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>1490</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J271" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M271" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O271" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="P271" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q271" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R271" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S271" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T271" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U271" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V271" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W271" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D272" s="3" t="s">
+        <v>1489</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J272" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M272" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O272" s="3" t="s">
+        <v>1491</v>
+      </c>
+      <c r="P272" s="3" t="s">
+        <v>1492</v>
+      </c>
+      <c r="Q272" s="3" t="s">
+        <v>1493</v>
+      </c>
+      <c r="R272" s="3" t="s">
+        <v>1494</v>
+      </c>
+      <c r="S272" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T272" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U272" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V272" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W272" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="273" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D273" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J273" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M273" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O273" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P273" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q273" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="R273" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="S273" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T273" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U273" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V273" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W273" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D274" s="3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J274" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N274" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O274" s="3" t="s">
+        <v>1536</v>
+      </c>
+      <c r="P274" s="3" t="s">
+        <v>1537</v>
+      </c>
+      <c r="Q274" s="3" t="s">
+        <v>1538</v>
+      </c>
+      <c r="R274" s="3" t="s">
+        <v>1539</v>
+      </c>
+      <c r="S274" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T274" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U274" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V274" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W274" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D275" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J275" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N275" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O275" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P275" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q275" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="R275" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S275" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T275" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U275" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V275" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W275" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="276" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D276" s="3" t="s">
+        <v>1542</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>1544</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J276" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M276" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O276" s="3" t="s">
+        <v>1545</v>
+      </c>
+      <c r="P276" s="3" t="s">
+        <v>1546</v>
+      </c>
+      <c r="Q276" s="3" t="s">
+        <v>1547</v>
+      </c>
+      <c r="R276" s="3" t="s">
+        <v>1548</v>
+      </c>
+      <c r="S276" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T276" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U276" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V276" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W276" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D277" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>1551</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J277" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M277" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O277" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P277" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Q277" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="R277" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="S277" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T277" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U277" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V277" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W277" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="278" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D278" s="3" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J278" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M278" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N278" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O278" s="3" t="s">
+        <v>1553</v>
+      </c>
+      <c r="P278" s="3" t="s">
+        <v>1554</v>
+      </c>
+      <c r="Q278" s="3" t="s">
+        <v>1555</v>
+      </c>
+      <c r="R278" s="3" t="s">
+        <v>1556</v>
+      </c>
+      <c r="S278" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T278" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U278" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V278" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W278" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="279" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>1557</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J279" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M279" s="3" t="s">
+        <v>1140</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O279" s="3" t="s">
+        <v>1559</v>
+      </c>
+      <c r="P279" s="3" t="s">
+        <v>1560</v>
+      </c>
+      <c r="Q279" s="3" t="s">
+        <v>1561</v>
+      </c>
+      <c r="R279" s="3" t="s">
+        <v>1562</v>
+      </c>
+      <c r="S279" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T279" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U279" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V279" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W279" s="3" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D280" s="3" t="s">
+        <v>1564</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J280" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N280" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O280" s="3" t="s">
+        <v>1567</v>
+      </c>
+      <c r="P280" s="3" t="s">
+        <v>1568</v>
+      </c>
+      <c r="Q280" s="3" t="s">
+        <v>1569</v>
+      </c>
+      <c r="R280" s="3" t="s">
+        <v>1570</v>
+      </c>
+      <c r="S280" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T280" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U280" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V280" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W280" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D281" s="3" t="s">
+        <v>1571</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J281" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O281" s="3" t="s">
+        <v>1573</v>
+      </c>
+      <c r="Q281" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="R281" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="S281" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T281" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U281" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V281" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W281" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="282" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D282" s="3" t="s">
+        <v>1575</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>1576</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J282" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N282" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O282" s="3" t="s">
+        <v>1577</v>
+      </c>
+      <c r="Q282" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="R282" s="3" t="s">
+        <v>1579</v>
+      </c>
+      <c r="S282" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T282" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U282" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V282" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W282" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="283" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>1582</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J283" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O283" s="3" t="s">
+        <v>1583</v>
+      </c>
+      <c r="P283" s="3" t="s">
+        <v>1584</v>
+      </c>
+      <c r="R283" s="3" t="s">
+        <v>1585</v>
+      </c>
+      <c r="S283" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T283" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U283" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V283" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W283" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="284" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>1586</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>1589</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J284" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N284" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O284" s="3" t="s">
+        <v>1590</v>
+      </c>
+      <c r="Q284" s="3" t="s">
+        <v>1591</v>
+      </c>
+      <c r="R284" s="3" t="s">
+        <v>1592</v>
+      </c>
+      <c r="S284" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U284" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V284" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="W284" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="285" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>1587</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J285" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N285" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O285" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q285" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="S285" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T285" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U285" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="286" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D286" s="3" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J286" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O286" s="3" t="s">
+        <v>1593</v>
+      </c>
+      <c r="Q286" s="3" t="s">
+        <v>1594</v>
+      </c>
+      <c r="S286" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U286" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="287" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D287" s="3" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>1597</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J287" s="3" t="s">
+        <v>1598</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O287" s="3" t="s">
+        <v>1599</v>
+      </c>
+      <c r="Q287" s="3" t="s">
+        <v>1600</v>
+      </c>
+      <c r="R287" s="3" t="s">
+        <v>1601</v>
+      </c>
+      <c r="S287" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U287" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="V287" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="288" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>1603</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J288" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O288" s="3" t="s">
+        <v>1604</v>
+      </c>
+      <c r="Q288" s="3" t="s">
+        <v>1605</v>
+      </c>
+      <c r="R288" s="3" t="s">
+        <v>1606</v>
+      </c>
+      <c r="S288" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T288" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U288" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V288" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="289" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>1609</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J289" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N289" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O289" s="3" t="s">
+        <v>1610</v>
+      </c>
+      <c r="P289" s="3" t="s">
+        <v>1611</v>
+      </c>
+      <c r="Q289" s="3" t="s">
+        <v>1612</v>
+      </c>
+      <c r="R289" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="S289" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T289" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U289" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="V289" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="290" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>1615</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J290" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N290" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O290" s="3" t="s">
+        <v>1616</v>
+      </c>
+      <c r="P290" s="3" t="s">
+        <v>1617</v>
+      </c>
+      <c r="Q290" s="3" t="s">
+        <v>1618</v>
+      </c>
+      <c r="R290" s="3" t="s">
+        <v>1619</v>
+      </c>
+      <c r="S290" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T290" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U290" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V290" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W290" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="291" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D291" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J291" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M291" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O291" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P291" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q291" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="R291" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="S291" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T291" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U291" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V291" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W291" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="292" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J292" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N292" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O292" s="3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="P292" s="3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="Q292" s="3" t="s">
+        <v>1625</v>
+      </c>
+      <c r="R292" s="3" t="s">
+        <v>1626</v>
+      </c>
+      <c r="S292" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T292" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U292" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V292" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W292" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="293" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D293" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>1629</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J293" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M293" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O293" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P293" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Q293" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="R293" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S293" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T293" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U293" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V293" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W293" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="294" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D294" s="3" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>1631</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J294" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="N294" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O294" s="3" t="s">
+        <v>1632</v>
+      </c>
+      <c r="P294" s="3" t="s">
+        <v>1633</v>
+      </c>
+      <c r="Q294" s="3" t="s">
+        <v>1634</v>
+      </c>
+      <c r="R294" s="3" t="s">
+        <v>1635</v>
+      </c>
+      <c r="S294" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T294" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U294" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="V294" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W294" s="3" t="s">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="295" spans="1:23" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D295" s="3" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J295" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M295" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="O295" s="3" t="s">
+        <v>1638</v>
+      </c>
+      <c r="P295" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="Q295" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="R295" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="S295" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="T295" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="U295" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V295" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="W295" s="3" t="s">
+        <v>1627</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="Q5 Q95 Q139 P188" twoDigitTextYear="1"/>
+    <ignoredError sqref="Q5 Q95 Q139 P188 P291:P292" twoDigitTextYear="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I256"/>
+  <dimension ref="A1:I295"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A233" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A291" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G295" sqref="G295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22989,6 +25950,510 @@
         <v>1412</v>
       </c>
       <c r="I256" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C257" s="10">
+        <v>1</v>
+      </c>
+      <c r="G257" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C258" s="10">
+        <v>1</v>
+      </c>
+      <c r="G258" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I259" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C260" s="10">
+        <v>1</v>
+      </c>
+      <c r="G260" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I261" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C262" s="10">
+        <v>1</v>
+      </c>
+      <c r="G262" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I263" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C264" s="10">
+        <v>1</v>
+      </c>
+      <c r="E264" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C265" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C266" s="10">
+        <v>1</v>
+      </c>
+      <c r="E266" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C267" s="10">
+        <v>1</v>
+      </c>
+      <c r="G267" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I268" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="3" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C269" s="10">
+        <v>1</v>
+      </c>
+      <c r="G269" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C270" s="10">
+        <v>1</v>
+      </c>
+      <c r="G270" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C271" s="10">
+        <v>1</v>
+      </c>
+      <c r="G271" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="3" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I272" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C273" s="10">
+        <v>1</v>
+      </c>
+      <c r="G273" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I274" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C275" s="10">
+        <v>1</v>
+      </c>
+      <c r="G275" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>1541</v>
+      </c>
+      <c r="I276" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C277" s="10">
+        <v>1</v>
+      </c>
+      <c r="G277" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I278" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="3" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G279" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C280" s="10">
+        <v>1</v>
+      </c>
+      <c r="E280" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C281" s="10">
+        <v>1</v>
+      </c>
+      <c r="E281" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C282" s="10">
+        <v>1</v>
+      </c>
+      <c r="E282" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C283" s="10">
+        <v>1</v>
+      </c>
+      <c r="E283" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="10">
+        <v>1</v>
+      </c>
+      <c r="E284" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E285" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E286" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C287" s="10">
+        <v>1</v>
+      </c>
+      <c r="E287" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="10">
+        <v>1</v>
+      </c>
+      <c r="E288" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C289" s="10">
+        <v>1</v>
+      </c>
+      <c r="E289" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C290" s="10">
+        <v>1</v>
+      </c>
+      <c r="G290" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C291" s="10">
+        <v>1</v>
+      </c>
+      <c r="G291" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="3" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I292" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C293" s="10">
+        <v>1</v>
+      </c>
+      <c r="G293" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="I294" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C295" s="10">
+        <v>1</v>
+      </c>
+      <c r="G295" s="10">
         <v>1</v>
       </c>
     </row>

--- a/Other_workbooks/wholeCellSTPCellList.xlsx
+++ b/Other_workbooks/wholeCellSTPCellList.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="3945"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12690" windowHeight="3945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="wb_info" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6614" uniqueCount="1748">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6618" uniqueCount="1750">
   <si>
     <t>Mouse Name</t>
   </si>
@@ -5356,6 +5356,12 @@
   </si>
   <si>
     <t>2018_02_13_0006</t>
+  </si>
+  <si>
+    <t>4,9,13</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -5860,9 +5866,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X313"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U166" sqref="U166"/>
+    <sheetView showFormulas="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A203" sqref="A203:XFD203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -21682,6 +21688,9 @@
       <c r="E275" s="3" t="s">
         <v>1542</v>
       </c>
+      <c r="G275" s="3" t="s">
+        <v>1748</v>
+      </c>
       <c r="H275" s="3" t="s">
         <v>14</v>
       </c>
@@ -24121,9 +24130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I313"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A309" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I313" sqref="I313"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G203" sqref="G203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -26705,14 +26714,14 @@
       <c r="B203" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C203" s="10">
-        <v>1</v>
+      <c r="C203" s="10" t="s">
+        <v>1749</v>
       </c>
       <c r="E203" s="10">
         <v>1</v>
       </c>
-      <c r="G203" s="10">
-        <v>1</v>
+      <c r="G203" s="10" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -28062,8 +28071,8 @@
       <c r="B307" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G307" s="10">
-        <v>1</v>
+      <c r="G307" s="10" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
